--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$422</definedName>
-    <definedName name="Appendix_A_1" localSheetId="0">Requirements!$B$402</definedName>
-    <definedName name="Appendix_A_2" localSheetId="0">Requirements!$B$404</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$421</definedName>
+    <definedName name="Appendix_A_1" localSheetId="0">Requirements!$B$403</definedName>
+    <definedName name="Appendix_A_2" localSheetId="0">Requirements!$B$405</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="950">
   <si>
     <t>Req ID</t>
   </si>
@@ -2937,9 +2937,6 @@
     <t>MS-OXWSATT_R318001</t>
   </si>
   <si>
-    <t>MS-OXWSATT_R78001,MS-OXWSATT_R1:i</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does return ErrorInvalidItemForOperationCreateItemAttachment response code as specified in [MS-OXWSCDATA] section 2.2.5.24, when the item attachment is MeetingMessage, MeetingRequest, MeetingResponse or MeetingCancellation.(Exchange 2007 and above follow this behavior.)</t>
   </si>
   <si>
@@ -3183,24 +3180,6 @@
     <t>MS-OXWSATT_R104018</t>
   </si>
   <si>
-    <t>[t:ReferenceAttachmentType Complex Type]This type extends the AttachmentType complex type (section 2.2.4.4). &lt;8&gt;
-&lt;xs:complexType name="ReferenceAttachmentType"&gt;
-   &lt;xs:complexContent&gt;
-     &lt;xs:extension base="t:AttachmentType"&gt;
-       &lt;xs:sequence&gt;
-         &lt;xs:element name="AttachLongPathName" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-         &lt;xs:element name="ProviderType" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-      &lt;xs:element name="ProviderEndpointUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-      &lt;xs:element name="AttachmentThumbnailUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-      &lt;xs:element name="AttachmentPreviewUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
-      &lt;xs:element name="PermissionType" type="xs:int" minOccurs="0" maxOccurs="1"/&gt;
-      &lt;xs:element name="AttachmentIsFolder" type="xs:boolean" minOccurs="0" maxOccurs="1"/&gt;
-       &lt;/xs:sequence&gt;
-     &lt;/xs:extension&gt;
-   &lt;/xs:complexContent&gt;
- &lt;/xs:complexType&gt;</t>
-  </si>
-  <si>
     <t>[In Protocol Details] That is, no additional timers or other state is required on the client side of this protocol [MS-OXWSATT].</t>
   </si>
   <si>
@@ -3397,21 +3376,12 @@
     <t>[In Appendix C: Product Behavior] Implementation does not suport IsContactPhoto element. (&lt;2&gt; Section 2.2.4.5:  The IsContactPhoto element is not supported in Exchange 2007.)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not return a generic ItemType item.(&lt;3&gt; Section 2.2.4.6:  In Microsoft Exchange Server 2007 Service Pack 1 (SP1), Exchange 2010, Exchange 2013, and Exchange 2016, generic items will be returned as MessageType items.)</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the Person element. (&lt;6&gt; Section 2.2.4.6:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the Person element.)</t>
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the Person element. (Exchange 2016 follow this behavior).</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ReferenceAttachmentType complextype. (&lt;8&gt; Section 2.2.4.8:  Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ReferenceAttachmentType complex type. )</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce the ReferenceAttachmentType complextype. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the FilterHtmlContent element. (Exchange 2010 and above follow this behavior.)</t>
   </si>
   <si>
@@ -3442,12 +3412,6 @@
     <t>MS-OXWSATT_R318005</t>
   </si>
   <si>
-    <t>MS-OXWSATT_R318006</t>
-  </si>
-  <si>
-    <t>MS-OXWSATT_R318007</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R318008</t>
   </si>
   <si>
@@ -3469,15 +3433,6 @@
     <t>MS-OXWSATT_R479:c</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318013</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R479001, MS-OXWSATT_R479002</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318008.</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R318014</t>
   </si>
   <si>
@@ -3493,12 +3448,6 @@
     <t>Verified by derived requirement: MS-OXWSATT_R318011.</t>
   </si>
   <si>
-    <t>Verified by derived requirement:MS-OXWSATT_R311, MS-OXWSATT_R3111.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R55001, MS-OXWSATT_R55002, MS-OXWSATT_R55003, MS-OXWSATT_R552.</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R55004</t>
   </si>
   <si>
@@ -3523,10 +3472,83 @@
     <t>[In Appendix C: Product Behavior] Implementation does suport IsContactPhoto element. (Exchange 2010 and above follow this behavior).</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a generic ItemType item. (The initial release Exchange 2007 follow this behavior).</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSATT_R318005.</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R43001</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R343:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R346:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R81:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R99006:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R104002:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R309:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R311:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318009.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements:MS-OXWSATT_R311, MS-OXWSATT_R3111.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSATT_R55001, MS-OXWSATT_R55002, MS-OXWSATT_R55003, MS-OXWSATT_R552.</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R78001:i,MS-OXWSATT_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ReferenceAttachmentType complex type. (&lt;8&gt; Section 2.2.4.8:  Exchange 2007, Exchange 2010, and the initial release of Exchange 2013 do not support the ReferenceAttachmentType complex type. )</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does introduce the ReferenceAttachmentType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXWSATT_R479001, MS-OXWSATT_R479002.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318013.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[t:ReferenceAttachmentType Complex Type]This type extends the AttachmentType complex type (section 2.2.4.4). &lt;8&gt;
+</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R104003</t>
+  </si>
+  <si>
+    <t>[t:ReferenceAttachmentType Complex Type] [The ReferenceAttachmentType Complex Type is defined as follow:]
+&lt;xs:complexType name="ReferenceAttachmentType"&gt;
+   &lt;xs:complexContent&gt;
+     &lt;xs:extension base="t:AttachmentType"&gt;
+       &lt;xs:sequence&gt;
+         &lt;xs:element name="AttachLongPathName" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
+         &lt;xs:element name="ProviderType" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
+      &lt;xs:element name="ProviderEndpointUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
+      &lt;xs:element name="AttachmentThumbnailUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
+      &lt;xs:element name="AttachmentPreviewUrl" type="xs:string" minOccurs="0" maxOccurs="1"/&gt;
+      &lt;xs:element name="PermissionType" type="xs:int" minOccurs="0" maxOccurs="1"/&gt;
+      &lt;xs:element name="AttachmentIsFolder" type="xs:boolean" minOccurs="0" maxOccurs="1"/&gt;
+       &lt;/xs:sequence&gt;
+     &lt;/xs:extension&gt;
+   &lt;/xs:complexContent&gt;
+ &lt;/xs:complexType&gt;</t>
   </si>
 </sst>
 </file>
@@ -3839,6 +3861,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3863,242 +3906,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="147">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -4514,6 +4326,216 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5012,8 +5034,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" connectionId="1">
-  <autoFilter ref="A19:I422"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I421" tableType="xml" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" connectionId="1">
+  <autoFilter ref="A19:I421"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="144">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -5347,10 +5369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M424"/>
+  <dimension ref="A1:M423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="C125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5416,16 +5438,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5437,13 +5459,13 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -5451,16 +5473,16 @@
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -5468,16 +5490,16 @@
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -5485,16 +5507,16 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -5502,16 +5524,16 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -5519,16 +5541,16 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -5536,16 +5558,16 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -5629,16 +5651,16 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -5646,16 +5668,16 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -5663,16 +5685,16 @@
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -7053,16 +7075,28 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="30">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
+      <c r="A73" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>393</v>
+      </c>
       <c r="C73" s="30" t="s">
         <v>771</v>
       </c>
       <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
+      <c r="E73" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="45">
@@ -7889,7 +7923,7 @@
         <v>395</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -7905,7 +7939,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30">
@@ -8091,7 +8125,7 @@
         <v>396</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
@@ -8107,7 +8141,7 @@
         <v>17</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="30">
@@ -8259,7 +8293,7 @@
         <v>17</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45">
@@ -8295,7 +8329,7 @@
         <v>397</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="28" t="s">
@@ -8345,7 +8379,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8362,7 +8396,7 @@
       </c>
       <c r="I124" s="30"/>
     </row>
-    <row r="125" spans="1:9" ht="30">
+    <row r="125" spans="1:9" ht="45">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8370,7 +8404,7 @@
         <v>397</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8383,9 +8417,11 @@
         <v>15</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
@@ -8445,7 +8481,7 @@
         <v>397</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8495,7 +8531,7 @@
         <v>397</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8545,7 +8581,7 @@
         <v>397</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -8595,7 +8631,7 @@
         <v>397</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -8645,7 +8681,7 @@
         <v>397</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -8695,7 +8731,7 @@
         <v>397</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -8745,7 +8781,7 @@
         <v>397</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
@@ -8839,13 +8875,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -8864,13 +8900,13 @@
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8889,13 +8925,13 @@
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -8914,13 +8950,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -8939,13 +8975,13 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -8964,13 +9000,13 @@
     </row>
     <row r="149" spans="1:9" ht="45">
       <c r="A149" s="28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -8986,18 +9022,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -9016,13 +9052,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -9122,7 +9158,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -9166,13 +9202,13 @@
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
@@ -9189,15 +9225,15 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="330">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>842</v>
+        <v>947</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -9213,18 +9249,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="30">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="330">
       <c r="A159" s="28" t="s">
-        <v>827</v>
+        <v>948</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>810</v>
+        <v>949</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9234,22 +9270,22 @@
         <v>6</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I159" s="30"/>
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9259,22 +9295,22 @@
         <v>6</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H160" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9287,19 +9323,19 @@
         <v>15</v>
       </c>
       <c r="H161" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9312,19 +9348,19 @@
         <v>15</v>
       </c>
       <c r="H162" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9337,19 +9373,19 @@
         <v>15</v>
       </c>
       <c r="H163" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9362,19 +9398,19 @@
         <v>15</v>
       </c>
       <c r="H164" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9387,19 +9423,19 @@
         <v>15</v>
       </c>
       <c r="H165" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I165" s="30"/>
     </row>
     <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
@@ -9412,19 +9448,19 @@
         <v>15</v>
       </c>
       <c r="H166" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I166" s="30"/>
     </row>
     <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9437,19 +9473,19 @@
         <v>15</v>
       </c>
       <c r="H167" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I167" s="30"/>
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9462,19 +9498,19 @@
         <v>15</v>
       </c>
       <c r="H168" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I168" s="30"/>
     </row>
     <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9487,19 +9523,19 @@
         <v>15</v>
       </c>
       <c r="H169" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I169" s="30"/>
     </row>
     <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
@@ -9512,19 +9548,19 @@
         <v>15</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I170" s="30"/>
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
@@ -9537,19 +9573,19 @@
         <v>15</v>
       </c>
       <c r="H171" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I171" s="30"/>
     </row>
     <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
@@ -9562,19 +9598,19 @@
         <v>15</v>
       </c>
       <c r="H172" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I172" s="30"/>
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
@@ -9587,44 +9623,44 @@
         <v>15</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I173" s="30"/>
     </row>
     <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
-        <v>161</v>
+        <v>840</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>541</v>
+        <v>823</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G174" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H174" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I174" s="30"/>
     </row>
     <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B175" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>807</v>
+        <v>541</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -9641,15 +9677,15 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="210">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -9666,15 +9702,15 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="210">
       <c r="A177" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="28" t="s">
@@ -9684,22 +9720,22 @@
         <v>7</v>
       </c>
       <c r="G177" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H177" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B178" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D178" s="28"/>
       <c r="E178" s="28" t="s">
@@ -9709,7 +9745,7 @@
         <v>7</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H178" s="28" t="s">
         <v>18</v>
@@ -9718,13 +9754,13 @@
     </row>
     <row r="179" spans="1:9" ht="30">
       <c r="A179" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="28" t="s">
@@ -9743,13 +9779,13 @@
     </row>
     <row r="180" spans="1:9" ht="30">
       <c r="A180" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="28" t="s">
@@ -9768,23 +9804,23 @@
     </row>
     <row r="181" spans="1:9" ht="30">
       <c r="A181" s="28" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G181" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H181" s="28" t="s">
         <v>18</v>
@@ -9793,20 +9829,20 @@
     </row>
     <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G182" s="28" t="s">
         <v>16</v>
@@ -9818,13 +9854,13 @@
     </row>
     <row r="183" spans="1:9" ht="30">
       <c r="A183" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -9843,13 +9879,13 @@
     </row>
     <row r="184" spans="1:9" ht="30">
       <c r="A184" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D184" s="28"/>
       <c r="E184" s="28" t="s">
@@ -9866,22 +9902,22 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D185" s="28"/>
       <c r="E185" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G185" s="28" t="s">
         <v>16</v>
@@ -9891,15 +9927,15 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9">
       <c r="A186" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>843</v>
+        <v>562</v>
       </c>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
@@ -9918,13 +9954,13 @@
     </row>
     <row r="187" spans="1:9" ht="30">
       <c r="A187" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>563</v>
+        <v>841</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
@@ -9941,22 +9977,22 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="45">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G188" s="28" t="s">
         <v>16</v>
@@ -9968,20 +10004,20 @@
     </row>
     <row r="189" spans="1:9" ht="45">
       <c r="A189" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>16</v>
@@ -9993,13 +10029,13 @@
     </row>
     <row r="190" spans="1:9" ht="45">
       <c r="A190" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="29" t="s">
         <v>406</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -10018,13 +10054,13 @@
     </row>
     <row r="191" spans="1:9" ht="45">
       <c r="A191" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="28" t="s">
@@ -10043,13 +10079,13 @@
     </row>
     <row r="192" spans="1:9" ht="45">
       <c r="A192" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="28" t="s">
@@ -10066,15 +10102,15 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="60">
+    <row r="193" spans="1:9" ht="45">
       <c r="A193" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D193" s="28"/>
       <c r="E193" s="28" t="s">
@@ -10091,15 +10127,15 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="60">
       <c r="A194" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -10116,22 +10152,22 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="60">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G195" s="28" t="s">
         <v>16</v>
@@ -10141,40 +10177,40 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9" ht="60">
       <c r="A196" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G196" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H196" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I196" s="30"/>
     </row>
     <row r="197" spans="1:9" ht="30">
       <c r="A197" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D197" s="28"/>
       <c r="E197" s="28" t="s">
@@ -10193,13 +10229,13 @@
     </row>
     <row r="198" spans="1:9" ht="30">
       <c r="A198" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D198" s="28"/>
       <c r="E198" s="28" t="s">
@@ -10212,19 +10248,19 @@
         <v>15</v>
       </c>
       <c r="H198" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I198" s="30"/>
     </row>
     <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D199" s="28"/>
       <c r="E199" s="28" t="s">
@@ -10243,13 +10279,13 @@
     </row>
     <row r="200" spans="1:9" ht="30">
       <c r="A200" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10259,22 +10295,22 @@
         <v>3</v>
       </c>
       <c r="G200" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H200" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="90">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10284,22 +10320,22 @@
         <v>3</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="345">
+    <row r="202" spans="1:9" ht="90">
       <c r="A202" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D202" s="28"/>
       <c r="E202" s="28" t="s">
@@ -10316,47 +10352,47 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="345">
       <c r="A203" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C203" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H203" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I203" s="30"/>
     </row>
     <row r="204" spans="1:9" ht="30">
       <c r="A204" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D204" s="28"/>
       <c r="E204" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G204" s="28" t="s">
         <v>16</v>
@@ -10366,15 +10402,15 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D205" s="28"/>
       <c r="E205" s="28" t="s">
@@ -10384,22 +10420,22 @@
         <v>6</v>
       </c>
       <c r="G205" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H205" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9" ht="45">
+    <row r="206" spans="1:9">
       <c r="A206" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>844</v>
+        <v>581</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10412,25 +10448,21 @@
         <v>15</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I206" s="30" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="1:9" ht="45">
       <c r="A207" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>731</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
         <v>19</v>
       </c>
@@ -10441,51 +10473,55 @@
         <v>15</v>
       </c>
       <c r="H207" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I207" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I207" s="30" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="208" spans="1:9" ht="30">
       <c r="A208" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C208" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="E208" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="1:9" ht="30">
+      <c r="A209" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C209" s="30" t="s">
         <v>583</v>
-      </c>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G208" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H208" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" s="30"/>
-    </row>
-    <row r="209" spans="1:9" ht="45">
-      <c r="A209" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B209" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C209" s="30" t="s">
-        <v>585</v>
       </c>
       <c r="D209" s="28"/>
       <c r="E209" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G209" s="28" t="s">
         <v>16</v>
@@ -10495,22 +10531,22 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="29" t="s">
         <v>409</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D210" s="28"/>
       <c r="E210" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G210" s="28" t="s">
         <v>16</v>
@@ -10522,63 +10558,63 @@
     </row>
     <row r="211" spans="1:9" ht="30">
       <c r="A211" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="29" t="s">
         <v>409</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D211" s="28"/>
       <c r="E211" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H211" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="135">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G212" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H212" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="135">
       <c r="A213" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D213" s="28"/>
       <c r="E213" s="28" t="s">
@@ -10588,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="G213" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H213" s="28" t="s">
         <v>18</v>
@@ -10597,13 +10633,13 @@
     </row>
     <row r="214" spans="1:9" ht="45">
       <c r="A214" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -10620,15 +10656,15 @@
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="45">
       <c r="A215" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -10638,7 +10674,7 @@
         <v>7</v>
       </c>
       <c r="G215" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H215" s="28" t="s">
         <v>18</v>
@@ -10647,13 +10683,13 @@
     </row>
     <row r="216" spans="1:9" ht="30">
       <c r="A216" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="28" t="s">
@@ -10672,13 +10708,13 @@
     </row>
     <row r="217" spans="1:9" ht="30">
       <c r="A217" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>845</v>
+        <v>592</v>
       </c>
       <c r="D217" s="28"/>
       <c r="E217" s="28" t="s">
@@ -10688,7 +10724,7 @@
         <v>7</v>
       </c>
       <c r="G217" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H217" s="28" t="s">
         <v>18</v>
@@ -10697,13 +10733,13 @@
     </row>
     <row r="218" spans="1:9" ht="30">
       <c r="A218" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C218" s="30" t="s">
-        <v>593</v>
+        <v>843</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -10713,7 +10749,7 @@
         <v>7</v>
       </c>
       <c r="G218" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H218" s="28" t="s">
         <v>18</v>
@@ -10722,13 +10758,13 @@
     </row>
     <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>846</v>
+        <v>593</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -10747,13 +10783,13 @@
     </row>
     <row r="220" spans="1:9" ht="30">
       <c r="A220" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C220" s="30" t="s">
-        <v>594</v>
+        <v>844</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -10772,13 +10808,13 @@
     </row>
     <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D221" s="28"/>
       <c r="E221" s="28" t="s">
@@ -10797,13 +10833,13 @@
     </row>
     <row r="222" spans="1:9" ht="30">
       <c r="A222" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>847</v>
+        <v>595</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="28" t="s">
@@ -10822,63 +10858,63 @@
     </row>
     <row r="223" spans="1:9" ht="30">
       <c r="A223" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>596</v>
+        <v>845</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G223" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I223" s="30"/>
     </row>
     <row r="224" spans="1:9" ht="30">
       <c r="A224" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G224" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I224" s="30"/>
     </row>
     <row r="225" spans="1:9" ht="30">
       <c r="A225" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -10888,47 +10924,47 @@
         <v>7</v>
       </c>
       <c r="G225" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H225" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="120">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F226" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G226" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H226" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="45">
+    <row r="227" spans="1:9" ht="120">
       <c r="A227" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="28" t="s">
@@ -10938,22 +10974,22 @@
         <v>6</v>
       </c>
       <c r="G227" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H227" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I227" s="30"/>
     </row>
     <row r="228" spans="1:9" ht="45">
       <c r="A228" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D228" s="28"/>
       <c r="E228" s="28" t="s">
@@ -10970,15 +11006,15 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="45">
       <c r="A229" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D229" s="28"/>
       <c r="E229" s="28" t="s">
@@ -10988,22 +11024,22 @@
         <v>6</v>
       </c>
       <c r="G229" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H229" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I229" s="30"/>
     </row>
     <row r="230" spans="1:9" ht="30">
       <c r="A230" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -11013,22 +11049,22 @@
         <v>6</v>
       </c>
       <c r="G230" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H230" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I230" s="30"/>
     </row>
     <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>848</v>
+        <v>603</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -11038,22 +11074,22 @@
         <v>6</v>
       </c>
       <c r="G231" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H231" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I231" s="30"/>
     </row>
     <row r="232" spans="1:9" ht="30">
       <c r="A232" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>604</v>
+        <v>846</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -11070,15 +11106,15 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B233" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>883</v>
+        <v>604</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="28" t="s">
@@ -11091,19 +11127,19 @@
         <v>15</v>
       </c>
       <c r="H233" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I233" s="30"/>
     </row>
     <row r="234" spans="1:9" ht="45">
       <c r="A234" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B234" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>584</v>
+        <v>881</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
@@ -11122,20 +11158,20 @@
     </row>
     <row r="235" spans="1:9" ht="45">
       <c r="A235" s="28" t="s">
-        <v>884</v>
+        <v>209</v>
       </c>
       <c r="B235" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>886</v>
+        <v>584</v>
       </c>
       <c r="D235" s="28"/>
       <c r="E235" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G235" s="28" t="s">
         <v>15</v>
@@ -11145,15 +11181,15 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="60">
+    <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
@@ -11170,15 +11206,15 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="60">
       <c r="A237" s="28" t="s">
-        <v>234</v>
+        <v>883</v>
       </c>
       <c r="B237" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>605</v>
+        <v>885</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="28" t="s">
@@ -11188,32 +11224,32 @@
         <v>3</v>
       </c>
       <c r="G237" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H237" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I237" s="30"/>
     </row>
     <row r="238" spans="1:9" ht="30">
       <c r="A238" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B238" s="29" t="s">
         <v>412</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>18</v>
@@ -11222,95 +11258,95 @@
     </row>
     <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B239" s="29" t="s">
         <v>412</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G239" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H239" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="75">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B240" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G240" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H240" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I240" s="30"/>
     </row>
     <row r="241" spans="1:9" ht="75">
       <c r="A241" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>849</v>
+        <v>608</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G241" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H241" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="45">
+    <row r="242" spans="1:9" ht="75">
       <c r="A242" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B242" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>609</v>
+        <v>847</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G242" s="28" t="s">
         <v>16</v>
@@ -11320,75 +11356,75 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="45">
       <c r="A243" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B243" s="29" t="s">
         <v>415</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H243" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I243" s="30"/>
     </row>
     <row r="244" spans="1:9" ht="30">
       <c r="A244" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B244" s="29" t="s">
         <v>415</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G244" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H244" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="45">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B245" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H245" s="28" t="s">
         <v>18</v>
@@ -11397,13 +11433,13 @@
     </row>
     <row r="246" spans="1:9" ht="45">
       <c r="A246" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B246" s="29" t="s">
         <v>416</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>850</v>
+        <v>612</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -11413,22 +11449,22 @@
         <v>6</v>
       </c>
       <c r="G246" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H246" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="135">
+    <row r="247" spans="1:9" ht="45">
       <c r="A247" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B247" s="29" t="s">
         <v>416</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>613</v>
+        <v>848</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="28" t="s">
@@ -11441,44 +11477,44 @@
         <v>15</v>
       </c>
       <c r="H247" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="45">
+    <row r="248" spans="1:9" ht="135">
       <c r="A248" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F248" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G248" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H248" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B249" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C249" s="30" t="s">
-        <v>851</v>
+        <v>614</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="28" t="s">
@@ -11488,22 +11524,22 @@
         <v>7</v>
       </c>
       <c r="G249" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H249" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="270">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B250" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>615</v>
+        <v>849</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -11520,15 +11556,15 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="45">
+    <row r="251" spans="1:9" ht="270">
       <c r="A251" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B251" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -11538,22 +11574,22 @@
         <v>7</v>
       </c>
       <c r="G251" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H251" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9" ht="45">
       <c r="A252" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B252" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>852</v>
+        <v>616</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -11563,7 +11599,7 @@
         <v>7</v>
       </c>
       <c r="G252" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H252" s="28" t="s">
         <v>18</v>
@@ -11572,63 +11608,63 @@
     </row>
     <row r="253" spans="1:9" ht="30">
       <c r="A253" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B253" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>617</v>
+        <v>850</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G253" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H253" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I253" s="30"/>
     </row>
     <row r="254" spans="1:9" ht="30">
       <c r="A254" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B254" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G254" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I254" s="30"/>
     </row>
     <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B255" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>854</v>
+        <v>618</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="28" t="s">
@@ -11647,13 +11683,13 @@
     </row>
     <row r="256" spans="1:9" ht="30">
       <c r="A256" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B256" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -11672,38 +11708,38 @@
     </row>
     <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B257" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>619</v>
+        <v>851</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G257" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H257" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I257" s="30"/>
     </row>
     <row r="258" spans="1:9" ht="30">
       <c r="A258" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="29" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>855</v>
+        <v>619</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -11713,22 +11749,22 @@
         <v>3</v>
       </c>
       <c r="G258" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H258" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="90">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B259" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>620</v>
+        <v>853</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="28" t="s">
@@ -11738,22 +11774,22 @@
         <v>3</v>
       </c>
       <c r="G259" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H259" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="315">
+    <row r="260" spans="1:9" ht="90">
       <c r="A260" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B260" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="28" t="s">
@@ -11770,47 +11806,47 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="315">
       <c r="A261" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B261" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C261" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D261" s="28"/>
       <c r="E261" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F261" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G261" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H261" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I261" s="30"/>
     </row>
     <row r="262" spans="1:9" ht="30">
       <c r="A262" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B262" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G262" s="28" t="s">
         <v>16</v>
@@ -11820,15 +11856,15 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -11838,22 +11874,22 @@
         <v>6</v>
       </c>
       <c r="G263" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H263" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9" ht="45">
+    <row r="264" spans="1:9">
       <c r="A264" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B264" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -11866,25 +11902,21 @@
         <v>15</v>
       </c>
       <c r="H264" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I264" s="30" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="30">
+        <v>20</v>
+      </c>
+      <c r="I264" s="30"/>
+    </row>
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C265" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="D265" s="28" t="s">
-        <v>732</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="D265" s="28"/>
       <c r="E265" s="28" t="s">
         <v>19</v>
       </c>
@@ -11895,69 +11927,73 @@
         <v>15</v>
       </c>
       <c r="H265" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I265" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I265" s="30" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="266" spans="1:9" ht="30">
       <c r="A266" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B266" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="D266" s="28"/>
+        <v>854</v>
+      </c>
+      <c r="D266" s="28" t="s">
+        <v>732</v>
+      </c>
       <c r="E266" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F266" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G266" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H266" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I266" s="30"/>
     </row>
     <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B267" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>857</v>
+        <v>626</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G267" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H267" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="45">
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B268" s="29" t="s">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>629</v>
+        <v>855</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -11967,32 +12003,32 @@
         <v>3</v>
       </c>
       <c r="G268" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H268" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="29" t="s">
         <v>418</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F269" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G269" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H269" s="28" t="s">
         <v>18</v>
@@ -12001,63 +12037,63 @@
     </row>
     <row r="270" spans="1:9" ht="30">
       <c r="A270" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="29" t="s">
         <v>418</v>
       </c>
       <c r="C270" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F270" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G270" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H270" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="120">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D271" s="28"/>
       <c r="E271" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G271" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H271" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="45">
+    <row r="272" spans="1:9" ht="120">
       <c r="A272" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C272" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="28" t="s">
@@ -12076,13 +12112,13 @@
     </row>
     <row r="273" spans="1:9" ht="45">
       <c r="A273" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -12092,22 +12128,22 @@
         <v>7</v>
       </c>
       <c r="G273" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H273" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="30">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C274" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -12117,7 +12153,7 @@
         <v>7</v>
       </c>
       <c r="G274" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H274" s="28" t="s">
         <v>18</v>
@@ -12126,13 +12162,13 @@
     </row>
     <row r="275" spans="1:9" ht="30">
       <c r="A275" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -12151,13 +12187,13 @@
     </row>
     <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C276" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="28" t="s">
@@ -12176,13 +12212,13 @@
     </row>
     <row r="277" spans="1:9" ht="30">
       <c r="A277" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C277" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -12201,13 +12237,13 @@
     </row>
     <row r="278" spans="1:9" ht="30">
       <c r="A278" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C278" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12226,13 +12262,13 @@
     </row>
     <row r="279" spans="1:9" ht="30">
       <c r="A279" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C279" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12251,13 +12287,13 @@
     </row>
     <row r="280" spans="1:9" ht="30">
       <c r="A280" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C280" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12276,13 +12312,13 @@
     </row>
     <row r="281" spans="1:9" ht="30">
       <c r="A281" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="28" t="s">
@@ -12301,45 +12337,45 @@
     </row>
     <row r="282" spans="1:9" ht="30">
       <c r="A282" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C282" s="30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F282" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G282" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H282" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="120">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G283" s="28" t="s">
         <v>15</v>
@@ -12349,15 +12385,15 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="45">
+    <row r="284" spans="1:9" ht="120">
       <c r="A284" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C284" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -12367,22 +12403,22 @@
         <v>6</v>
       </c>
       <c r="G284" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H284" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I284" s="30"/>
     </row>
     <row r="285" spans="1:9" ht="45">
       <c r="A285" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -12399,15 +12435,15 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="45">
       <c r="A286" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -12417,22 +12453,22 @@
         <v>6</v>
       </c>
       <c r="G286" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H286" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I286" s="30"/>
     </row>
     <row r="287" spans="1:9" ht="30">
       <c r="A287" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -12451,13 +12487,13 @@
     </row>
     <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C288" s="30" t="s">
-        <v>858</v>
+        <v>648</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="28" t="s">
@@ -12476,13 +12512,13 @@
     </row>
     <row r="289" spans="1:9" ht="30">
       <c r="A289" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C289" s="30" t="s">
-        <v>649</v>
+        <v>856</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12499,15 +12535,15 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B290" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C290" s="30" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -12520,19 +12556,19 @@
         <v>15</v>
       </c>
       <c r="H290" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I290" s="30"/>
     </row>
     <row r="291" spans="1:9" ht="45">
       <c r="A291" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B291" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -12551,20 +12587,20 @@
     </row>
     <row r="292" spans="1:9" ht="45">
       <c r="A292" s="28" t="s">
-        <v>860</v>
+        <v>266</v>
       </c>
       <c r="B292" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C292" s="30" t="s">
-        <v>859</v>
+        <v>628</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F292" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G292" s="28" t="s">
         <v>15</v>
@@ -12574,15 +12610,15 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="60">
+    <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>888</v>
+        <v>857</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -12599,50 +12635,50 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="60">
       <c r="A294" s="28" t="s">
-        <v>289</v>
+        <v>859</v>
       </c>
       <c r="B294" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>650</v>
+        <v>886</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F294" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G294" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H294" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="45">
       <c r="A295" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295" s="29" t="s">
         <v>421</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F295" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G295" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H295" s="28" t="s">
         <v>18</v>
@@ -12651,63 +12687,63 @@
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B296" s="29" t="s">
         <v>421</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F296" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G296" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H296" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I296" s="30"/>
     </row>
     <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B297" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F297" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G297" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="60">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B298" s="29" t="s">
         <v>422</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
@@ -12717,47 +12753,47 @@
         <v>7</v>
       </c>
       <c r="G298" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H298" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="75">
+    <row r="299" spans="1:9" ht="60">
       <c r="A299" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B299" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F299" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G299" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H299" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="75">
       <c r="A300" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B300" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -12767,22 +12803,22 @@
         <v>6</v>
       </c>
       <c r="G300" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H300" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="30">
+    <row r="301" spans="1:9" ht="45">
       <c r="A301" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B301" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>862</v>
+        <v>656</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
@@ -12792,72 +12828,72 @@
         <v>6</v>
       </c>
       <c r="G301" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H301" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I301" s="30"/>
     </row>
     <row r="302" spans="1:9" ht="30">
       <c r="A302" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B302" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C302" s="30" t="s">
-        <v>657</v>
+        <v>860</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F302" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G302" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H302" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I302" s="30"/>
     </row>
     <row r="303" spans="1:9" ht="30">
       <c r="A303" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B303" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F303" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G303" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H303" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I303" s="30"/>
     </row>
     <row r="304" spans="1:9" ht="30">
       <c r="A304" s="28" t="s">
-        <v>863</v>
+        <v>298</v>
       </c>
       <c r="B304" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>866</v>
+        <v>658</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="28" t="s">
@@ -12870,19 +12906,19 @@
         <v>15</v>
       </c>
       <c r="H304" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I304" s="30"/>
     </row>
     <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -12892,22 +12928,22 @@
         <v>6</v>
       </c>
       <c r="G305" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H305" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="45">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
-        <v>299</v>
+        <v>862</v>
       </c>
       <c r="B306" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>659</v>
+        <v>863</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -12926,13 +12962,13 @@
     </row>
     <row r="307" spans="1:9" ht="45">
       <c r="A307" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B307" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>867</v>
+        <v>659</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -12942,22 +12978,22 @@
         <v>6</v>
       </c>
       <c r="G307" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H307" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="240">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B308" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>660</v>
+        <v>865</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="28" t="s">
@@ -12970,19 +13006,19 @@
         <v>15</v>
       </c>
       <c r="H308" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="45">
+    <row r="309" spans="1:9" ht="240">
       <c r="A309" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B309" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D309" s="28"/>
       <c r="E309" s="28" t="s">
@@ -12992,22 +13028,22 @@
         <v>6</v>
       </c>
       <c r="G309" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H309" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B310" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>868</v>
+        <v>661</v>
       </c>
       <c r="D310" s="28"/>
       <c r="E310" s="28" t="s">
@@ -13017,22 +13053,22 @@
         <v>6</v>
       </c>
       <c r="G310" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H310" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I310" s="30"/>
     </row>
     <row r="311" spans="1:9" ht="30">
       <c r="A311" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B311" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>662</v>
+        <v>866</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -13045,19 +13081,19 @@
         <v>15</v>
       </c>
       <c r="H311" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="45">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B312" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="28" t="s">
@@ -13067,22 +13103,22 @@
         <v>6</v>
       </c>
       <c r="G312" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H312" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I312" s="30"/>
     </row>
     <row r="313" spans="1:9" ht="45">
       <c r="A313" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B313" s="29" t="s">
         <v>426</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>869</v>
+        <v>663</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="28" t="s">
@@ -13092,22 +13128,22 @@
         <v>6</v>
       </c>
       <c r="G313" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H313" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="135">
+    <row r="314" spans="1:9" ht="45">
       <c r="A314" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B314" s="29" t="s">
         <v>426</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>664</v>
+        <v>867</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="28" t="s">
@@ -13120,44 +13156,44 @@
         <v>15</v>
       </c>
       <c r="H314" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="30">
+    <row r="315" spans="1:9" ht="135">
       <c r="A315" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B315" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F315" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G315" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H315" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I315" s="30"/>
     </row>
     <row r="316" spans="1:9" ht="30">
       <c r="A316" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B316" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C316" s="30" t="s">
-        <v>870</v>
+        <v>665</v>
       </c>
       <c r="D316" s="28"/>
       <c r="E316" s="28" t="s">
@@ -13167,22 +13203,22 @@
         <v>7</v>
       </c>
       <c r="G316" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H316" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="225">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B317" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>666</v>
+        <v>868</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="28" t="s">
@@ -13199,15 +13235,15 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="30">
+    <row r="318" spans="1:9" ht="225">
       <c r="A318" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B318" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D318" s="28"/>
       <c r="E318" s="28" t="s">
@@ -13217,7 +13253,7 @@
         <v>7</v>
       </c>
       <c r="G318" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H318" s="28" t="s">
         <v>18</v>
@@ -13226,13 +13262,13 @@
     </row>
     <row r="319" spans="1:9" ht="30">
       <c r="A319" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B319" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C319" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D319" s="28"/>
       <c r="E319" s="28" t="s">
@@ -13242,7 +13278,7 @@
         <v>7</v>
       </c>
       <c r="G319" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H319" s="28" t="s">
         <v>18</v>
@@ -13251,38 +13287,38 @@
     </row>
     <row r="320" spans="1:9" ht="30">
       <c r="A320" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B320" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>871</v>
+        <v>668</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F320" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G320" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H320" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I320" s="30"/>
     </row>
     <row r="321" spans="1:9" ht="30">
       <c r="A321" s="28" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="B321" s="29" t="s">
-        <v>808</v>
+        <v>427</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>547</v>
+        <v>869</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28" t="s">
@@ -13292,22 +13328,22 @@
         <v>3</v>
       </c>
       <c r="G321" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H321" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I321" s="30"/>
     </row>
     <row r="322" spans="1:9" ht="30">
       <c r="A322" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>872</v>
+        <v>547</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="28" t="s">
@@ -13317,22 +13353,22 @@
         <v>3</v>
       </c>
       <c r="G322" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H322" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="255">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>548</v>
+        <v>870</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="28" t="s">
@@ -13345,19 +13381,19 @@
         <v>15</v>
       </c>
       <c r="H323" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="45">
+    <row r="324" spans="1:9" ht="255">
       <c r="A324" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -13367,22 +13403,22 @@
         <v>3</v>
       </c>
       <c r="G324" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H324" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="45">
       <c r="A325" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="28" t="s">
@@ -13392,22 +13428,22 @@
         <v>3</v>
       </c>
       <c r="G325" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H325" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I325" s="30"/>
     </row>
     <row r="326" spans="1:9" ht="30">
       <c r="A326" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -13420,75 +13456,75 @@
         <v>15</v>
       </c>
       <c r="H326" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="45">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F327" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G327" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H327" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I327" s="30"/>
+    </row>
+    <row r="328" spans="1:9" ht="45">
+      <c r="A328" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B328" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C328" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D328" s="28"/>
+      <c r="E328" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G328" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I327" s="30" t="s">
+      <c r="I328" s="30" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="30">
-      <c r="A328" s="28" t="s">
+    <row r="329" spans="1:9" ht="30">
+      <c r="A329" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B328" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="C328" s="30" t="s">
+      <c r="B329" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C329" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="D328" s="28" t="s">
+      <c r="D329" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="E328" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F328" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G328" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H328" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I328" s="30"/>
-    </row>
-    <row r="329" spans="1:9">
-      <c r="A329" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B329" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="C329" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="D329" s="28"/>
       <c r="E329" s="28" t="s">
         <v>19</v>
       </c>
@@ -13503,15 +13539,15 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9">
       <c r="A330" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="28" t="s">
@@ -13524,19 +13560,19 @@
         <v>15</v>
       </c>
       <c r="H330" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="45">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -13549,73 +13585,73 @@
         <v>15</v>
       </c>
       <c r="H331" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I331" s="30"/>
+    </row>
+    <row r="332" spans="1:9" ht="45">
+      <c r="A332" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C332" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D332" s="28"/>
+      <c r="E332" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F332" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G332" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I331" s="30" t="s">
+      <c r="I332" s="30" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" ht="30">
-      <c r="A332" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B332" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="C332" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="D332" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="E332" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F332" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G332" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H332" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I332" s="30"/>
     </row>
     <row r="333" spans="1:9" ht="30">
       <c r="A333" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C333" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="D333" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="E333" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G333" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H333" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I333" s="30"/>
+    </row>
+    <row r="334" spans="1:9" ht="30">
+      <c r="A334" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="B333" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="C333" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="D333" s="28"/>
-      <c r="E333" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F333" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G333" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H333" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I333" s="30"/>
-    </row>
-    <row r="334" spans="1:9" ht="90">
-      <c r="A334" s="28" t="s">
-        <v>315</v>
       </c>
       <c r="B334" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>669</v>
+        <v>871</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -13625,22 +13661,22 @@
         <v>3</v>
       </c>
       <c r="G334" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H334" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="345">
+    <row r="335" spans="1:9" ht="90">
       <c r="A335" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B335" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -13657,47 +13693,47 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="345">
       <c r="A336" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B336" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F336" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G336" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H336" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I336" s="30"/>
     </row>
     <row r="337" spans="1:9" ht="30">
       <c r="A337" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B337" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F337" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G337" s="28" t="s">
         <v>16</v>
@@ -13707,15 +13743,15 @@
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B338" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -13732,22 +13768,22 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B339" s="29" t="s">
         <v>429</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F339" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G339" s="28" t="s">
         <v>16</v>
@@ -13759,63 +13795,63 @@
     </row>
     <row r="340" spans="1:9" ht="30">
       <c r="A340" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B340" s="29" t="s">
         <v>429</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F340" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H340" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="135">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F341" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G341" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H341" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="45">
+    <row r="342" spans="1:9" ht="135">
       <c r="A342" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B342" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -13825,7 +13861,7 @@
         <v>7</v>
       </c>
       <c r="G342" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H342" s="28" t="s">
         <v>18</v>
@@ -13834,13 +13870,13 @@
     </row>
     <row r="343" spans="1:9" ht="45">
       <c r="A343" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B343" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="28" t="s">
@@ -13857,15 +13893,15 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B344" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
@@ -13875,7 +13911,7 @@
         <v>7</v>
       </c>
       <c r="G344" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H344" s="28" t="s">
         <v>18</v>
@@ -13884,13 +13920,13 @@
     </row>
     <row r="345" spans="1:9" ht="30">
       <c r="A345" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B345" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C345" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
@@ -13909,13 +13945,13 @@
     </row>
     <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B346" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>874</v>
+        <v>681</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
@@ -13934,13 +13970,13 @@
     </row>
     <row r="347" spans="1:9" ht="30">
       <c r="A347" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B347" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>682</v>
+        <v>872</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13959,13 +13995,13 @@
     </row>
     <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B348" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>875</v>
+        <v>682</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -13984,13 +14020,13 @@
     </row>
     <row r="349" spans="1:9" ht="30">
       <c r="A349" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B349" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>683</v>
+        <v>873</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -14009,13 +14045,13 @@
     </row>
     <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B350" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C350" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -14034,13 +14070,13 @@
     </row>
     <row r="351" spans="1:9" ht="30">
       <c r="A351" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B351" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C351" s="30" t="s">
-        <v>876</v>
+        <v>684</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="28" t="s">
@@ -14059,63 +14095,63 @@
     </row>
     <row r="352" spans="1:9" ht="30">
       <c r="A352" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B352" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C352" s="30" t="s">
-        <v>685</v>
+        <v>874</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F352" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G352" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H352" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I352" s="30"/>
     </row>
     <row r="353" spans="1:9" ht="30">
       <c r="A353" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C353" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F353" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G353" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H353" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I353" s="30"/>
     </row>
     <row r="354" spans="1:9" ht="30">
       <c r="A354" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C354" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="28" t="s">
@@ -14132,40 +14168,40 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="90">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B355" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C355" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F355" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G355" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H355" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="90">
       <c r="A356" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B356" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C356" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="28" t="s">
@@ -14175,22 +14211,22 @@
         <v>6</v>
       </c>
       <c r="G356" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H356" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I356" s="30"/>
     </row>
     <row r="357" spans="1:9" ht="45">
       <c r="A357" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B357" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C357" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -14207,15 +14243,15 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="30">
+    <row r="358" spans="1:9" ht="45">
       <c r="A358" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B358" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C358" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D358" s="28"/>
       <c r="E358" s="28" t="s">
@@ -14225,22 +14261,22 @@
         <v>6</v>
       </c>
       <c r="G358" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H358" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I358" s="30"/>
     </row>
     <row r="359" spans="1:9" ht="30">
       <c r="A359" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B359" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C359" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D359" s="28"/>
       <c r="E359" s="28" t="s">
@@ -14259,13 +14295,13 @@
     </row>
     <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C360" s="30" t="s">
-        <v>877</v>
+        <v>692</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -14284,13 +14320,13 @@
     </row>
     <row r="361" spans="1:9" ht="30">
       <c r="A361" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B361" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C361" s="30" t="s">
-        <v>693</v>
+        <v>875</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14307,15 +14343,15 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="45">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="28" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B362" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C362" s="30" t="s">
-        <v>881</v>
+        <v>693</v>
       </c>
       <c r="D362" s="28"/>
       <c r="E362" s="28" t="s">
@@ -14328,19 +14364,19 @@
         <v>15</v>
       </c>
       <c r="H362" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I362" s="30"/>
     </row>
     <row r="363" spans="1:9" ht="45">
       <c r="A363" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B363" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>673</v>
+        <v>879</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="28" t="s">
@@ -14359,20 +14395,20 @@
     </row>
     <row r="364" spans="1:9" ht="45">
       <c r="A364" s="28" t="s">
-        <v>879</v>
+        <v>320</v>
       </c>
       <c r="B364" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>878</v>
+        <v>673</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F364" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G364" s="28" t="s">
         <v>15</v>
@@ -14382,15 +14418,15 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="60">
+    <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28" t="s">
@@ -14407,15 +14443,15 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="45">
+    <row r="366" spans="1:9" ht="60">
       <c r="A366" s="28" t="s">
-        <v>345</v>
+        <v>878</v>
       </c>
       <c r="B366" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>694</v>
+        <v>880</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="28" t="s">
@@ -14425,247 +14461,247 @@
         <v>3</v>
       </c>
       <c r="G366" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H366" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" ht="45">
       <c r="A367" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B367" s="29" t="s">
         <v>432</v>
       </c>
       <c r="C367" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F367" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G367" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H367" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9">
       <c r="A368" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B368" s="29" t="s">
         <v>432</v>
       </c>
       <c r="C368" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D368" s="28"/>
       <c r="E368" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F368" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G368" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H368" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="75">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B369" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C369" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D369" s="28"/>
       <c r="E369" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F369" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G369" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H369" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I369" s="30"/>
     </row>
     <row r="370" spans="1:9" ht="75">
       <c r="A370" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B370" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F370" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G370" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H370" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="60">
+    <row r="371" spans="1:9" ht="75">
       <c r="A371" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B371" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C371" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D371" s="28"/>
       <c r="E371" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F371" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G371" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H371" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="30">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B372" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C372" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D372" s="28"/>
       <c r="E372" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F372" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G372" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H372" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I372" s="30"/>
     </row>
     <row r="373" spans="1:9" ht="30">
       <c r="A373" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B373" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C373" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F373" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G373" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H373" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I373" s="30"/>
     </row>
     <row r="374" spans="1:9" ht="30">
       <c r="A374" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B374" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C374" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F374" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G374" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H374" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="45">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B375" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C375" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F375" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H375" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="150">
+    <row r="376" spans="1:9" ht="45">
       <c r="A376" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B376" s="29" t="s">
         <v>436</v>
       </c>
       <c r="C376" s="30" t="s">
-        <v>889</v>
+        <v>703</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="28" t="s">
@@ -14675,47 +14711,47 @@
         <v>6</v>
       </c>
       <c r="G376" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H376" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="30">
+    <row r="377" spans="1:9" ht="150">
       <c r="A377" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B377" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>704</v>
+        <v>887</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F377" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G377" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H377" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="285">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B378" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C378" s="30" t="s">
-        <v>890</v>
+        <v>704</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="28" t="s">
@@ -14725,22 +14761,22 @@
         <v>7</v>
       </c>
       <c r="G378" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H378" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="45">
+    <row r="379" spans="1:9" ht="285">
       <c r="A379" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B379" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>705</v>
+        <v>888</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="28" t="s">
@@ -14750,22 +14786,22 @@
         <v>7</v>
       </c>
       <c r="G379" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H379" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="45">
       <c r="A380" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B380" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="28" t="s">
@@ -14775,7 +14811,7 @@
         <v>7</v>
       </c>
       <c r="G380" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H380" s="28" t="s">
         <v>18</v>
@@ -14784,113 +14820,113 @@
     </row>
     <row r="381" spans="1:9" ht="30">
       <c r="A381" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B381" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C381" s="30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F381" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G381" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H381" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I381" s="30"/>
     </row>
     <row r="382" spans="1:9" ht="30">
       <c r="A382" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B382" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G382" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H382" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I382" s="30"/>
     </row>
     <row r="383" spans="1:9" ht="30">
       <c r="A383" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B383" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C383" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F383" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G383" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H383" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="345">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B384" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F384" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G384" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H384" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="45">
+    <row r="385" spans="1:9" ht="345">
       <c r="A385" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B385" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>891</v>
+        <v>710</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -14900,74 +14936,72 @@
         <v>7</v>
       </c>
       <c r="G385" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H385" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="30">
+    <row r="386" spans="1:9" ht="45">
       <c r="A386" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B386" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>711</v>
+        <v>889</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F386" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G386" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H386" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="60">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B387" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C387" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F387" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G387" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H387" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I387" s="30" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" ht="90">
+        <v>21</v>
+      </c>
+      <c r="I387" s="30"/>
+    </row>
+    <row r="388" spans="1:9" ht="60">
       <c r="A388" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B388" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C388" s="30" t="s">
-        <v>892</v>
+        <v>712</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -14983,22 +15017,20 @@
         <v>17</v>
       </c>
       <c r="I388" s="30" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" ht="30">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="90">
       <c r="A389" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B389" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C389" s="30" t="s">
-        <v>713</v>
-      </c>
-      <c r="D389" s="28" t="s">
-        <v>733</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
         <v>19</v>
       </c>
@@ -15009,69 +15041,73 @@
         <v>15</v>
       </c>
       <c r="H389" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I389" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I389" s="30" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="390" spans="1:9" ht="30">
       <c r="A390" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B390" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C390" s="30" t="s">
-        <v>894</v>
-      </c>
-      <c r="D390" s="28"/>
+        <v>713</v>
+      </c>
+      <c r="D390" s="28" t="s">
+        <v>733</v>
+      </c>
       <c r="E390" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F390" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G390" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H390" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I390" s="30"/>
     </row>
     <row r="391" spans="1:9" ht="30">
       <c r="A391" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B391" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C391" s="30" t="s">
-        <v>714</v>
+        <v>892</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F391" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G391" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H391" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B392" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C392" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="28" t="s">
@@ -15084,21 +15120,19 @@
         <v>15</v>
       </c>
       <c r="H392" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I392" s="30" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I392" s="30"/>
+    </row>
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B393" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C393" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="28" t="s">
@@ -15114,18 +15148,18 @@
         <v>17</v>
       </c>
       <c r="I393" s="30" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" ht="45">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="60">
       <c r="A394" s="28" t="s">
-        <v>906</v>
+        <v>376</v>
       </c>
       <c r="B394" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C394" s="30" t="s">
-        <v>907</v>
+        <v>716</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -15138,23 +15172,23 @@
         <v>15</v>
       </c>
       <c r="H394" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I394" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="I394" s="30" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="D395" s="28" t="s">
-        <v>922</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
         <v>19</v>
       </c>
@@ -15169,90 +15203,92 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="30">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
-        <v>377</v>
+        <v>904</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C396" s="30" t="s">
-        <v>893</v>
-      </c>
-      <c r="D396" s="28"/>
+        <v>903</v>
+      </c>
+      <c r="D396" s="28" t="s">
+        <v>915</v>
+      </c>
       <c r="E396" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F396" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G396" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H396" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I396" s="30"/>
     </row>
     <row r="397" spans="1:9" ht="30">
       <c r="A397" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B397" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C397" s="30" t="s">
-        <v>717</v>
+        <v>891</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F397" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G397" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H397" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B398" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C398" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F398" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G398" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H398" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="30">
+    <row r="399" spans="1:9" ht="45">
       <c r="A399" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B399" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C399" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15269,19 +15305,17 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="45">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B400" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C400" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="D400" s="28" t="s">
-        <v>734</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
         <v>22</v>
       </c>
@@ -15289,27 +15323,25 @@
         <v>3</v>
       </c>
       <c r="G400" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H400" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I400" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" ht="75">
+        <v>18</v>
+      </c>
+      <c r="I400" s="30"/>
+    </row>
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="28" t="s">
-        <v>777</v>
+        <v>381</v>
       </c>
       <c r="B401" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C401" s="19" t="s">
-        <v>779</v>
+      <c r="C401" s="30" t="s">
+        <v>720</v>
       </c>
       <c r="D401" s="28" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>22</v>
@@ -15321,48 +15353,54 @@
         <v>15</v>
       </c>
       <c r="H401" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I401" s="30" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="30">
+    <row r="402" spans="1:9" ht="75">
       <c r="A402" s="28" t="s">
-        <v>910</v>
+        <v>777</v>
       </c>
       <c r="B402" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="D402" s="28"/>
+        <v>778</v>
+      </c>
+      <c r="D402" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F402" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G402" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H402" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I402" s="30"/>
-    </row>
-    <row r="403" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I402" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>939</v>
-      </c>
-      <c r="D403" s="28"/>
+        <v>894</v>
+      </c>
+      <c r="D403" s="28" t="s">
+        <v>931</v>
+      </c>
       <c r="E403" s="28" t="s">
         <v>22</v>
       </c>
@@ -15373,75 +15411,79 @@
         <v>15</v>
       </c>
       <c r="H403" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I403" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I403" s="30"/>
+    </row>
+    <row r="404" spans="1:9" ht="45">
       <c r="A404" s="28" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>898</v>
-      </c>
-      <c r="D404" s="21"/>
+        <v>927</v>
+      </c>
+      <c r="D404" s="28" t="s">
+        <v>931</v>
+      </c>
       <c r="E404" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F404" s="21" t="s">
+      <c r="F404" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G404" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H404" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I404" s="19"/>
-    </row>
-    <row r="405" spans="1:9" ht="45">
+      <c r="H404" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I404" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>940</v>
-      </c>
-      <c r="D405" s="28"/>
+        <v>896</v>
+      </c>
+      <c r="D405" s="21" t="s">
+        <v>932</v>
+      </c>
       <c r="E405" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F405" s="28" t="s">
+      <c r="F405" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G405" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H405" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I405" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" ht="60">
+      <c r="H405" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I405" s="19"/>
+    </row>
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C406" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="D406" s="28"/>
+      <c r="C406" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="D406" s="28" t="s">
+        <v>932</v>
+      </c>
       <c r="E406" s="28" t="s">
         <v>22</v>
       </c>
@@ -15452,21 +15494,25 @@
         <v>15</v>
       </c>
       <c r="H406" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I406" s="30"/>
-    </row>
-    <row r="407" spans="1:9" ht="30">
+        <v>21</v>
+      </c>
+      <c r="I406" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C407" s="30" t="s">
-        <v>941</v>
-      </c>
-      <c r="D407" s="28"/>
+        <v>917</v>
+      </c>
+      <c r="D407" s="28" t="s">
+        <v>933</v>
+      </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
       </c>
@@ -15477,21 +15523,25 @@
         <v>15</v>
       </c>
       <c r="H407" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I407" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I407" s="30" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="408" spans="1:9" ht="45">
       <c r="A408" s="28" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C408" s="30" t="s">
-        <v>927</v>
-      </c>
-      <c r="D408" s="28"/>
+      <c r="C408" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="D408" s="21" t="s">
+        <v>934</v>
+      </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
       </c>
@@ -15501,76 +15551,80 @@
       <c r="G408" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I408" s="30" t="s">
-        <v>745</v>
-      </c>
+      <c r="H408" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I408" s="19"/>
     </row>
     <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>900</v>
-      </c>
-      <c r="D409" s="21"/>
+        <v>898</v>
+      </c>
+      <c r="D409" s="21" t="s">
+        <v>934</v>
+      </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F409" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G409" s="28" t="s">
+      <c r="G409" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H409" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I409" s="19"/>
-    </row>
-    <row r="410" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I409" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="60">
       <c r="A410" s="28" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C410" s="19" t="s">
-        <v>901</v>
-      </c>
-      <c r="D410" s="21"/>
+      <c r="C410" s="30" t="s">
+        <v>942</v>
+      </c>
+      <c r="D410" s="28" t="s">
+        <v>935</v>
+      </c>
       <c r="E410" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F410" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G410" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H410" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I410" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" ht="60">
+      <c r="G410" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H410" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="30"/>
+    </row>
+    <row r="411" spans="1:9" ht="45">
       <c r="A411" s="28" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B411" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>902</v>
-      </c>
-      <c r="D411" s="28"/>
+        <v>943</v>
+      </c>
+      <c r="D411" s="28" t="s">
+        <v>935</v>
+      </c>
       <c r="E411" s="28" t="s">
         <v>22</v>
       </c>
@@ -15581,48 +15635,52 @@
         <v>15</v>
       </c>
       <c r="H411" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I411" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I411" s="30" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="412" spans="1:9" ht="45">
       <c r="A412" s="28" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B412" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>903</v>
-      </c>
-      <c r="D412" s="28"/>
+        <v>900</v>
+      </c>
+      <c r="D412" s="28" t="s">
+        <v>936</v>
+      </c>
       <c r="E412" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F412" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G412" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H412" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I412" s="30" t="s">
-        <v>745</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I412" s="30"/>
     </row>
     <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B413" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C413" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D413" s="28"/>
+        <v>899</v>
+      </c>
+      <c r="D413" s="28" t="s">
+        <v>936</v>
+      </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
       </c>
@@ -15633,21 +15691,25 @@
         <v>15</v>
       </c>
       <c r="H413" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I413" s="30"/>
-    </row>
-    <row r="414" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I413" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="75">
       <c r="A414" s="28" t="s">
-        <v>921</v>
+        <v>369</v>
       </c>
       <c r="B414" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C414" s="30" t="s">
-        <v>904</v>
-      </c>
-      <c r="D414" s="28"/>
+        <v>923</v>
+      </c>
+      <c r="D414" s="28" t="s">
+        <v>937</v>
+      </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
       </c>
@@ -15658,7 +15720,7 @@
         <v>15</v>
       </c>
       <c r="H414" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I414" s="30" t="s">
         <v>745</v>
@@ -15666,15 +15728,17 @@
     </row>
     <row r="415" spans="1:9" ht="75">
       <c r="A415" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B415" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C415" s="30" t="s">
-        <v>935</v>
-      </c>
-      <c r="D415" s="28"/>
+        <v>924</v>
+      </c>
+      <c r="D415" s="28" t="s">
+        <v>937</v>
+      </c>
       <c r="E415" s="28" t="s">
         <v>22</v>
       </c>
@@ -15693,15 +15757,17 @@
     </row>
     <row r="416" spans="1:9" ht="75">
       <c r="A416" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B416" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C416" s="30" t="s">
-        <v>936</v>
-      </c>
-      <c r="D416" s="28"/>
+        <v>925</v>
+      </c>
+      <c r="D416" s="28" t="s">
+        <v>937</v>
+      </c>
       <c r="E416" s="28" t="s">
         <v>22</v>
       </c>
@@ -15718,17 +15784,19 @@
         <v>745</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75">
+    <row r="417" spans="1:9" ht="105">
       <c r="A417" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B417" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C417" s="30" t="s">
+        <v>922</v>
+      </c>
+      <c r="D417" s="28" t="s">
         <v>937</v>
       </c>
-      <c r="D417" s="28"/>
       <c r="E417" s="28" t="s">
         <v>22</v>
       </c>
@@ -15745,17 +15813,19 @@
         <v>745</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="105">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="28" t="s">
-        <v>372</v>
+        <v>921</v>
       </c>
       <c r="B418" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C418" s="30" t="s">
-        <v>934</v>
-      </c>
-      <c r="D418" s="28"/>
+        <v>926</v>
+      </c>
+      <c r="D418" s="28" t="s">
+        <v>937</v>
+      </c>
       <c r="E418" s="28" t="s">
         <v>22</v>
       </c>
@@ -15766,46 +15836,44 @@
         <v>15</v>
       </c>
       <c r="H418" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I418" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I418" s="30"/>
+    </row>
+    <row r="419" spans="1:9" ht="45">
       <c r="A419" s="28" t="s">
-        <v>933</v>
+        <v>382</v>
       </c>
       <c r="B419" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C419" s="30" t="s">
-        <v>938</v>
+        <v>721</v>
       </c>
       <c r="D419" s="28"/>
       <c r="E419" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F419" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G419" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H419" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B420" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15822,15 +15890,15 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="360">
       <c r="A421" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C421" s="30" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15843,347 +15911,322 @@
         <v>15</v>
       </c>
       <c r="H421" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360">
-      <c r="A422" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="B422" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="C422" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="D422" s="28"/>
-      <c r="E422" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F422" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G422" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H422" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I422" s="30"/>
+    <row r="422" spans="1:9">
+      <c r="A422" s="3"/>
+      <c r="B422" s="10"/>
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
-    <row r="424" spans="1:9">
-      <c r="A424" s="3"/>
-      <c r="B424" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:I232 A237:I289 A292:I361 A394:H394 A364:I393 A395:I422">
-    <cfRule type="expression" dxfId="127" priority="133">
+  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A396:I421 A20:I233">
+    <cfRule type="expression" dxfId="85" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="134">
+    <cfRule type="expression" dxfId="84" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="141">
+    <cfRule type="expression" dxfId="83" priority="141">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I232 A237:I289 A292:I361 A394:H394 A364:I393 A395:I422">
-    <cfRule type="expression" dxfId="124" priority="87">
+  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A396:I421 A20:I233">
+    <cfRule type="expression" dxfId="82" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="88">
+    <cfRule type="expression" dxfId="81" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="89">
+    <cfRule type="expression" dxfId="80" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F232 F237:F289 F292:F361 F364:F422">
-    <cfRule type="expression" dxfId="121" priority="93">
+  <conditionalFormatting sqref="F20:F233 F238:F290 F293:F362 F365:F421">
+    <cfRule type="expression" dxfId="79" priority="93">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="94">
+    <cfRule type="expression" dxfId="78" priority="94">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A362:A363 C362:I363">
-    <cfRule type="expression" dxfId="119" priority="78">
+  <conditionalFormatting sqref="A363:A364 C363:I364">
+    <cfRule type="expression" dxfId="77" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="79">
+    <cfRule type="expression" dxfId="76" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="80">
+    <cfRule type="expression" dxfId="75" priority="80">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A362:A363 C362:I363">
-    <cfRule type="expression" dxfId="116" priority="73">
+  <conditionalFormatting sqref="A363:A364 C363:I364">
+    <cfRule type="expression" dxfId="74" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="74">
+    <cfRule type="expression" dxfId="73" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="75">
+    <cfRule type="expression" dxfId="72" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F362:F363">
-    <cfRule type="expression" dxfId="113" priority="76">
-      <formula>NOT(VLOOKUP(F362,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F363:F364">
+    <cfRule type="expression" dxfId="71" priority="76">
+      <formula>NOT(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="77">
-      <formula>(VLOOKUP(F362,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="70" priority="77">
+      <formula>(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I362:I363">
-    <cfRule type="expression" dxfId="111" priority="70">
+  <conditionalFormatting sqref="I363:I364">
+    <cfRule type="expression" dxfId="69" priority="70">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="71">
+    <cfRule type="expression" dxfId="68" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="72">
+    <cfRule type="expression" dxfId="67" priority="72">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I362:I363">
-    <cfRule type="expression" dxfId="108" priority="67">
+  <conditionalFormatting sqref="I363:I364">
+    <cfRule type="expression" dxfId="66" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="68">
+    <cfRule type="expression" dxfId="65" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="69">
+    <cfRule type="expression" dxfId="64" priority="69">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A233:I236">
-    <cfRule type="expression" dxfId="105" priority="64">
+  <conditionalFormatting sqref="A234:I237">
+    <cfRule type="expression" dxfId="63" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="65">
+    <cfRule type="expression" dxfId="62" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="66">
+    <cfRule type="expression" dxfId="61" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A233:I236">
-    <cfRule type="expression" dxfId="102" priority="59">
+  <conditionalFormatting sqref="A234:I237">
+    <cfRule type="expression" dxfId="60" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="60">
+    <cfRule type="expression" dxfId="59" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="61">
+    <cfRule type="expression" dxfId="58" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F233:F236">
-    <cfRule type="expression" dxfId="99" priority="62">
-      <formula>NOT(VLOOKUP(F233,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F234:F237">
+    <cfRule type="expression" dxfId="57" priority="62">
+      <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="63">
-      <formula>(VLOOKUP(F233,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="56" priority="63">
+      <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I233:I236">
-    <cfRule type="expression" dxfId="97" priority="56">
+  <conditionalFormatting sqref="I234:I237">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="57">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="58">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I233:I236">
-    <cfRule type="expression" dxfId="94" priority="53">
+  <conditionalFormatting sqref="I234:I237">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="54">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A290:A291 C290:I291">
-    <cfRule type="expression" dxfId="91" priority="50">
+  <conditionalFormatting sqref="A291:A292 C291:I292">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="51">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="52">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A290:A291 C290:I291">
-    <cfRule type="expression" dxfId="88" priority="45">
+  <conditionalFormatting sqref="A291:A292 C291:I292">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="47">
+    <cfRule type="expression" dxfId="44" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F290:F291">
-    <cfRule type="expression" dxfId="85" priority="48">
-      <formula>NOT(VLOOKUP(F290,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F291:F292">
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula>NOT(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="49">
-      <formula>(VLOOKUP(F290,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="42" priority="49">
+      <formula>(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I290:I291">
-    <cfRule type="expression" dxfId="83" priority="42">
+  <conditionalFormatting sqref="I291:I292">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="43">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="44">
+    <cfRule type="expression" dxfId="39" priority="44">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I290:I291">
-    <cfRule type="expression" dxfId="80" priority="39">
+  <conditionalFormatting sqref="I291:I292">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="41">
+    <cfRule type="expression" dxfId="36" priority="41">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B292">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="37">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="38">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B292">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="34">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="77" priority="36">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="37">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="38">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="74" priority="33">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="34">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="35">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B290">
-    <cfRule type="expression" dxfId="71" priority="30">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="31">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="32">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B290">
-    <cfRule type="expression" dxfId="68" priority="27">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="28">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="29">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B362">
-    <cfRule type="expression" dxfId="65" priority="24">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="25">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="26">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B362">
-    <cfRule type="expression" dxfId="62" priority="21">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="22">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="23">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="59" priority="18">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="19">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="20">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="56" priority="15">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="16">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B364">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B364">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F421">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E421">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G421">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H421">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16193,7 +16236,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B29 B31:B39 B41 B420:B424 B43:B53 B55:B64 B67:B72 B74:B119 B152:B156 B122:B143 B237:B289 B306:B320 B294:B303 B333:B361 B181:B208 B210:B232 B396:B400 B366:B393" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B29 B31:B39 B41 B419:B423 B43:B53 B55:B64 B67:B72 B74:B119 B152:B156 B122:B143 B238:B290 B307:B321 B295:B304 B334:B362 B182:B209 B211:B233 B397:B401 B367:B394" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -16203,12 +16246,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16261,15 +16301,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16290,15 +16339,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$422</definedName>
     <definedName name="Appendix_A_1" localSheetId="0">Requirements!$B$403</definedName>
     <definedName name="Appendix_A_2" localSheetId="0">Requirements!$B$405</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="952">
   <si>
     <t>Req ID</t>
   </si>
@@ -2997,12 +2997,6 @@
 &lt;/xs:complexType&gt;</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of Item element is] t:ItemType ([MS-OXWSCORE] section 2.2.4.24).</t>
-  </si>
-  <si>
-    <t>[In t:ItemAttachmentType Complex Type][The Item element] Represents a generic item in the server store.&lt;3&gt;</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The type of CalendarItem element is] t:CalendarItemType ([MS-OXWSMTGS] section 2.2.4.9)</t>
   </si>
   <si>
@@ -3484,18 +3478,12 @@
     <t>MS-OXWSATT_R346:i</t>
   </si>
   <si>
-    <t>MS-OXWSATT_R81:i</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R99006:i</t>
   </si>
   <si>
     <t>MS-OXWSATT_R104002:i</t>
   </si>
   <si>
-    <t>MS-OXWSATT_R309:i</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R311:i</t>
   </si>
   <si>
@@ -3521,9 +3509,6 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSATT_R318013.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
   </si>
   <si>
     <t xml:space="preserve">[t:ReferenceAttachmentType Complex Type]This type extends the AttachmentType complex type (section 2.2.4.4). &lt;8&gt;
@@ -3549,6 +3534,27 @@
      &lt;/xs:extension&gt;
    &lt;/xs:complexContent&gt;
  &lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R401:i</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of Item element is] t:ItemType ([MS-OXWSCORE] section 2.2.4.24).&lt;3&gt;</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The Item element] Represents a generic item in the server store.</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R318015</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318014, Ms-OXWSATT_R318015.</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R527:i</t>
   </si>
 </sst>
 </file>
@@ -3861,27 +3867,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3906,11 +3891,76 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -4326,216 +4376,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5034,34 +4874,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I421" tableType="xml" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" connectionId="1">
-  <autoFilter ref="A19:I421"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" connectionId="1">
+  <autoFilter ref="A19:I422"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="144">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="110">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="143">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="109">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="142">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="108">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="141">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="107">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="140">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="106">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="139">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="105">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="138">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="104">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="137">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="103">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="136">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="102">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5070,12 +4910,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="130"/>
-    <tableColumn id="2" name="Test" dataDxfId="129"/>
-    <tableColumn id="3" name="Description" dataDxfId="128"/>
+    <tableColumn id="1" name="Scope" dataDxfId="96"/>
+    <tableColumn id="2" name="Test" dataDxfId="95"/>
+    <tableColumn id="3" name="Description" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5369,10 +5209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M423"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5438,16 +5278,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5459,13 +5299,13 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -5473,16 +5313,16 @@
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -5490,16 +5330,16 @@
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -5507,16 +5347,16 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -5524,16 +5364,16 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -5541,16 +5381,16 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="56" t="s">
         <v>749</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -5558,16 +5398,16 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -5651,16 +5491,16 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -5668,16 +5508,16 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -5685,16 +5525,16 @@
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -7076,7 +6916,7 @@
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>393</v>
@@ -7923,7 +7763,7 @@
         <v>395</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -7939,7 +7779,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30">
@@ -8125,7 +7965,7 @@
         <v>396</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
@@ -8141,7 +7981,7 @@
         <v>17</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="30">
@@ -8293,7 +8133,7 @@
         <v>17</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45">
@@ -8371,7 +8211,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="30">
+    <row r="124" spans="1:9" ht="60">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
@@ -8379,7 +8219,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>780</v>
+        <v>946</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8392,11 +8232,13 @@
         <v>15</v>
       </c>
       <c r="H124" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I124" s="30" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8404,7 +8246,7 @@
         <v>397</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>781</v>
+        <v>947</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8417,11 +8259,9 @@
         <v>15</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>946</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
@@ -8481,7 +8321,7 @@
         <v>397</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8531,7 +8371,7 @@
         <v>397</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8581,7 +8421,7 @@
         <v>397</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -8631,7 +8471,7 @@
         <v>397</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -8681,7 +8521,7 @@
         <v>397</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -8731,7 +8571,7 @@
         <v>397</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -8781,7 +8621,7 @@
         <v>397</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
@@ -8875,13 +8715,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -8900,13 +8740,13 @@
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8925,13 +8765,13 @@
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -8950,13 +8790,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="28" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -8975,13 +8815,13 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -9000,13 +8840,13 @@
     </row>
     <row r="149" spans="1:9" ht="45">
       <c r="A149" s="28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -9022,18 +8862,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -9052,13 +8892,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -9158,7 +8998,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -9202,13 +9042,13 @@
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
@@ -9227,13 +9067,13 @@
     </row>
     <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -9249,18 +9089,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="330">
       <c r="A159" s="28" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9279,13 +9119,13 @@
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9304,13 +9144,13 @@
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9329,13 +9169,13 @@
     </row>
     <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9354,13 +9194,13 @@
     </row>
     <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9379,13 +9219,13 @@
     </row>
     <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9404,13 +9244,13 @@
     </row>
     <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9429,13 +9269,13 @@
     </row>
     <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
@@ -9454,13 +9294,13 @@
     </row>
     <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9479,13 +9319,13 @@
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9504,13 +9344,13 @@
     </row>
     <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9529,13 +9369,13 @@
     </row>
     <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
@@ -9554,13 +9394,13 @@
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
@@ -9579,13 +9419,13 @@
     </row>
     <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
@@ -9604,13 +9444,13 @@
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
@@ -9629,13 +9469,13 @@
     </row>
     <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -9685,7 +9525,7 @@
         <v>400</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -9960,7 +9800,7 @@
         <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
@@ -10460,7 +10300,7 @@
         <v>32</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10739,7 +10579,7 @@
         <v>410</v>
       </c>
       <c r="C218" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -10789,7 +10629,7 @@
         <v>410</v>
       </c>
       <c r="C220" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -10864,7 +10704,7 @@
         <v>410</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -11089,7 +10929,7 @@
         <v>411</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -11139,7 +10979,7 @@
         <v>411</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
@@ -11183,13 +11023,13 @@
     </row>
     <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
@@ -11208,13 +11048,13 @@
     </row>
     <row r="237" spans="1:9" ht="60">
       <c r="A237" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B237" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="28" t="s">
@@ -11339,7 +11179,7 @@
         <v>414</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
@@ -11464,7 +11304,7 @@
         <v>416</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="28" t="s">
@@ -11539,7 +11379,7 @@
         <v>417</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -11614,7 +11454,7 @@
         <v>417</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
@@ -11689,7 +11529,7 @@
         <v>417</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -11714,7 +11554,7 @@
         <v>417</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -11764,7 +11604,7 @@
         <v>33</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="28" t="s">
@@ -11941,7 +11781,7 @@
         <v>33</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>732</v>
@@ -11993,7 +11833,7 @@
         <v>33</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12518,7 +12358,7 @@
         <v>420</v>
       </c>
       <c r="C289" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12612,13 +12452,13 @@
     </row>
     <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -12637,13 +12477,13 @@
     </row>
     <row r="294" spans="1:9" ht="60">
       <c r="A294" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B294" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
@@ -12843,7 +12683,7 @@
         <v>424</v>
       </c>
       <c r="C302" s="30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
@@ -12912,13 +12752,13 @@
     </row>
     <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -12937,13 +12777,13 @@
     </row>
     <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B306" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -12993,7 +12833,7 @@
         <v>425</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="28" t="s">
@@ -13068,7 +12908,7 @@
         <v>425</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -13143,7 +12983,7 @@
         <v>426</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="28" t="s">
@@ -13218,7 +13058,7 @@
         <v>427</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="28" t="s">
@@ -13318,7 +13158,7 @@
         <v>427</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28" t="s">
@@ -13340,7 +13180,7 @@
         <v>168</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C322" s="30" t="s">
         <v>547</v>
@@ -13365,10 +13205,10 @@
         <v>169</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="28" t="s">
@@ -13390,7 +13230,7 @@
         <v>170</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C324" s="30" t="s">
         <v>548</v>
@@ -13415,7 +13255,7 @@
         <v>171</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C325" s="30" t="s">
         <v>549</v>
@@ -13440,7 +13280,7 @@
         <v>172</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C326" s="30" t="s">
         <v>550</v>
@@ -13465,7 +13305,7 @@
         <v>173</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C327" s="30" t="s">
         <v>551</v>
@@ -13490,7 +13330,7 @@
         <v>174</v>
       </c>
       <c r="B328" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C328" s="30" t="s">
         <v>552</v>
@@ -13517,7 +13357,7 @@
         <v>175</v>
       </c>
       <c r="B329" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C329" s="30" t="s">
         <v>553</v>
@@ -13544,7 +13384,7 @@
         <v>176</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C330" s="30" t="s">
         <v>554</v>
@@ -13569,7 +13409,7 @@
         <v>177</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C331" s="30" t="s">
         <v>555</v>
@@ -13594,7 +13434,7 @@
         <v>178</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C332" s="30" t="s">
         <v>556</v>
@@ -13621,7 +13461,7 @@
         <v>179</v>
       </c>
       <c r="B333" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C333" s="30" t="s">
         <v>557</v>
@@ -13651,7 +13491,7 @@
         <v>428</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -13976,7 +13816,7 @@
         <v>430</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -14026,7 +13866,7 @@
         <v>430</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -14101,7 +13941,7 @@
         <v>430</v>
       </c>
       <c r="C352" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -14326,7 +14166,7 @@
         <v>431</v>
       </c>
       <c r="C361" s="30" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14376,7 +14216,7 @@
         <v>431</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="28" t="s">
@@ -14420,13 +14260,13 @@
     </row>
     <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28" t="s">
@@ -14445,13 +14285,13 @@
     </row>
     <row r="366" spans="1:9" ht="60">
       <c r="A366" s="28" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B366" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="28" t="s">
@@ -14726,7 +14566,7 @@
         <v>436</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="28" t="s">
@@ -14776,7 +14616,7 @@
         <v>437</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="28" t="s">
@@ -14951,7 +14791,7 @@
         <v>438</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -15017,7 +14857,7 @@
         <v>17</v>
       </c>
       <c r="I388" s="30" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="90">
@@ -15028,7 +14868,7 @@
         <v>438</v>
       </c>
       <c r="C389" s="30" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -15044,7 +14884,7 @@
         <v>17</v>
       </c>
       <c r="I389" s="30" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="30">
@@ -15082,7 +14922,7 @@
         <v>438</v>
       </c>
       <c r="C391" s="30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -15148,7 +14988,7 @@
         <v>17</v>
       </c>
       <c r="I393" s="30" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="60">
@@ -15175,18 +15015,18 @@
         <v>17</v>
       </c>
       <c r="I394" s="30" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -15205,16 +15045,16 @@
     </row>
     <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C396" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D396" s="28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E396" s="28" t="s">
         <v>19</v>
@@ -15238,7 +15078,7 @@
         <v>438</v>
       </c>
       <c r="C397" s="30" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -15370,7 +15210,7 @@
         <v>778</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
@@ -15390,16 +15230,16 @@
     </row>
     <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D403" s="28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E403" s="28" t="s">
         <v>22</v>
@@ -15417,16 +15257,16 @@
     </row>
     <row r="404" spans="1:9" ht="45">
       <c r="A404" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D404" s="28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E404" s="28" t="s">
         <v>22</v>
@@ -15446,16 +15286,16 @@
     </row>
     <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D405" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E405" s="28" t="s">
         <v>22</v>
@@ -15473,16 +15313,16 @@
     </row>
     <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D406" s="28" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E406" s="28" t="s">
         <v>22</v>
@@ -15502,16 +15342,16 @@
     </row>
     <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C407" s="30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
@@ -15523,24 +15363,24 @@
         <v>15</v>
       </c>
       <c r="H407" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I407" s="30" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="45">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
-        <v>909</v>
+        <v>948</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C408" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="D408" s="21" t="s">
-        <v>934</v>
+      <c r="C408" s="30" t="s">
+        <v>949</v>
+      </c>
+      <c r="D408" s="28" t="s">
+        <v>951</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15551,23 +15391,23 @@
       <c r="G408" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I408" s="19"/>
+      <c r="H408" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I408" s="30"/>
     </row>
     <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
@@ -15575,28 +15415,26 @@
       <c r="F409" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G409" s="21" t="s">
+      <c r="G409" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H409" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I409" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I409" s="19"/>
+    </row>
+    <row r="410" spans="1:9" ht="45">
       <c r="A410" s="28" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C410" s="30" t="s">
-        <v>942</v>
-      </c>
-      <c r="D410" s="28" t="s">
-        <v>935</v>
+      <c r="C410" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="D410" s="21" t="s">
+        <v>931</v>
       </c>
       <c r="E410" s="28" t="s">
         <v>22</v>
@@ -15604,26 +15442,28 @@
       <c r="F410" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G410" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H410" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I410" s="30"/>
-    </row>
-    <row r="411" spans="1:9" ht="45">
+      <c r="G410" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H410" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I410" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="60">
       <c r="A411" s="28" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B411" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D411" s="28" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E411" s="28" t="s">
         <v>22</v>
@@ -15635,51 +15475,51 @@
         <v>15</v>
       </c>
       <c r="H411" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I411" s="30" t="s">
-        <v>745</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I411" s="30"/>
     </row>
     <row r="412" spans="1:9" ht="45">
       <c r="A412" s="28" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B412" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>900</v>
+        <v>939</v>
       </c>
       <c r="D412" s="28" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E412" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F412" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G412" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H412" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I412" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="I412" s="30" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B413" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C413" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
@@ -15691,24 +15531,22 @@
         <v>15</v>
       </c>
       <c r="H413" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I413" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" ht="75">
+        <v>18</v>
+      </c>
+      <c r="I413" s="30"/>
+    </row>
+    <row r="414" spans="1:9" ht="45">
       <c r="A414" s="28" t="s">
-        <v>369</v>
+        <v>912</v>
       </c>
       <c r="B414" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C414" s="30" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
@@ -15720,7 +15558,7 @@
         <v>15</v>
       </c>
       <c r="H414" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I414" s="30" t="s">
         <v>745</v>
@@ -15728,16 +15566,16 @@
     </row>
     <row r="415" spans="1:9" ht="75">
       <c r="A415" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B415" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C415" s="30" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E415" s="28" t="s">
         <v>22</v>
@@ -15757,16 +15595,16 @@
     </row>
     <row r="416" spans="1:9" ht="75">
       <c r="A416" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B416" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C416" s="30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D416" s="28" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E416" s="28" t="s">
         <v>22</v>
@@ -15784,18 +15622,18 @@
         <v>745</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="105">
+    <row r="417" spans="1:9" ht="75">
       <c r="A417" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B417" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C417" s="30" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D417" s="28" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E417" s="28" t="s">
         <v>22</v>
@@ -15813,18 +15651,18 @@
         <v>745</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30">
+    <row r="418" spans="1:9" ht="105">
       <c r="A418" s="28" t="s">
-        <v>921</v>
+        <v>372</v>
       </c>
       <c r="B418" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C418" s="30" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="D418" s="28" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E418" s="28" t="s">
         <v>22</v>
@@ -15836,44 +15674,48 @@
         <v>15</v>
       </c>
       <c r="H418" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I418" s="30"/>
-    </row>
-    <row r="419" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I418" s="30" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="B419" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C419" s="30" t="s">
+        <v>924</v>
+      </c>
+      <c r="D419" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="E419" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F419" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G419" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H419" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I419" s="30"/>
+    </row>
+    <row r="420" spans="1:9" ht="45">
+      <c r="A420" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B419" s="29" t="s">
+      <c r="B420" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="C419" s="30" t="s">
+      <c r="C420" s="30" t="s">
         <v>721</v>
-      </c>
-      <c r="D419" s="28"/>
-      <c r="E419" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F419" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G419" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H419" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I419" s="30"/>
-    </row>
-    <row r="420" spans="1:9" ht="30">
-      <c r="A420" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B420" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="C420" s="30" t="s">
-        <v>722</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15890,15 +15732,15 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="360">
+    <row r="421" spans="1:9" ht="30">
       <c r="A421" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B421" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C421" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15911,322 +15753,347 @@
         <v>15</v>
       </c>
       <c r="H421" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I421" s="30"/>
+    </row>
+    <row r="422" spans="1:9" ht="360">
+      <c r="A422" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B422" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C422" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F422" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G422" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H422" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I421" s="30"/>
-    </row>
-    <row r="422" spans="1:9">
-      <c r="A422" s="3"/>
-      <c r="B422" s="10"/>
+      <c r="I422" s="30"/>
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
+    <row r="424" spans="1:9">
+      <c r="A424" s="3"/>
+      <c r="B424" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A396:I421 A20:I233">
-    <cfRule type="expression" dxfId="85" priority="133">
+  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
+    <cfRule type="expression" dxfId="93" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="134">
+    <cfRule type="expression" dxfId="92" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="141">
+    <cfRule type="expression" dxfId="91" priority="141">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A396:I421 A20:I233">
-    <cfRule type="expression" dxfId="82" priority="87">
+  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
+    <cfRule type="expression" dxfId="90" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="88">
+    <cfRule type="expression" dxfId="89" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="89">
+    <cfRule type="expression" dxfId="88" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F233 F238:F290 F293:F362 F365:F421">
-    <cfRule type="expression" dxfId="79" priority="93">
+  <conditionalFormatting sqref="F20:F233 F238:F290 F293:F362 F365:F422">
+    <cfRule type="expression" dxfId="87" priority="93">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="94">
+    <cfRule type="expression" dxfId="86" priority="94">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A364 C363:I364">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="85" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="79">
+    <cfRule type="expression" dxfId="84" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="80">
+    <cfRule type="expression" dxfId="83" priority="80">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A364 C363:I364">
-    <cfRule type="expression" dxfId="74" priority="73">
+    <cfRule type="expression" dxfId="82" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="81" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75">
+    <cfRule type="expression" dxfId="80" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F363:F364">
-    <cfRule type="expression" dxfId="71" priority="76">
+    <cfRule type="expression" dxfId="79" priority="76">
       <formula>NOT(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="77">
+    <cfRule type="expression" dxfId="78" priority="77">
       <formula>(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363:I364">
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="77" priority="70">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="71">
+    <cfRule type="expression" dxfId="76" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="72">
+    <cfRule type="expression" dxfId="75" priority="72">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363:I364">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="74" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="68">
+    <cfRule type="expression" dxfId="73" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="69">
+    <cfRule type="expression" dxfId="72" priority="69">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:I237">
-    <cfRule type="expression" dxfId="63" priority="64">
+    <cfRule type="expression" dxfId="71" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="65">
+    <cfRule type="expression" dxfId="70" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="66">
+    <cfRule type="expression" dxfId="69" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:I237">
-    <cfRule type="expression" dxfId="60" priority="59">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="61">
+    <cfRule type="expression" dxfId="66" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234:F237">
-    <cfRule type="expression" dxfId="57" priority="62">
+    <cfRule type="expression" dxfId="65" priority="62">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="63">
+    <cfRule type="expression" dxfId="64" priority="63">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I234:I237">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="63" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="62" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="58">
+    <cfRule type="expression" dxfId="61" priority="58">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I234:I237">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="60" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="59" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291:A292 C291:I292">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="57" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="56" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="55" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291:A292 C291:I292">
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="53" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47">
+    <cfRule type="expression" dxfId="52" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="expression" dxfId="43" priority="48">
+    <cfRule type="expression" dxfId="51" priority="48">
       <formula>NOT(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="49">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I291:I292">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="49" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="44">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I291:I292">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="46" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="43" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="42" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="37" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="34" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="22" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F421">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F422">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E421">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E422">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G421">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G422">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H421">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H422">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16236,7 +16103,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B29 B31:B39 B41 B419:B423 B43:B53 B55:B64 B67:B72 B74:B119 B152:B156 B122:B143 B238:B290 B307:B321 B295:B304 B334:B362 B182:B209 B211:B233 B397:B401 B367:B394" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B29 B31:B39 B41 B420:B424 B43:B53 B55:B64 B67:B72 B74:B119 B152:B156 B122:B143 B238:B290 B307:B321 B295:B304 B334:B362 B182:B209 B211:B233 B397:B401 B367:B394" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -16246,9 +16113,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16301,24 +16171,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16339,9 +16200,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot2\Interop-TestSuites-1\ExchangeWebServices\Docs\MS-OXWSATT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -3562,14 +3567,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3774,7 +3779,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3812,7 +3817,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3853,8 +3858,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3866,6 +3871,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3891,134 +3917,347 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="93">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -4407,344 +4646,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4874,34 +4775,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I422"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="110">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="109">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="108">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="107">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="106">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="105">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="104">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="103">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="102">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4910,19 +4811,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="96"/>
-    <tableColumn id="2" name="Test" dataDxfId="95"/>
-    <tableColumn id="3" name="Description" dataDxfId="94"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4964,7 +4865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4999,7 +4900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5211,26 +5112,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>746</v>
       </c>
@@ -5242,7 +5141,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>747</v>
       </c>
@@ -5256,7 +5155,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>25</v>
@@ -5277,141 +5176,141 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5430,7 +5329,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5348,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -5468,7 +5367,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -5487,59 +5386,59 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="45" t="s">
         <v>750</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" ht="60">
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
@@ -5594,7 +5493,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -5620,7 +5519,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -5646,7 +5545,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -5672,7 +5571,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -5698,7 +5597,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
@@ -5724,7 +5623,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="26" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -5750,7 +5649,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1">
+    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -5776,7 +5675,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1">
+    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -5802,7 +5701,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="29" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -5828,7 +5727,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1">
+    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>754</v>
       </c>
@@ -5854,7 +5753,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
@@ -5882,7 +5781,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -5908,7 +5807,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="33" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
@@ -5934,7 +5833,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -5960,7 +5859,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>55</v>
       </c>
@@ -5985,7 +5884,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>56</v>
       </c>
@@ -6010,7 +5909,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="30">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
@@ -6035,7 +5934,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -6060,7 +5959,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
@@ -6085,7 +5984,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>756</v>
       </c>
@@ -6110,7 +6009,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>60</v>
       </c>
@@ -6135,7 +6034,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>759</v>
       </c>
@@ -6160,7 +6059,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>61</v>
       </c>
@@ -6185,7 +6084,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>62</v>
       </c>
@@ -6210,7 +6109,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="45">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -6235,7 +6134,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="75">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
@@ -6260,7 +6159,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
@@ -6285,7 +6184,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="45">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
@@ -6310,7 +6209,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>67</v>
       </c>
@@ -6335,7 +6234,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
@@ -6360,7 +6259,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
@@ -6385,7 +6284,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
@@ -6410,7 +6309,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
@@ -6435,7 +6334,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>763</v>
       </c>
@@ -6460,7 +6359,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
@@ -6485,7 +6384,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
@@ -6510,7 +6409,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>74</v>
       </c>
@@ -6537,7 +6436,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
@@ -6564,7 +6463,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="270">
+    <row r="59" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>76</v>
       </c>
@@ -6589,7 +6488,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>77</v>
       </c>
@@ -6614,7 +6513,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
@@ -6639,7 +6538,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>79</v>
       </c>
@@ -6664,7 +6563,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>80</v>
       </c>
@@ -6689,7 +6588,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>81</v>
       </c>
@@ -6714,7 +6613,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>768</v>
       </c>
@@ -6739,7 +6638,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>769</v>
       </c>
@@ -6764,7 +6663,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>82</v>
       </c>
@@ -6789,7 +6688,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>83</v>
       </c>
@@ -6814,7 +6713,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="255">
+    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>84</v>
       </c>
@@ -6839,7 +6738,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>85</v>
       </c>
@@ -6864,7 +6763,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>86</v>
       </c>
@@ -6889,7 +6788,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>87</v>
       </c>
@@ -6914,7 +6813,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>928</v>
       </c>
@@ -6939,7 +6838,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -6966,7 +6865,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
@@ -6993,7 +6892,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>90</v>
       </c>
@@ -7018,7 +6917,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
@@ -7043,7 +6942,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="45">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
@@ -7070,7 +6969,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>93</v>
       </c>
@@ -7097,7 +6996,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
@@ -7122,7 +7021,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="240">
+    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -7147,7 +7046,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -7172,7 +7071,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>97</v>
       </c>
@@ -7197,7 +7096,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>98</v>
       </c>
@@ -7222,7 +7121,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -7249,7 +7148,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>100</v>
       </c>
@@ -7276,7 +7175,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="409.5">
+    <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>101</v>
       </c>
@@ -7301,7 +7200,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>102</v>
       </c>
@@ -7326,7 +7225,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>103</v>
       </c>
@@ -7351,7 +7250,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
@@ -7376,7 +7275,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
@@ -7401,7 +7300,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>106</v>
       </c>
@@ -7426,7 +7325,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>107</v>
       </c>
@@ -7451,7 +7350,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>108</v>
       </c>
@@ -7476,7 +7375,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="45">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>109</v>
       </c>
@@ -7501,7 +7400,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>110</v>
       </c>
@@ -7526,7 +7425,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>111</v>
       </c>
@@ -7553,7 +7452,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
@@ -7580,7 +7479,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>113</v>
       </c>
@@ -7605,7 +7504,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>114</v>
       </c>
@@ -7630,7 +7529,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>115</v>
       </c>
@@ -7655,7 +7554,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>116</v>
       </c>
@@ -7680,7 +7579,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>117</v>
       </c>
@@ -7705,7 +7604,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>118</v>
       </c>
@@ -7730,7 +7629,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -7755,7 +7654,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -7782,7 +7681,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -7807,7 +7706,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -7832,7 +7731,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -7857,7 +7756,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -7882,7 +7781,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -7907,7 +7806,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="330">
+    <row r="112" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -7932,7 +7831,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -7957,7 +7856,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -7984,7 +7883,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -8009,7 +7908,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -8034,7 +7933,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -8059,7 +7958,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -8084,7 +7983,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8109,7 +8008,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="60">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>775</v>
       </c>
@@ -8136,7 +8035,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>776</v>
       </c>
@@ -8161,7 +8060,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="409.5">
+    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>134</v>
       </c>
@@ -8186,7 +8085,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="60">
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>135</v>
       </c>
@@ -8211,7 +8110,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="60">
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
@@ -8238,7 +8137,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="30">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8263,7 +8162,7 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>138</v>
       </c>
@@ -8288,7 +8187,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>139</v>
       </c>
@@ -8313,7 +8212,7 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="30">
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>140</v>
       </c>
@@ -8338,7 +8237,7 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>141</v>
       </c>
@@ -8363,7 +8262,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>142</v>
       </c>
@@ -8388,7 +8287,7 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>143</v>
       </c>
@@ -8413,7 +8312,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>144</v>
       </c>
@@ -8438,7 +8337,7 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>145</v>
       </c>
@@ -8463,7 +8362,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>146</v>
       </c>
@@ -8488,7 +8387,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>147</v>
       </c>
@@ -8513,7 +8412,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>148</v>
       </c>
@@ -8538,7 +8437,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>149</v>
       </c>
@@ -8563,7 +8462,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>150</v>
       </c>
@@ -8588,7 +8487,7 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>151</v>
       </c>
@@ -8613,7 +8512,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>152</v>
       </c>
@@ -8638,7 +8537,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>153</v>
       </c>
@@ -8663,7 +8562,7 @@
       </c>
       <c r="I141" s="30"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>154</v>
       </c>
@@ -8688,7 +8587,7 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>155</v>
       </c>
@@ -8713,7 +8612,7 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>795</v>
       </c>
@@ -8738,7 +8637,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>796</v>
       </c>
@@ -8763,7 +8662,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>797</v>
       </c>
@@ -8788,7 +8687,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>798</v>
       </c>
@@ -8813,7 +8712,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>799</v>
       </c>
@@ -8838,7 +8737,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" ht="45">
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>800</v>
       </c>
@@ -8865,7 +8764,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>801</v>
       </c>
@@ -8890,7 +8789,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>802</v>
       </c>
@@ -8915,7 +8814,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="45">
+    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>156</v>
       </c>
@@ -8940,7 +8839,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="180">
+    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>157</v>
       </c>
@@ -8965,7 +8864,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>158</v>
       </c>
@@ -8990,7 +8889,7 @@
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>159</v>
       </c>
@@ -9015,7 +8914,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>160</v>
       </c>
@@ -9040,7 +8939,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>822</v>
       </c>
@@ -9065,7 +8964,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>823</v>
       </c>
@@ -9092,7 +8991,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="330">
+    <row r="159" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>943</v>
       </c>
@@ -9117,7 +9016,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>824</v>
       </c>
@@ -9142,7 +9041,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>825</v>
       </c>
@@ -9167,7 +9066,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>826</v>
       </c>
@@ -9192,7 +9091,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>827</v>
       </c>
@@ -9217,7 +9116,7 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>828</v>
       </c>
@@ -9242,7 +9141,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>829</v>
       </c>
@@ -9267,7 +9166,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>830</v>
       </c>
@@ -9288,11 +9187,11 @@
         <v>15</v>
       </c>
       <c r="H166" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>831</v>
       </c>
@@ -9317,7 +9216,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>832</v>
       </c>
@@ -9342,7 +9241,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>833</v>
       </c>
@@ -9367,7 +9266,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>834</v>
       </c>
@@ -9392,7 +9291,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>835</v>
       </c>
@@ -9417,7 +9316,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>836</v>
       </c>
@@ -9442,7 +9341,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>837</v>
       </c>
@@ -9467,7 +9366,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>838</v>
       </c>
@@ -9492,7 +9391,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>161</v>
       </c>
@@ -9517,7 +9416,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>162</v>
       </c>
@@ -9542,7 +9441,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="210">
+    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>163</v>
       </c>
@@ -9567,7 +9466,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>164</v>
       </c>
@@ -9592,7 +9491,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>165</v>
       </c>
@@ -9617,7 +9516,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>166</v>
       </c>
@@ -9642,7 +9541,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>167</v>
       </c>
@@ -9667,7 +9566,7 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>180</v>
       </c>
@@ -9692,7 +9591,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>181</v>
       </c>
@@ -9717,7 +9616,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>182</v>
       </c>
@@ -9742,7 +9641,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>183</v>
       </c>
@@ -9767,7 +9666,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>184</v>
       </c>
@@ -9792,7 +9691,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>185</v>
       </c>
@@ -9817,7 +9716,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>186</v>
       </c>
@@ -9842,7 +9741,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="45">
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>187</v>
       </c>
@@ -9867,7 +9766,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>188</v>
       </c>
@@ -9892,7 +9791,7 @@
       </c>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" ht="45">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>189</v>
       </c>
@@ -9917,7 +9816,7 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="45">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>190</v>
       </c>
@@ -9942,7 +9841,7 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>191</v>
       </c>
@@ -9967,7 +9866,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="60">
+    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>192</v>
       </c>
@@ -9992,7 +9891,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>193</v>
       </c>
@@ -10017,7 +9916,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="60">
+    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>194</v>
       </c>
@@ -10042,7 +9941,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>195</v>
       </c>
@@ -10067,7 +9966,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>196</v>
       </c>
@@ -10092,7 +9991,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>197</v>
       </c>
@@ -10117,7 +10016,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>198</v>
       </c>
@@ -10142,7 +10041,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>199</v>
       </c>
@@ -10167,7 +10066,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="90">
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>200</v>
       </c>
@@ -10192,7 +10091,7 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="345">
+    <row r="203" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>201</v>
       </c>
@@ -10217,7 +10116,7 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>202</v>
       </c>
@@ -10242,7 +10141,7 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>203</v>
       </c>
@@ -10267,7 +10166,7 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>204</v>
       </c>
@@ -10292,7 +10191,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="45">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>205</v>
       </c>
@@ -10319,7 +10218,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>206</v>
       </c>
@@ -10346,7 +10245,7 @@
       </c>
       <c r="I208" s="30"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>207</v>
       </c>
@@ -10371,7 +10270,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>210</v>
       </c>
@@ -10396,7 +10295,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>211</v>
       </c>
@@ -10421,7 +10320,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>212</v>
       </c>
@@ -10446,7 +10345,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="135">
+    <row r="213" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>213</v>
       </c>
@@ -10471,7 +10370,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>214</v>
       </c>
@@ -10496,7 +10395,7 @@
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>215</v>
       </c>
@@ -10521,7 +10420,7 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>216</v>
       </c>
@@ -10546,7 +10445,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>217</v>
       </c>
@@ -10571,7 +10470,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>218</v>
       </c>
@@ -10596,7 +10495,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>219</v>
       </c>
@@ -10621,7 +10520,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>220</v>
       </c>
@@ -10646,7 +10545,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>221</v>
       </c>
@@ -10671,7 +10570,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>222</v>
       </c>
@@ -10696,7 +10595,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>223</v>
       </c>
@@ -10721,7 +10620,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>224</v>
       </c>
@@ -10746,7 +10645,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>225</v>
       </c>
@@ -10771,7 +10670,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>226</v>
       </c>
@@ -10796,7 +10695,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="120">
+    <row r="227" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>227</v>
       </c>
@@ -10821,7 +10720,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>228</v>
       </c>
@@ -10846,7 +10745,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>229</v>
       </c>
@@ -10871,7 +10770,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>230</v>
       </c>
@@ -10896,7 +10795,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>231</v>
       </c>
@@ -10921,7 +10820,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>232</v>
       </c>
@@ -10946,7 +10845,7 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>233</v>
       </c>
@@ -10971,7 +10870,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
         <v>208</v>
       </c>
@@ -10996,7 +10895,7 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45">
+    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>209</v>
       </c>
@@ -11021,7 +10920,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45">
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>880</v>
       </c>
@@ -11046,7 +10945,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="60">
+    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>881</v>
       </c>
@@ -11071,7 +10970,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>234</v>
       </c>
@@ -11096,7 +10995,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>235</v>
       </c>
@@ -11121,7 +11020,7 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>236</v>
       </c>
@@ -11146,7 +11045,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="75">
+    <row r="241" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>237</v>
       </c>
@@ -11171,7 +11070,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="75">
+    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>238</v>
       </c>
@@ -11196,7 +11095,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45">
+    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>239</v>
       </c>
@@ -11221,7 +11120,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
         <v>240</v>
       </c>
@@ -11246,7 +11145,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>241</v>
       </c>
@@ -11271,7 +11170,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="45">
+    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>242</v>
       </c>
@@ -11296,7 +11195,7 @@
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="45">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>243</v>
       </c>
@@ -11321,7 +11220,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="135">
+    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>244</v>
       </c>
@@ -11346,7 +11245,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>245</v>
       </c>
@@ -11371,7 +11270,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>246</v>
       </c>
@@ -11396,7 +11295,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="270">
+    <row r="251" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>247</v>
       </c>
@@ -11421,7 +11320,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="45">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>248</v>
       </c>
@@ -11446,7 +11345,7 @@
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>249</v>
       </c>
@@ -11471,7 +11370,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>250</v>
       </c>
@@ -11496,7 +11395,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>251</v>
       </c>
@@ -11521,7 +11420,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>252</v>
       </c>
@@ -11546,7 +11445,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>253</v>
       </c>
@@ -11571,7 +11470,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>254</v>
       </c>
@@ -11596,7 +11495,7 @@
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>255</v>
       </c>
@@ -11621,7 +11520,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="90">
+    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>256</v>
       </c>
@@ -11646,7 +11545,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="315">
+    <row r="261" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>257</v>
       </c>
@@ -11671,7 +11570,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>258</v>
       </c>
@@ -11696,7 +11595,7 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>259</v>
       </c>
@@ -11721,7 +11620,7 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>260</v>
       </c>
@@ -11746,7 +11645,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>261</v>
       </c>
@@ -11773,7 +11672,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>262</v>
       </c>
@@ -11800,7 +11699,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>263</v>
       </c>
@@ -11825,7 +11724,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>264</v>
       </c>
@@ -11850,7 +11749,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>267</v>
       </c>
@@ -11875,7 +11774,7 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>268</v>
       </c>
@@ -11900,7 +11799,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>269</v>
       </c>
@@ -11925,7 +11824,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="120">
+    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>270</v>
       </c>
@@ -11950,7 +11849,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>271</v>
       </c>
@@ -11975,7 +11874,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>272</v>
       </c>
@@ -12000,7 +11899,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>273</v>
       </c>
@@ -12025,7 +11924,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>274</v>
       </c>
@@ -12050,7 +11949,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>275</v>
       </c>
@@ -12075,7 +11974,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>276</v>
       </c>
@@ -12100,7 +11999,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>277</v>
       </c>
@@ -12125,7 +12024,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>278</v>
       </c>
@@ -12150,7 +12049,7 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>279</v>
       </c>
@@ -12175,7 +12074,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>280</v>
       </c>
@@ -12200,7 +12099,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>281</v>
       </c>
@@ -12225,7 +12124,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="120">
+    <row r="284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>282</v>
       </c>
@@ -12250,7 +12149,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="45">
+    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>283</v>
       </c>
@@ -12275,7 +12174,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="45">
+    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>284</v>
       </c>
@@ -12300,7 +12199,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>285</v>
       </c>
@@ -12325,7 +12224,7 @@
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>286</v>
       </c>
@@ -12350,7 +12249,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>287</v>
       </c>
@@ -12375,7 +12274,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>288</v>
       </c>
@@ -12400,7 +12299,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>265</v>
       </c>
@@ -12425,7 +12324,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>266</v>
       </c>
@@ -12450,7 +12349,7 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>856</v>
       </c>
@@ -12475,7 +12374,7 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="60">
+    <row r="294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>857</v>
       </c>
@@ -12500,7 +12399,7 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>289</v>
       </c>
@@ -12525,7 +12424,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>290</v>
       </c>
@@ -12550,7 +12449,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>291</v>
       </c>
@@ -12575,7 +12474,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>292</v>
       </c>
@@ -12600,7 +12499,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>293</v>
       </c>
@@ -12625,7 +12524,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="75">
+    <row r="300" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
         <v>294</v>
       </c>
@@ -12650,7 +12549,7 @@
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>295</v>
       </c>
@@ -12675,7 +12574,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>296</v>
       </c>
@@ -12700,7 +12599,7 @@
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
         <v>297</v>
       </c>
@@ -12725,7 +12624,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>298</v>
       </c>
@@ -12750,7 +12649,7 @@
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>859</v>
       </c>
@@ -12775,7 +12674,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>860</v>
       </c>
@@ -12800,7 +12699,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="45">
+    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>299</v>
       </c>
@@ -12825,7 +12724,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="45">
+    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>300</v>
       </c>
@@ -12850,7 +12749,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="240">
+    <row r="309" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>301</v>
       </c>
@@ -12875,7 +12774,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="45">
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>302</v>
       </c>
@@ -12900,7 +12799,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>303</v>
       </c>
@@ -12925,7 +12824,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>304</v>
       </c>
@@ -12950,7 +12849,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="45">
+    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>305</v>
       </c>
@@ -12975,7 +12874,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="45">
+    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>306</v>
       </c>
@@ -13000,7 +12899,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="135">
+    <row r="315" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>307</v>
       </c>
@@ -13025,7 +12924,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>308</v>
       </c>
@@ -13050,7 +12949,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>309</v>
       </c>
@@ -13075,7 +12974,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="225">
+    <row r="318" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>310</v>
       </c>
@@ -13100,7 +12999,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>311</v>
       </c>
@@ -13125,7 +13024,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>312</v>
       </c>
@@ -13150,7 +13049,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>313</v>
       </c>
@@ -13175,7 +13074,7 @@
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>168</v>
       </c>
@@ -13200,7 +13099,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>169</v>
       </c>
@@ -13225,7 +13124,7 @@
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="255">
+    <row r="324" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>170</v>
       </c>
@@ -13250,7 +13149,7 @@
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="45">
+    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>171</v>
       </c>
@@ -13275,7 +13174,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>172</v>
       </c>
@@ -13300,7 +13199,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>173</v>
       </c>
@@ -13325,7 +13224,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>174</v>
       </c>
@@ -13352,7 +13251,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>175</v>
       </c>
@@ -13379,7 +13278,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>176</v>
       </c>
@@ -13404,7 +13303,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>177</v>
       </c>
@@ -13429,7 +13328,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>178</v>
       </c>
@@ -13456,7 +13355,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>179</v>
       </c>
@@ -13483,7 +13382,7 @@
       </c>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
         <v>314</v>
       </c>
@@ -13508,7 +13407,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="90">
+    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>315</v>
       </c>
@@ -13533,7 +13432,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="345">
+    <row r="336" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>316</v>
       </c>
@@ -13558,7 +13457,7 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
         <v>317</v>
       </c>
@@ -13583,7 +13482,7 @@
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>318</v>
       </c>
@@ -13608,7 +13507,7 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>321</v>
       </c>
@@ -13633,7 +13532,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>322</v>
       </c>
@@ -13658,7 +13557,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>323</v>
       </c>
@@ -13683,7 +13582,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="135">
+    <row r="342" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>324</v>
       </c>
@@ -13708,7 +13607,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>325</v>
       </c>
@@ -13733,7 +13632,7 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>326</v>
       </c>
@@ -13758,7 +13657,7 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>327</v>
       </c>
@@ -13783,7 +13682,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>328</v>
       </c>
@@ -13808,7 +13707,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>329</v>
       </c>
@@ -13833,7 +13732,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>330</v>
       </c>
@@ -13858,7 +13757,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>331</v>
       </c>
@@ -13883,7 +13782,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>332</v>
       </c>
@@ -13908,7 +13807,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>333</v>
       </c>
@@ -13933,7 +13832,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="30">
+    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>334</v>
       </c>
@@ -13958,7 +13857,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>335</v>
       </c>
@@ -13983,7 +13882,7 @@
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>336</v>
       </c>
@@ -14008,7 +13907,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>337</v>
       </c>
@@ -14033,7 +13932,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="90">
+    <row r="356" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>338</v>
       </c>
@@ -14058,7 +13957,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
         <v>339</v>
       </c>
@@ -14083,7 +13982,7 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="45">
+    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
         <v>340</v>
       </c>
@@ -14108,7 +14007,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
         <v>341</v>
       </c>
@@ -14133,7 +14032,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
         <v>342</v>
       </c>
@@ -14158,7 +14057,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
         <v>343</v>
       </c>
@@ -14183,7 +14082,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
         <v>344</v>
       </c>
@@ -14208,7 +14107,7 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
         <v>319</v>
       </c>
@@ -14233,7 +14132,7 @@
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
         <v>320</v>
       </c>
@@ -14258,7 +14157,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="45">
+    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
         <v>875</v>
       </c>
@@ -14283,7 +14182,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="60">
+    <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
         <v>876</v>
       </c>
@@ -14308,7 +14207,7 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="28" t="s">
         <v>345</v>
       </c>
@@ -14333,7 +14232,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
         <v>346</v>
       </c>
@@ -14358,7 +14257,7 @@
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
         <v>347</v>
       </c>
@@ -14383,7 +14282,7 @@
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="75">
+    <row r="370" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
         <v>348</v>
       </c>
@@ -14408,7 +14307,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="75">
+    <row r="371" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
         <v>349</v>
       </c>
@@ -14433,7 +14332,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="60">
+    <row r="372" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
         <v>350</v>
       </c>
@@ -14458,7 +14357,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
         <v>351</v>
       </c>
@@ -14483,7 +14382,7 @@
       </c>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
         <v>352</v>
       </c>
@@ -14508,7 +14407,7 @@
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="30">
+    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>353</v>
       </c>
@@ -14533,7 +14432,7 @@
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="45">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
         <v>354</v>
       </c>
@@ -14558,7 +14457,7 @@
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="150">
+    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>355</v>
       </c>
@@ -14583,7 +14482,7 @@
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
         <v>356</v>
       </c>
@@ -14608,7 +14507,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="285">
+    <row r="379" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
         <v>357</v>
       </c>
@@ -14633,7 +14532,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
         <v>358</v>
       </c>
@@ -14658,7 +14557,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="28" t="s">
         <v>359</v>
       </c>
@@ -14683,7 +14582,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="28" t="s">
         <v>360</v>
       </c>
@@ -14708,7 +14607,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="28" t="s">
         <v>361</v>
       </c>
@@ -14733,7 +14632,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>362</v>
       </c>
@@ -14758,7 +14657,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="345">
+    <row r="385" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A385" s="28" t="s">
         <v>363</v>
       </c>
@@ -14783,7 +14682,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="45">
+    <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="28" t="s">
         <v>364</v>
       </c>
@@ -14808,7 +14707,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>365</v>
       </c>
@@ -14829,11 +14728,11 @@
         <v>15</v>
       </c>
       <c r="H387" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="60">
+    <row r="388" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
         <v>366</v>
       </c>
@@ -14860,7 +14759,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="90">
+    <row r="389" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="28" t="s">
         <v>367</v>
       </c>
@@ -14887,7 +14786,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="28" t="s">
         <v>368</v>
       </c>
@@ -14914,7 +14813,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
         <v>373</v>
       </c>
@@ -14939,7 +14838,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="28" t="s">
         <v>374</v>
       </c>
@@ -14964,7 +14863,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="45">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="28" t="s">
         <v>375</v>
       </c>
@@ -14991,7 +14890,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="60">
+    <row r="394" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="28" t="s">
         <v>376</v>
       </c>
@@ -15018,7 +14917,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="28" t="s">
         <v>899</v>
       </c>
@@ -15043,7 +14942,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="28" t="s">
         <v>902</v>
       </c>
@@ -15070,7 +14969,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="30">
+    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="28" t="s">
         <v>377</v>
       </c>
@@ -15095,7 +14994,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="28" t="s">
         <v>378</v>
       </c>
@@ -15120,7 +15019,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="28" t="s">
         <v>379</v>
       </c>
@@ -15145,7 +15044,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="28" t="s">
         <v>380</v>
       </c>
@@ -15170,7 +15069,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="28" t="s">
         <v>381</v>
       </c>
@@ -15199,7 +15098,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75">
+    <row r="402" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="28" t="s">
         <v>777</v>
       </c>
@@ -15228,7 +15127,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
         <v>903</v>
       </c>
@@ -15255,7 +15154,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="28" t="s">
         <v>904</v>
       </c>
@@ -15284,7 +15183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28" t="s">
         <v>905</v>
       </c>
@@ -15311,7 +15210,7 @@
       </c>
       <c r="I405" s="19"/>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="28" t="s">
         <v>906</v>
       </c>
@@ -15340,7 +15239,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="28" t="s">
         <v>914</v>
       </c>
@@ -15369,7 +15268,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28" t="s">
         <v>948</v>
       </c>
@@ -15396,7 +15295,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="45">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="28" t="s">
         <v>907</v>
       </c>
@@ -15423,7 +15322,7 @@
       </c>
       <c r="I409" s="19"/>
     </row>
-    <row r="410" spans="1:9" ht="45">
+    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
         <v>908</v>
       </c>
@@ -15452,7 +15351,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="60">
+    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="28" t="s">
         <v>909</v>
       </c>
@@ -15479,7 +15378,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="45">
+    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="28" t="s">
         <v>910</v>
       </c>
@@ -15508,7 +15407,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="45">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28" t="s">
         <v>911</v>
       </c>
@@ -15535,7 +15434,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="45">
+    <row r="414" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="28" t="s">
         <v>912</v>
       </c>
@@ -15564,7 +15463,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="75">
+    <row r="415" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="28" t="s">
         <v>369</v>
       </c>
@@ -15593,7 +15492,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="28" t="s">
         <v>370</v>
       </c>
@@ -15622,7 +15521,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75">
+    <row r="417" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>371</v>
       </c>
@@ -15651,7 +15550,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="105">
+    <row r="418" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>372</v>
       </c>
@@ -15680,7 +15579,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28" t="s">
         <v>919</v>
       </c>
@@ -15707,7 +15606,7 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28" t="s">
         <v>382</v>
       </c>
@@ -15732,7 +15631,7 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>383</v>
       </c>
@@ -15757,7 +15656,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360">
+    <row r="422" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A422" s="28" t="s">
         <v>384</v>
       </c>
@@ -15782,300 +15681,300 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
-    <cfRule type="expression" dxfId="93" priority="133">
+    <cfRule type="expression" dxfId="92" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="134">
+    <cfRule type="expression" dxfId="91" priority="134">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="141">
+    <cfRule type="expression" dxfId="90" priority="141">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
-    <cfRule type="expression" dxfId="90" priority="87">
+    <cfRule type="expression" dxfId="89" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="88">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F238:F290 F293:F362 F365:F422">
-    <cfRule type="expression" dxfId="87" priority="93">
+    <cfRule type="expression" dxfId="86" priority="93">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="94">
+    <cfRule type="expression" dxfId="85" priority="94">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A364 C363:I364">
-    <cfRule type="expression" dxfId="85" priority="78">
+    <cfRule type="expression" dxfId="84" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="80">
+    <cfRule type="expression" dxfId="82" priority="80">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A364 C363:I364">
-    <cfRule type="expression" dxfId="82" priority="73">
+    <cfRule type="expression" dxfId="81" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="74">
+    <cfRule type="expression" dxfId="80" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="75">
+    <cfRule type="expression" dxfId="79" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F363:F364">
-    <cfRule type="expression" dxfId="79" priority="76">
+    <cfRule type="expression" dxfId="78" priority="76">
       <formula>NOT(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77">
+    <cfRule type="expression" dxfId="77" priority="77">
       <formula>(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363:I364">
-    <cfRule type="expression" dxfId="77" priority="70">
+    <cfRule type="expression" dxfId="76" priority="70">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="71">
+    <cfRule type="expression" dxfId="75" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72">
+    <cfRule type="expression" dxfId="74" priority="72">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I363:I364">
-    <cfRule type="expression" dxfId="74" priority="67">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="68">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69">
+    <cfRule type="expression" dxfId="71" priority="69">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:I237">
-    <cfRule type="expression" dxfId="71" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:I237">
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="67" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="60">
+    <cfRule type="expression" dxfId="66" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="61">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234:F237">
-    <cfRule type="expression" dxfId="65" priority="62">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="63">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I234:I237">
-    <cfRule type="expression" dxfId="63" priority="56">
+    <cfRule type="expression" dxfId="62" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="57">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="58">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I234:I237">
-    <cfRule type="expression" dxfId="60" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291:A292 C291:I292">
-    <cfRule type="expression" dxfId="57" priority="50">
+    <cfRule type="expression" dxfId="56" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="51">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="52">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291:A292 C291:I292">
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="46">
+    <cfRule type="expression" dxfId="52" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="expression" dxfId="51" priority="48">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>NOT(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I291:I292">
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I291:I292">
-    <cfRule type="expression" dxfId="46" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292">
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="37" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B291">
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363">
-    <cfRule type="expression" dxfId="28" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16103,7 +16002,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B29 B31:B39 B41 B420:B424 B43:B53 B55:B64 B67:B72 B74:B119 B152:B156 B122:B143 B238:B290 B307:B321 B295:B304 B334:B362 B182:B209 B211:B233 B397:B401 B367:B394" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B42 B419:B424 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -16113,15 +16012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -16170,6 +16060,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -16177,14 +16076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16195,6 +16086,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot2\Interop-TestSuites-1\ExchangeWebServices\Docs\MS-OXWSATT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="950">
   <si>
     <t>Req ID</t>
   </si>
@@ -3495,9 +3490,6 @@
     <t>Verified by derived requirement: MS-OXWSATT_R318009.</t>
   </si>
   <si>
-    <t>Verified by derived requirements:MS-OXWSATT_R311, MS-OXWSATT_R3111.</t>
-  </si>
-  <si>
     <t>Verified by derived requirements: MS-OXWSATT_R55001, MS-OXWSATT_R55002, MS-OXWSATT_R55003, MS-OXWSATT_R552.</t>
   </si>
   <si>
@@ -3508,9 +3500,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does introduce the ReferenceAttachmentType complex type. (This type was introduced in Microsoft Exchange Server 2013 Service Pack 1 (SP1).)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-OXWSATT_R479001, MS-OXWSATT_R479002.</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSATT_R318013.</t>
@@ -3556,25 +3545,25 @@
     <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 follow this behavior.)</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318014, Ms-OXWSATT_R318015.</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R527:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3779,7 +3768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3817,7 +3806,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3858,8 +3847,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3871,27 +3860,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3917,9 +3885,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
     <dxf>
@@ -4823,7 +4812,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4898,6 +4887,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4933,6 +4939,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5114,22 +5137,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>746</v>
       </c>
@@ -5141,7 +5164,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>747</v>
       </c>
@@ -5155,7 +5178,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>25</v>
@@ -5176,141 +5199,141 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:11" ht="21">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="56" t="s">
         <v>749</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5329,7 +5352,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -5348,7 +5371,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5390,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -5386,59 +5409,59 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5467,7 +5490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="60">
       <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
@@ -5493,7 +5516,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -5519,7 +5542,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -5545,7 +5568,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -5571,7 +5594,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -5597,7 +5620,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
@@ -5623,7 +5646,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -5649,7 +5672,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" s="22" customFormat="1">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -5675,7 +5698,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" s="22" customFormat="1">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -5701,7 +5724,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -5727,7 +5750,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="22" customFormat="1">
       <c r="A30" s="21" t="s">
         <v>754</v>
       </c>
@@ -5753,7 +5776,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
@@ -5781,7 +5804,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -5807,7 +5830,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="22" customFormat="1" ht="45">
       <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
@@ -5833,7 +5856,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="45">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -5859,7 +5882,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="60">
       <c r="A35" s="28" t="s">
         <v>55</v>
       </c>
@@ -5884,7 +5907,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="28" t="s">
         <v>56</v>
       </c>
@@ -5909,7 +5932,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
@@ -5934,7 +5957,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -5959,7 +5982,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
@@ -5984,7 +6007,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30">
       <c r="A40" s="28" t="s">
         <v>756</v>
       </c>
@@ -6009,7 +6032,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30">
       <c r="A41" s="28" t="s">
         <v>60</v>
       </c>
@@ -6034,7 +6057,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="28" t="s">
         <v>759</v>
       </c>
@@ -6059,7 +6082,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="28" t="s">
         <v>61</v>
       </c>
@@ -6084,7 +6107,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30">
       <c r="A44" s="28" t="s">
         <v>62</v>
       </c>
@@ -6109,7 +6132,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -6134,7 +6157,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="75">
       <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
@@ -6159,7 +6182,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
@@ -6184,7 +6207,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="45">
       <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
@@ -6209,7 +6232,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="28" t="s">
         <v>67</v>
       </c>
@@ -6234,7 +6257,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
@@ -6259,7 +6282,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
@@ -6284,7 +6307,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
@@ -6309,7 +6332,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
@@ -6334,7 +6357,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
         <v>763</v>
       </c>
@@ -6359,7 +6382,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
@@ -6384,7 +6407,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
@@ -6409,7 +6432,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45">
       <c r="A57" s="28" t="s">
         <v>74</v>
       </c>
@@ -6436,7 +6459,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
@@ -6463,7 +6486,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="270">
       <c r="A59" s="28" t="s">
         <v>76</v>
       </c>
@@ -6488,7 +6511,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="28" t="s">
         <v>77</v>
       </c>
@@ -6513,7 +6536,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
@@ -6538,7 +6561,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="28" t="s">
         <v>79</v>
       </c>
@@ -6563,7 +6586,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="28" t="s">
         <v>80</v>
       </c>
@@ -6588,7 +6611,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="28" t="s">
         <v>81</v>
       </c>
@@ -6613,7 +6636,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
         <v>768</v>
       </c>
@@ -6638,7 +6661,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="28" t="s">
         <v>769</v>
       </c>
@@ -6663,7 +6686,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="28" t="s">
         <v>82</v>
       </c>
@@ -6688,7 +6711,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="28" t="s">
         <v>83</v>
       </c>
@@ -6713,7 +6736,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="255">
       <c r="A69" s="28" t="s">
         <v>84</v>
       </c>
@@ -6738,7 +6761,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="28" t="s">
         <v>85</v>
       </c>
@@ -6763,7 +6786,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="28" t="s">
         <v>86</v>
       </c>
@@ -6788,7 +6811,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="28" t="s">
         <v>87</v>
       </c>
@@ -6813,7 +6836,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
         <v>928</v>
       </c>
@@ -6838,7 +6861,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="45">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -6865,7 +6888,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
@@ -6892,7 +6915,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="28" t="s">
         <v>90</v>
       </c>
@@ -6917,7 +6940,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
@@ -6942,7 +6965,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
@@ -6969,7 +6992,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="28" t="s">
         <v>93</v>
       </c>
@@ -6996,7 +7019,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
@@ -7021,7 +7044,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="240">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -7046,7 +7069,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="45">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -7071,7 +7094,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="28" t="s">
         <v>97</v>
       </c>
@@ -7096,7 +7119,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="28" t="s">
         <v>98</v>
       </c>
@@ -7121,7 +7144,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -7148,7 +7171,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="28" t="s">
         <v>100</v>
       </c>
@@ -7175,7 +7198,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="409.5">
       <c r="A87" s="28" t="s">
         <v>101</v>
       </c>
@@ -7200,7 +7223,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="45">
       <c r="A88" s="28" t="s">
         <v>102</v>
       </c>
@@ -7225,7 +7248,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="28" t="s">
         <v>103</v>
       </c>
@@ -7250,7 +7273,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
@@ -7275,7 +7298,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
@@ -7300,7 +7323,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="28" t="s">
         <v>106</v>
       </c>
@@ -7325,7 +7348,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="28" t="s">
         <v>107</v>
       </c>
@@ -7350,7 +7373,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="28" t="s">
         <v>108</v>
       </c>
@@ -7375,7 +7398,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="45">
       <c r="A95" s="28" t="s">
         <v>109</v>
       </c>
@@ -7400,7 +7423,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="28" t="s">
         <v>110</v>
       </c>
@@ -7425,7 +7448,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="28" t="s">
         <v>111</v>
       </c>
@@ -7452,7 +7475,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
@@ -7479,7 +7502,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="28" t="s">
         <v>113</v>
       </c>
@@ -7504,7 +7527,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="28" t="s">
         <v>114</v>
       </c>
@@ -7529,7 +7552,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="28" t="s">
         <v>115</v>
       </c>
@@ -7554,7 +7577,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="28" t="s">
         <v>116</v>
       </c>
@@ -7579,7 +7602,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="28" t="s">
         <v>117</v>
       </c>
@@ -7604,7 +7627,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="28" t="s">
         <v>118</v>
       </c>
@@ -7629,7 +7652,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -7654,7 +7677,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -7681,7 +7704,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -7706,7 +7729,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -7731,7 +7754,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -7756,7 +7779,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -7781,7 +7804,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -7806,7 +7829,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="330">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -7831,7 +7854,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -7856,7 +7879,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -7883,7 +7906,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -7908,7 +7931,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -7933,7 +7956,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -7958,7 +7981,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -7983,7 +8006,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8008,7 +8031,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="60">
       <c r="A120" s="28" t="s">
         <v>775</v>
       </c>
@@ -8035,7 +8058,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="28" t="s">
         <v>776</v>
       </c>
@@ -8060,7 +8083,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="409.5">
       <c r="A122" s="28" t="s">
         <v>134</v>
       </c>
@@ -8085,7 +8108,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="60">
       <c r="A123" s="28" t="s">
         <v>135</v>
       </c>
@@ -8110,7 +8133,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="45">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
@@ -8118,7 +8141,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8133,11 +8156,11 @@
       <c r="H124" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="30" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="19" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8145,7 +8168,7 @@
         <v>397</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8158,11 +8181,11 @@
         <v>15</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
         <v>138</v>
       </c>
@@ -8187,7 +8210,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="28" t="s">
         <v>139</v>
       </c>
@@ -8212,7 +8235,7 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="28" t="s">
         <v>140</v>
       </c>
@@ -8237,7 +8260,7 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="28" t="s">
         <v>141</v>
       </c>
@@ -8262,7 +8285,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="28" t="s">
         <v>142</v>
       </c>
@@ -8287,7 +8310,7 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="28" t="s">
         <v>143</v>
       </c>
@@ -8312,7 +8335,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="28" t="s">
         <v>144</v>
       </c>
@@ -8337,7 +8360,7 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="28" t="s">
         <v>145</v>
       </c>
@@ -8362,7 +8385,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
         <v>146</v>
       </c>
@@ -8387,7 +8410,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="28" t="s">
         <v>147</v>
       </c>
@@ -8412,7 +8435,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="28" t="s">
         <v>148</v>
       </c>
@@ -8437,7 +8460,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="28" t="s">
         <v>149</v>
       </c>
@@ -8462,7 +8485,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="28" t="s">
         <v>150</v>
       </c>
@@ -8487,7 +8510,7 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="28" t="s">
         <v>151</v>
       </c>
@@ -8512,7 +8535,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="28" t="s">
         <v>152</v>
       </c>
@@ -8537,7 +8560,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="28" t="s">
         <v>153</v>
       </c>
@@ -8562,7 +8585,7 @@
       </c>
       <c r="I141" s="30"/>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="28" t="s">
         <v>154</v>
       </c>
@@ -8587,7 +8610,7 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="28" t="s">
         <v>155</v>
       </c>
@@ -8612,7 +8635,7 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
         <v>795</v>
       </c>
@@ -8637,7 +8660,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
         <v>796</v>
       </c>
@@ -8662,7 +8685,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
         <v>797</v>
       </c>
@@ -8687,7 +8710,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="28" t="s">
         <v>798</v>
       </c>
@@ -8712,7 +8735,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
         <v>799</v>
       </c>
@@ -8737,7 +8760,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="28" t="s">
         <v>800</v>
       </c>
@@ -8764,7 +8787,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
         <v>801</v>
       </c>
@@ -8789,7 +8812,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
         <v>802</v>
       </c>
@@ -8814,7 +8837,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="45">
       <c r="A152" s="28" t="s">
         <v>156</v>
       </c>
@@ -8839,7 +8862,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="180">
       <c r="A153" s="28" t="s">
         <v>157</v>
       </c>
@@ -8864,7 +8887,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="28" t="s">
         <v>158</v>
       </c>
@@ -8889,7 +8912,7 @@
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="28" t="s">
         <v>159</v>
       </c>
@@ -8914,7 +8937,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="28" t="s">
         <v>160</v>
       </c>
@@ -8939,7 +8962,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
         <v>822</v>
       </c>
@@ -8964,7 +8987,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
         <v>823</v>
       </c>
@@ -8972,7 +8995,7 @@
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -8991,15 +9014,15 @@
         <v>918</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="330">
       <c r="A159" s="28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9016,7 +9039,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
         <v>824</v>
       </c>
@@ -9041,7 +9064,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
         <v>825</v>
       </c>
@@ -9066,7 +9089,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
         <v>826</v>
       </c>
@@ -9091,7 +9114,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
         <v>827</v>
       </c>
@@ -9116,7 +9139,7 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
         <v>828</v>
       </c>
@@ -9141,7 +9164,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
         <v>829</v>
       </c>
@@ -9166,7 +9189,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
         <v>830</v>
       </c>
@@ -9191,7 +9214,7 @@
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
         <v>831</v>
       </c>
@@ -9216,7 +9239,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
         <v>832</v>
       </c>
@@ -9241,7 +9264,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
         <v>833</v>
       </c>
@@ -9266,7 +9289,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
         <v>834</v>
       </c>
@@ -9291,7 +9314,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
         <v>835</v>
       </c>
@@ -9316,7 +9339,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
         <v>836</v>
       </c>
@@ -9341,7 +9364,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
         <v>837</v>
       </c>
@@ -9366,7 +9389,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
         <v>838</v>
       </c>
@@ -9391,7 +9414,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
         <v>161</v>
       </c>
@@ -9416,7 +9439,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="28" t="s">
         <v>162</v>
       </c>
@@ -9441,7 +9464,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="210">
       <c r="A177" s="28" t="s">
         <v>163</v>
       </c>
@@ -9466,7 +9489,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="28" t="s">
         <v>164</v>
       </c>
@@ -9491,7 +9514,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="28" t="s">
         <v>165</v>
       </c>
@@ -9516,7 +9539,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="28" t="s">
         <v>166</v>
       </c>
@@ -9541,7 +9564,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="28" t="s">
         <v>167</v>
       </c>
@@ -9566,7 +9589,7 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
         <v>180</v>
       </c>
@@ -9591,7 +9614,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="28" t="s">
         <v>181</v>
       </c>
@@ -9616,7 +9639,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="28" t="s">
         <v>182</v>
       </c>
@@ -9641,7 +9664,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="28" t="s">
         <v>183</v>
       </c>
@@ -9666,7 +9689,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="28" t="s">
         <v>184</v>
       </c>
@@ -9691,7 +9714,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="28" t="s">
         <v>185</v>
       </c>
@@ -9716,7 +9739,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="28" t="s">
         <v>186</v>
       </c>
@@ -9741,7 +9764,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="28" t="s">
         <v>187</v>
       </c>
@@ -9766,7 +9789,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="28" t="s">
         <v>188</v>
       </c>
@@ -9791,7 +9814,7 @@
       </c>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="45">
       <c r="A191" s="28" t="s">
         <v>189</v>
       </c>
@@ -9816,7 +9839,7 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="28" t="s">
         <v>190</v>
       </c>
@@ -9841,7 +9864,7 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="45">
       <c r="A193" s="28" t="s">
         <v>191</v>
       </c>
@@ -9866,7 +9889,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="60">
       <c r="A194" s="28" t="s">
         <v>192</v>
       </c>
@@ -9891,7 +9914,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="28" t="s">
         <v>193</v>
       </c>
@@ -9916,7 +9939,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="60">
       <c r="A196" s="28" t="s">
         <v>194</v>
       </c>
@@ -9941,7 +9964,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="28" t="s">
         <v>195</v>
       </c>
@@ -9966,7 +9989,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="28" t="s">
         <v>196</v>
       </c>
@@ -9991,7 +10014,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
         <v>197</v>
       </c>
@@ -10016,7 +10039,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="28" t="s">
         <v>198</v>
       </c>
@@ -10041,7 +10064,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="28" t="s">
         <v>199</v>
       </c>
@@ -10066,7 +10089,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="90">
       <c r="A202" s="28" t="s">
         <v>200</v>
       </c>
@@ -10091,7 +10114,7 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="345">
       <c r="A203" s="28" t="s">
         <v>201</v>
       </c>
@@ -10116,7 +10139,7 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="28" t="s">
         <v>202</v>
       </c>
@@ -10141,7 +10164,7 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="28" t="s">
         <v>203</v>
       </c>
@@ -10166,7 +10189,7 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="28" t="s">
         <v>204</v>
       </c>
@@ -10191,7 +10214,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="45">
       <c r="A207" s="28" t="s">
         <v>205</v>
       </c>
@@ -10218,7 +10241,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="28" t="s">
         <v>206</v>
       </c>
@@ -10245,7 +10268,7 @@
       </c>
       <c r="I208" s="30"/>
     </row>
-    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="28" t="s">
         <v>207</v>
       </c>
@@ -10270,7 +10293,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="28" t="s">
         <v>210</v>
       </c>
@@ -10295,7 +10318,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="28" t="s">
         <v>211</v>
       </c>
@@ -10320,7 +10343,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="28" t="s">
         <v>212</v>
       </c>
@@ -10345,7 +10368,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="135">
       <c r="A213" s="28" t="s">
         <v>213</v>
       </c>
@@ -10370,7 +10393,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="28" t="s">
         <v>214</v>
       </c>
@@ -10395,7 +10418,7 @@
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45">
       <c r="A215" s="28" t="s">
         <v>215</v>
       </c>
@@ -10420,7 +10443,7 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="28" t="s">
         <v>216</v>
       </c>
@@ -10445,7 +10468,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="28" t="s">
         <v>217</v>
       </c>
@@ -10470,7 +10493,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="28" t="s">
         <v>218</v>
       </c>
@@ -10495,7 +10518,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
         <v>219</v>
       </c>
@@ -10520,7 +10543,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="28" t="s">
         <v>220</v>
       </c>
@@ -10545,7 +10568,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
         <v>221</v>
       </c>
@@ -10570,7 +10593,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="28" t="s">
         <v>222</v>
       </c>
@@ -10595,7 +10618,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="28" t="s">
         <v>223</v>
       </c>
@@ -10620,7 +10643,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="28" t="s">
         <v>224</v>
       </c>
@@ -10645,7 +10668,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="28" t="s">
         <v>225</v>
       </c>
@@ -10670,7 +10693,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="28" t="s">
         <v>226</v>
       </c>
@@ -10695,7 +10718,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="120">
       <c r="A227" s="28" t="s">
         <v>227</v>
       </c>
@@ -10720,7 +10743,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="45">
       <c r="A228" s="28" t="s">
         <v>228</v>
       </c>
@@ -10745,7 +10768,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="45">
       <c r="A229" s="28" t="s">
         <v>229</v>
       </c>
@@ -10770,7 +10793,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="28" t="s">
         <v>230</v>
       </c>
@@ -10795,7 +10818,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
         <v>231</v>
       </c>
@@ -10820,7 +10843,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="28" t="s">
         <v>232</v>
       </c>
@@ -10845,7 +10868,7 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="28" t="s">
         <v>233</v>
       </c>
@@ -10870,7 +10893,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="45">
       <c r="A234" s="28" t="s">
         <v>208</v>
       </c>
@@ -10895,7 +10918,7 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="45">
       <c r="A235" s="28" t="s">
         <v>209</v>
       </c>
@@ -10920,7 +10943,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
         <v>880</v>
       </c>
@@ -10945,7 +10968,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="60">
       <c r="A237" s="28" t="s">
         <v>881</v>
       </c>
@@ -10970,7 +10993,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="28" t="s">
         <v>234</v>
       </c>
@@ -10995,7 +11018,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
         <v>235</v>
       </c>
@@ -11020,7 +11043,7 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="28" t="s">
         <v>236</v>
       </c>
@@ -11045,7 +11068,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="75">
       <c r="A241" s="28" t="s">
         <v>237</v>
       </c>
@@ -11070,7 +11093,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="75">
       <c r="A242" s="28" t="s">
         <v>238</v>
       </c>
@@ -11095,7 +11118,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="45">
       <c r="A243" s="28" t="s">
         <v>239</v>
       </c>
@@ -11120,7 +11143,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="28" t="s">
         <v>240</v>
       </c>
@@ -11145,7 +11168,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
         <v>241</v>
       </c>
@@ -11170,7 +11193,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="45">
       <c r="A246" s="28" t="s">
         <v>242</v>
       </c>
@@ -11195,7 +11218,7 @@
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="45">
       <c r="A247" s="28" t="s">
         <v>243</v>
       </c>
@@ -11220,7 +11243,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="135">
       <c r="A248" s="28" t="s">
         <v>244</v>
       </c>
@@ -11245,7 +11268,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" s="28" t="s">
         <v>245</v>
       </c>
@@ -11270,7 +11293,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="28" t="s">
         <v>246</v>
       </c>
@@ -11295,7 +11318,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="270">
       <c r="A251" s="28" t="s">
         <v>247</v>
       </c>
@@ -11320,7 +11343,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="45">
       <c r="A252" s="28" t="s">
         <v>248</v>
       </c>
@@ -11345,7 +11368,7 @@
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="28" t="s">
         <v>249</v>
       </c>
@@ -11370,7 +11393,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="28" t="s">
         <v>250</v>
       </c>
@@ -11395,7 +11418,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
         <v>251</v>
       </c>
@@ -11420,7 +11443,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="28" t="s">
         <v>252</v>
       </c>
@@ -11445,7 +11468,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
         <v>253</v>
       </c>
@@ -11470,7 +11493,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="28" t="s">
         <v>254</v>
       </c>
@@ -11495,7 +11518,7 @@
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
         <v>255</v>
       </c>
@@ -11520,7 +11543,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="90">
       <c r="A260" s="28" t="s">
         <v>256</v>
       </c>
@@ -11545,7 +11568,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="315">
       <c r="A261" s="28" t="s">
         <v>257</v>
       </c>
@@ -11570,7 +11593,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="28" t="s">
         <v>258</v>
       </c>
@@ -11595,7 +11618,7 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="28" t="s">
         <v>259</v>
       </c>
@@ -11620,7 +11643,7 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="28" t="s">
         <v>260</v>
       </c>
@@ -11645,7 +11668,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="28" t="s">
         <v>261</v>
       </c>
@@ -11672,7 +11695,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="28" t="s">
         <v>262</v>
       </c>
@@ -11699,7 +11722,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
         <v>263</v>
       </c>
@@ -11724,7 +11747,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="28" t="s">
         <v>264</v>
       </c>
@@ -11749,7 +11772,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="28" t="s">
         <v>267</v>
       </c>
@@ -11774,7 +11797,7 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="28" t="s">
         <v>268</v>
       </c>
@@ -11799,7 +11822,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
         <v>269</v>
       </c>
@@ -11824,7 +11847,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="120">
       <c r="A272" s="28" t="s">
         <v>270</v>
       </c>
@@ -11849,7 +11872,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="45">
       <c r="A273" s="28" t="s">
         <v>271</v>
       </c>
@@ -11874,7 +11897,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="28" t="s">
         <v>272</v>
       </c>
@@ -11899,7 +11922,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="28" t="s">
         <v>273</v>
       </c>
@@ -11924,7 +11947,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
         <v>274</v>
       </c>
@@ -11949,7 +11972,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="28" t="s">
         <v>275</v>
       </c>
@@ -11974,7 +11997,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="28" t="s">
         <v>276</v>
       </c>
@@ -11999,7 +12022,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="28" t="s">
         <v>277</v>
       </c>
@@ -12024,7 +12047,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="28" t="s">
         <v>278</v>
       </c>
@@ -12049,7 +12072,7 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="28" t="s">
         <v>279</v>
       </c>
@@ -12074,7 +12097,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30">
       <c r="A282" s="28" t="s">
         <v>280</v>
       </c>
@@ -12099,7 +12122,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="28" t="s">
         <v>281</v>
       </c>
@@ -12124,7 +12147,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120">
       <c r="A284" s="28" t="s">
         <v>282</v>
       </c>
@@ -12149,7 +12172,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="45">
       <c r="A285" s="28" t="s">
         <v>283</v>
       </c>
@@ -12174,7 +12197,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="45">
       <c r="A286" s="28" t="s">
         <v>284</v>
       </c>
@@ -12199,7 +12222,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="28" t="s">
         <v>285</v>
       </c>
@@ -12224,7 +12247,7 @@
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
         <v>286</v>
       </c>
@@ -12249,7 +12272,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="28" t="s">
         <v>287</v>
       </c>
@@ -12274,7 +12297,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
         <v>288</v>
       </c>
@@ -12299,7 +12322,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="45">
       <c r="A291" s="28" t="s">
         <v>265</v>
       </c>
@@ -12324,7 +12347,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="28" t="s">
         <v>266</v>
       </c>
@@ -12349,7 +12372,7 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
         <v>856</v>
       </c>
@@ -12374,7 +12397,7 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="60">
       <c r="A294" s="28" t="s">
         <v>857</v>
       </c>
@@ -12399,7 +12422,7 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="45">
       <c r="A295" s="28" t="s">
         <v>289</v>
       </c>
@@ -12424,7 +12447,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="28" t="s">
         <v>290</v>
       </c>
@@ -12449,7 +12472,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
         <v>291</v>
       </c>
@@ -12474,7 +12497,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="28" t="s">
         <v>292</v>
       </c>
@@ -12499,7 +12522,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="60">
       <c r="A299" s="28" t="s">
         <v>293</v>
       </c>
@@ -12524,7 +12547,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="75">
       <c r="A300" s="28" t="s">
         <v>294</v>
       </c>
@@ -12549,7 +12572,7 @@
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="45">
       <c r="A301" s="28" t="s">
         <v>295</v>
       </c>
@@ -12574,7 +12597,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="28" t="s">
         <v>296</v>
       </c>
@@ -12599,7 +12622,7 @@
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="28" t="s">
         <v>297</v>
       </c>
@@ -12624,7 +12647,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="30">
       <c r="A304" s="28" t="s">
         <v>298</v>
       </c>
@@ -12649,7 +12672,7 @@
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
         <v>859</v>
       </c>
@@ -12674,7 +12697,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
         <v>860</v>
       </c>
@@ -12699,7 +12722,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="28" t="s">
         <v>299</v>
       </c>
@@ -12724,7 +12747,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="28" t="s">
         <v>300</v>
       </c>
@@ -12749,7 +12772,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="240">
       <c r="A309" s="28" t="s">
         <v>301</v>
       </c>
@@ -12774,7 +12797,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="28" t="s">
         <v>302</v>
       </c>
@@ -12799,7 +12822,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="28" t="s">
         <v>303</v>
       </c>
@@ -12824,7 +12847,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="28" t="s">
         <v>304</v>
       </c>
@@ -12849,7 +12872,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="45">
       <c r="A313" s="28" t="s">
         <v>305</v>
       </c>
@@ -12874,7 +12897,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="45">
       <c r="A314" s="28" t="s">
         <v>306</v>
       </c>
@@ -12899,7 +12922,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="135">
       <c r="A315" s="28" t="s">
         <v>307</v>
       </c>
@@ -12924,7 +12947,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="30">
       <c r="A316" s="28" t="s">
         <v>308</v>
       </c>
@@ -12949,7 +12972,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="28" t="s">
         <v>309</v>
       </c>
@@ -12974,7 +12997,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="225">
       <c r="A318" s="28" t="s">
         <v>310</v>
       </c>
@@ -12999,7 +13022,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="28" t="s">
         <v>311</v>
       </c>
@@ -13024,7 +13047,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="28" t="s">
         <v>312</v>
       </c>
@@ -13049,7 +13072,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="28" t="s">
         <v>313</v>
       </c>
@@ -13074,7 +13097,7 @@
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="28" t="s">
         <v>168</v>
       </c>
@@ -13099,7 +13122,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="28" t="s">
         <v>169</v>
       </c>
@@ -13124,7 +13147,7 @@
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="255">
       <c r="A324" s="28" t="s">
         <v>170</v>
       </c>
@@ -13149,7 +13172,7 @@
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="45">
       <c r="A325" s="28" t="s">
         <v>171</v>
       </c>
@@ -13174,7 +13197,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="28" t="s">
         <v>172</v>
       </c>
@@ -13199,7 +13222,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="28" t="s">
         <v>173</v>
       </c>
@@ -13224,7 +13247,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="45">
       <c r="A328" s="28" t="s">
         <v>174</v>
       </c>
@@ -13251,7 +13274,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="28" t="s">
         <v>175</v>
       </c>
@@ -13278,7 +13301,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330" s="28" t="s">
         <v>176</v>
       </c>
@@ -13303,7 +13326,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="28" t="s">
         <v>177</v>
       </c>
@@ -13328,7 +13351,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="28" t="s">
         <v>178</v>
       </c>
@@ -13355,7 +13378,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="28" t="s">
         <v>179</v>
       </c>
@@ -13382,7 +13405,7 @@
       </c>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="28" t="s">
         <v>314</v>
       </c>
@@ -13407,7 +13430,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="90">
       <c r="A335" s="28" t="s">
         <v>315</v>
       </c>
@@ -13432,7 +13455,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="345">
       <c r="A336" s="28" t="s">
         <v>316</v>
       </c>
@@ -13457,7 +13480,7 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="28" t="s">
         <v>317</v>
       </c>
@@ -13482,7 +13505,7 @@
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="28" t="s">
         <v>318</v>
       </c>
@@ -13507,7 +13530,7 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="28" t="s">
         <v>321</v>
       </c>
@@ -13532,7 +13555,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="28" t="s">
         <v>322</v>
       </c>
@@ -13557,7 +13580,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="28" t="s">
         <v>323</v>
       </c>
@@ -13582,7 +13605,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="135">
       <c r="A342" s="28" t="s">
         <v>324</v>
       </c>
@@ -13607,7 +13630,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="45">
       <c r="A343" s="28" t="s">
         <v>325</v>
       </c>
@@ -13632,7 +13655,7 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="28" t="s">
         <v>326</v>
       </c>
@@ -13657,7 +13680,7 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="28" t="s">
         <v>327</v>
       </c>
@@ -13682,7 +13705,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
         <v>328</v>
       </c>
@@ -13707,7 +13730,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="28" t="s">
         <v>329</v>
       </c>
@@ -13732,7 +13755,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
         <v>330</v>
       </c>
@@ -13757,7 +13780,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="28" t="s">
         <v>331</v>
       </c>
@@ -13782,7 +13805,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
         <v>332</v>
       </c>
@@ -13807,7 +13830,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="30">
       <c r="A351" s="28" t="s">
         <v>333</v>
       </c>
@@ -13832,7 +13855,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="28" t="s">
         <v>334</v>
       </c>
@@ -13857,7 +13880,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="28" t="s">
         <v>335</v>
       </c>
@@ -13882,7 +13905,7 @@
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="30">
       <c r="A354" s="28" t="s">
         <v>336</v>
       </c>
@@ -13907,7 +13930,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="28" t="s">
         <v>337</v>
       </c>
@@ -13932,7 +13955,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="90">
       <c r="A356" s="28" t="s">
         <v>338</v>
       </c>
@@ -13957,7 +13980,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="28" t="s">
         <v>339</v>
       </c>
@@ -13982,7 +14005,7 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45">
       <c r="A358" s="28" t="s">
         <v>340</v>
       </c>
@@ -14007,7 +14030,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="28" t="s">
         <v>341</v>
       </c>
@@ -14032,7 +14055,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
         <v>342</v>
       </c>
@@ -14057,7 +14080,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="28" t="s">
         <v>343</v>
       </c>
@@ -14082,7 +14105,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="28" t="s">
         <v>344</v>
       </c>
@@ -14107,7 +14130,7 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="28" t="s">
         <v>319</v>
       </c>
@@ -14132,7 +14155,7 @@
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="45">
       <c r="A364" s="28" t="s">
         <v>320</v>
       </c>
@@ -14157,7 +14180,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
         <v>875</v>
       </c>
@@ -14182,7 +14205,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="60">
       <c r="A366" s="28" t="s">
         <v>876</v>
       </c>
@@ -14207,7 +14230,7 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="45">
       <c r="A367" s="28" t="s">
         <v>345</v>
       </c>
@@ -14232,7 +14255,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9">
       <c r="A368" s="28" t="s">
         <v>346</v>
       </c>
@@ -14257,7 +14280,7 @@
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="28" t="s">
         <v>347</v>
       </c>
@@ -14282,7 +14305,7 @@
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="75">
       <c r="A370" s="28" t="s">
         <v>348</v>
       </c>
@@ -14307,7 +14330,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="75">
       <c r="A371" s="28" t="s">
         <v>349</v>
       </c>
@@ -14332,7 +14355,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="28" t="s">
         <v>350</v>
       </c>
@@ -14357,7 +14380,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="28" t="s">
         <v>351</v>
       </c>
@@ -14382,7 +14405,7 @@
       </c>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="28" t="s">
         <v>352</v>
       </c>
@@ -14407,7 +14430,7 @@
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="28" t="s">
         <v>353</v>
       </c>
@@ -14432,7 +14455,7 @@
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="45">
       <c r="A376" s="28" t="s">
         <v>354</v>
       </c>
@@ -14457,7 +14480,7 @@
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="150">
       <c r="A377" s="28" t="s">
         <v>355</v>
       </c>
@@ -14482,7 +14505,7 @@
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="28" t="s">
         <v>356</v>
       </c>
@@ -14507,7 +14530,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="285">
       <c r="A379" s="28" t="s">
         <v>357</v>
       </c>
@@ -14532,7 +14555,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="45">
       <c r="A380" s="28" t="s">
         <v>358</v>
       </c>
@@ -14557,7 +14580,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="30">
       <c r="A381" s="28" t="s">
         <v>359</v>
       </c>
@@ -14582,7 +14605,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="28" t="s">
         <v>360</v>
       </c>
@@ -14607,7 +14630,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="28" t="s">
         <v>361</v>
       </c>
@@ -14632,7 +14655,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="28" t="s">
         <v>362</v>
       </c>
@@ -14657,7 +14680,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="345">
       <c r="A385" s="28" t="s">
         <v>363</v>
       </c>
@@ -14682,7 +14705,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="45">
       <c r="A386" s="28" t="s">
         <v>364</v>
       </c>
@@ -14707,7 +14730,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="28" t="s">
         <v>365</v>
       </c>
@@ -14732,7 +14755,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="28" t="s">
         <v>366</v>
       </c>
@@ -14753,13 +14776,11 @@
         <v>15</v>
       </c>
       <c r="H388" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I388" s="30" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I388" s="30"/>
+    </row>
+    <row r="389" spans="1:9" ht="90">
       <c r="A389" s="28" t="s">
         <v>367</v>
       </c>
@@ -14783,10 +14804,10 @@
         <v>17</v>
       </c>
       <c r="I389" s="30" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="30">
       <c r="A390" s="28" t="s">
         <v>368</v>
       </c>
@@ -14813,7 +14834,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="28" t="s">
         <v>373</v>
       </c>
@@ -14838,7 +14859,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="28" t="s">
         <v>374</v>
       </c>
@@ -14863,7 +14884,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="28" t="s">
         <v>375</v>
       </c>
@@ -14887,10 +14908,10 @@
         <v>17</v>
       </c>
       <c r="I393" s="30" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="28" t="s">
         <v>376</v>
       </c>
@@ -14911,13 +14932,11 @@
         <v>15</v>
       </c>
       <c r="H394" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I394" s="30" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I394" s="30"/>
+    </row>
+    <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
         <v>899</v>
       </c>
@@ -14942,7 +14961,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
         <v>902</v>
       </c>
@@ -14969,7 +14988,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="28" t="s">
         <v>377</v>
       </c>
@@ -14994,7 +15013,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
         <v>378</v>
       </c>
@@ -15019,7 +15038,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="45">
       <c r="A399" s="28" t="s">
         <v>379</v>
       </c>
@@ -15044,7 +15063,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="28" t="s">
         <v>380</v>
       </c>
@@ -15069,7 +15088,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="28" t="s">
         <v>381</v>
       </c>
@@ -15098,7 +15117,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75">
       <c r="A402" s="28" t="s">
         <v>777</v>
       </c>
@@ -15109,7 +15128,7 @@
         <v>778</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
@@ -15127,7 +15146,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
         <v>903</v>
       </c>
@@ -15154,7 +15173,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="45">
       <c r="A404" s="28" t="s">
         <v>904</v>
       </c>
@@ -15183,7 +15202,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
         <v>905</v>
       </c>
@@ -15210,7 +15229,7 @@
       </c>
       <c r="I405" s="19"/>
     </row>
-    <row r="406" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
         <v>906</v>
       </c>
@@ -15239,7 +15258,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
         <v>914</v>
       </c>
@@ -15250,7 +15269,7 @@
         <v>915</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
@@ -15268,18 +15287,18 @@
         <v>745</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C408" s="30" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D408" s="28" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15295,7 +15314,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
         <v>907</v>
       </c>
@@ -15322,7 +15341,7 @@
       </c>
       <c r="I409" s="19"/>
     </row>
-    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="45">
       <c r="A410" s="28" t="s">
         <v>908</v>
       </c>
@@ -15351,7 +15370,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="60">
       <c r="A411" s="28" t="s">
         <v>909</v>
       </c>
@@ -15359,7 +15378,7 @@
         <v>439</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D411" s="28" t="s">
         <v>932</v>
@@ -15378,7 +15397,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="45">
       <c r="A412" s="28" t="s">
         <v>910</v>
       </c>
@@ -15386,7 +15405,7 @@
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D412" s="28" t="s">
         <v>932</v>
@@ -15407,7 +15426,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
         <v>911</v>
       </c>
@@ -15418,7 +15437,7 @@
         <v>898</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
@@ -15434,7 +15453,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="45">
       <c r="A414" s="28" t="s">
         <v>912</v>
       </c>
@@ -15445,7 +15464,7 @@
         <v>897</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
@@ -15457,13 +15476,13 @@
         <v>15</v>
       </c>
       <c r="H414" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I414" s="30" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="75">
       <c r="A415" s="28" t="s">
         <v>369</v>
       </c>
@@ -15492,7 +15511,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75">
       <c r="A416" s="28" t="s">
         <v>370</v>
       </c>
@@ -15521,7 +15540,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="75">
       <c r="A417" s="28" t="s">
         <v>371</v>
       </c>
@@ -15550,7 +15569,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="105">
       <c r="A418" s="28" t="s">
         <v>372</v>
       </c>
@@ -15579,7 +15598,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="28" t="s">
         <v>919</v>
       </c>
@@ -15606,7 +15625,7 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="45">
       <c r="A420" s="28" t="s">
         <v>382</v>
       </c>
@@ -15631,7 +15650,7 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="30">
       <c r="A421" s="28" t="s">
         <v>383</v>
       </c>
@@ -15656,7 +15675,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="360">
       <c r="A422" s="28" t="s">
         <v>384</v>
       </c>
@@ -15681,27 +15700,27 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424" s="3"/>
       <c r="B424" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
@@ -16009,105 +16028,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all/>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/office/internal/2005/internalDocumentation" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type" ma:readOnly="true"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="lastPrinted" minOccurs="0" maxOccurs="1" type="xsd:dateTime"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -4887,23 +4887,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4939,23 +4922,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D869E67D-A06C-4F4B-9DC5-57B16F4ED7F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -22,8 +23,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp3EE5" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp3EE5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-penj\AppData\Local\Temp\tmp3EE5.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1872,9 +1873,6 @@
     <t>[In t:ItemAttachmentType Complex Type] The following table [in section 2.2.4.6] lists the child elements [Item, Message, CalendarItem, Contact, MeetingMessage, MeetingRequest, MeetingResponse, MeetingCancellation, Task, PostItem] of the ItemAttachmentType complex type.</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of Message element is] t:MessageType ([MS-OXWSMSG] section 2.2.4.1)</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The Message element] Represents a server e-mail message.</t>
   </si>
   <si>
@@ -2321,22 +2319,13 @@
     <t>[In tns:DeleteAttachmentSoapIn Message][The request part] Specifies the SOAP body of the request to delete an attachment.</t>
   </si>
   <si>
-    <t>[In tns:DeleteAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.4.29.</t>
-  </si>
-  <si>
     <t>[In tns:DeleteAttachmentSoapIn Message][The Impersonation part] Specifies a SOAP header that identifies the user who the client application is impersonating.</t>
   </si>
   <si>
-    <t>[In tns:DeleteAttachmentSoapIn Message][The type of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.4.39).</t>
-  </si>
-  <si>
     <t>[In tns:DeleteAttachmentSoapIn Message][The MailboxCulture part] Specifies a SOAP header that identifies the culture to use for accessing the mailbox.</t>
   </si>
   <si>
     <t>[In tns:DeleteAttachmentSoapIn Message] The cultures [identified by MailboxCulture part] are defined by [RFC3066].</t>
-  </si>
-  <si>
-    <t>[In tns:DeleteAttachmentSoapIn Message][The element of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.5.9).</t>
   </si>
   <si>
     <t>[In tns:DeleteAttachmentSoapIn Message][The RequestVersion part] Specifies a SOAP header that identifies the schema version for the DeleteAttachment operation request.</t>
@@ -2997,24 +2986,9 @@
 &lt;/xs:complexType&gt;</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of CalendarItem element is] t:CalendarItemType ([MS-OXWSMTGS] section 2.2.4.9)</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The type of Contact element is] t:ContactItemType ([MS-OXWSCONT] section 2.2.4.3)</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingMessage element is] t:MeetingMessageType ([MS-OXWSMTGS] section 2.2.4.20)</t>
-  </si>
-  <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingRequest element is] t:MeetingRequestMessageType ([MS-OXWSMTGS] section 2.2.4.22)</t>
-  </si>
-  <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingResponse element is] t:MeetingResponseMessageType ([MS-OXWSMTGS] section 2.2.4.23)</t>
-  </si>
-  <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingCancellation element is] t:MeetingCancellationMessageType ([MS-OXWSMTGS] section 2.2.4.19)</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The type of Task element is] t:TaskType ([MS-OXWSTASK] section 2.2.4.6)</t>
   </si>
   <si>
@@ -3178,18 +3152,6 @@
   </si>
   <si>
     <t>[In CreateAttachment Operation] It [item attachment] only exists as an attachment on an item or another attachment.</t>
-  </si>
-  <si>
-    <t>[In tns:CreateAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.4.33).</t>
-  </si>
-  <si>
-    <t>[In tns:CreateAttachmentSoapIn Message][The type of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.4.45).</t>
-  </si>
-  <si>
-    <t>[In tns:CreateAttachmentSoapIn Message][The type of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.11).</t>
-  </si>
-  <si>
-    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.12).</t>
   </si>
   <si>
     <t>[In CreateAttachmentResponse Element] The CreateAttachmentResponse element specifies the response message for a CreateAttachment operation (section 3.1.4.1).
@@ -3222,9 +3184,6 @@
     <t>[In DeleteAttachment Operation] Before an item attachment can be deleted, it MUST be retrieved from the server.</t>
   </si>
   <si>
-    <t>[In tns:DeleteAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.12).</t>
-  </si>
-  <si>
     <t>[In tns:DeleteAttachmentSoapOut Message] If the request is unsuccessful, the DeleteAttachment operation returns a DeleteAttachmentResponse element with the ResponseClass attribute of the DeleteAttachmentResponseMessage element set to "Error".</t>
   </si>
   <si>
@@ -3278,9 +3237,6 @@
   </si>
   <si>
     <t>[In tns:GetAttachmentSoapIn Message][The RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.11)</t>
-  </si>
-  <si>
-    <t>[In tns:GetAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.12).</t>
   </si>
   <si>
     <t xml:space="preserve">[In tns:GetAttachmentSoapOut Message] If the request is unsuccessful, the GetAttachment operation returns a GetAttachmentResponse element with the ResponseClass attribute of the GetAttachmentResponseMessage element set to "Error". </t>
@@ -3550,11 +3506,56 @@
   <si>
     <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
   </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of Message element is] t:MessageType ([MS-OXWSMSG] section 2.2.4.3)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of CalendarItem element is] t:CalendarItemType ([MS-OXWSMTGS] section 2.2.4.6)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingMessage element is] t:MeetingMessageType ([MS-OXWSMTGS] section 2.2.4.15)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingRequest element is] t:MeetingRequestMessageType ([MS-OXWSMTGS] section 2.2.4.17)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingResponse element is] t:MeetingResponseMessageType ([MS-OXWSMTGS] section 2.2.4.18)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of MeetingCancellation element is] t:MeetingCancellationMessageType ([MS-OXWSMTGS] section 2.2.4.14)</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapIn Message][The type of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.3.6).</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapIn Message][The type of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    ).</t>
+  </si>
+  <si>
+    <t>[In tns:DeleteAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
+  </si>
+  <si>
+    <t>[In tns:DeleteAttachmentSoapIn Message][The type of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.3.6).</t>
+  </si>
+  <si>
+    <t>[In tns:DeleteAttachmentSoapIn Message][The element of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
+  </si>
+  <si>
+    <t>[In tns:DeleteAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+  </si>
+  <si>
+    <t>[In tns:GetAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -4764,34 +4765,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I422"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I422" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4800,12 +4801,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4887,6 +4888,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4922,6 +4940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5097,11 +5132,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -5120,7 +5157,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -5132,7 +5169,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5150,14 +5187,14 @@
         <v>25</v>
       </c>
       <c r="C3" s="38">
-        <v>7.1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="39">
-        <v>41185</v>
+        <v>43374</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="4"/>
@@ -5270,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
@@ -5287,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -5414,7 +5451,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -5464,7 +5501,7 @@
         <v>385</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
@@ -5490,7 +5527,7 @@
         <v>385</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
@@ -5718,13 +5755,13 @@
     </row>
     <row r="30" spans="1:13" s="22" customFormat="1">
       <c r="A30" s="21" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>387</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28" t="s">
@@ -5766,7 +5803,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J31" s="35"/>
     </row>
@@ -5931,7 +5968,7 @@
         <v>389</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
@@ -5975,13 +6012,13 @@
     </row>
     <row r="40" spans="1:10" ht="30">
       <c r="A40" s="28" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>389</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28" t="s">
@@ -6025,13 +6062,13 @@
     </row>
     <row r="42" spans="1:10" ht="30">
       <c r="A42" s="28" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>389</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28" t="s">
@@ -6156,7 +6193,7 @@
         <v>392</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="28" t="s">
@@ -6206,7 +6243,7 @@
         <v>392</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="28" t="s">
@@ -6325,13 +6362,13 @@
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>392</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28" t="s">
@@ -6381,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28" t="s">
@@ -6422,7 +6459,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30">
@@ -6436,7 +6473,7 @@
         <v>471</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>19</v>
@@ -6460,7 +6497,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28" t="s">
@@ -6604,13 +6641,13 @@
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -6629,13 +6666,13 @@
     </row>
     <row r="66" spans="1:9" ht="30">
       <c r="A66" s="28" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
@@ -6685,7 +6722,7 @@
         <v>393</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -6804,13 +6841,13 @@
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>393</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28" t="s">
@@ -6851,7 +6888,7 @@
         <v>17</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
@@ -6865,7 +6902,7 @@
         <v>483</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>19</v>
@@ -6955,7 +6992,7 @@
         <v>17</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30">
@@ -6969,7 +7006,7 @@
         <v>487</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>19</v>
@@ -7018,7 +7055,7 @@
         <v>394</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="28" t="s">
@@ -7134,7 +7171,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30">
@@ -7148,7 +7185,7 @@
         <v>493</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>19</v>
@@ -7438,7 +7475,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
@@ -7452,7 +7489,7 @@
         <v>505</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>19</v>
@@ -7651,7 +7688,7 @@
         <v>395</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -7667,7 +7704,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30">
@@ -7853,7 +7890,7 @@
         <v>396</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
@@ -7869,7 +7906,7 @@
         <v>17</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="30">
@@ -7999,13 +8036,13 @@
     </row>
     <row r="120" spans="1:9" ht="60">
       <c r="A120" s="28" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="28" t="s">
@@ -8021,18 +8058,18 @@
         <v>17</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45">
       <c r="A121" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="28" t="s">
@@ -8057,7 +8094,7 @@
         <v>397</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="28" t="s">
@@ -8107,7 +8144,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8123,7 +8160,7 @@
         <v>17</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
@@ -8134,7 +8171,7 @@
         <v>397</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8158,8 +8195,8 @@
       <c r="B126" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C126" s="30" t="s">
-        <v>526</v>
+      <c r="C126" s="19" t="s">
+        <v>935</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8184,7 +8221,7 @@
         <v>397</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8208,8 +8245,8 @@
       <c r="B128" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C128" s="30" t="s">
-        <v>780</v>
+      <c r="C128" s="19" t="s">
+        <v>936</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8234,7 +8271,7 @@
         <v>397</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8259,7 +8296,7 @@
         <v>397</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8284,7 +8321,7 @@
         <v>397</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -8308,8 +8345,8 @@
       <c r="B132" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C132" s="30" t="s">
-        <v>782</v>
+      <c r="C132" s="19" t="s">
+        <v>937</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -8334,7 +8371,7 @@
         <v>397</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -8358,8 +8395,8 @@
       <c r="B134" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="30" t="s">
-        <v>783</v>
+      <c r="C134" s="19" t="s">
+        <v>938</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -8384,7 +8421,7 @@
         <v>397</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -8408,8 +8445,8 @@
       <c r="B136" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="30" t="s">
-        <v>784</v>
+      <c r="C136" s="19" t="s">
+        <v>939</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -8434,7 +8471,7 @@
         <v>397</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -8458,8 +8495,8 @@
       <c r="B138" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C138" s="30" t="s">
-        <v>785</v>
+      <c r="C138" s="19" t="s">
+        <v>940</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -8484,7 +8521,7 @@
         <v>397</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -8509,7 +8546,7 @@
         <v>397</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
@@ -8534,7 +8571,7 @@
         <v>397</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="28" t="s">
@@ -8559,7 +8596,7 @@
         <v>397</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="28" t="s">
@@ -8584,7 +8621,7 @@
         <v>397</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -8603,13 +8640,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -8628,13 +8665,13 @@
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8653,13 +8690,13 @@
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -8678,13 +8715,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="28" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -8703,13 +8740,13 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -8728,13 +8765,13 @@
     </row>
     <row r="149" spans="1:9" ht="45">
       <c r="A149" s="28" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -8750,18 +8787,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -8780,13 +8817,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -8811,7 +8848,7 @@
         <v>398</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
@@ -8836,7 +8873,7 @@
         <v>398</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -8861,7 +8898,7 @@
         <v>398</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -8886,7 +8923,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -8911,7 +8948,7 @@
         <v>398</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -8930,13 +8967,13 @@
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
@@ -8955,13 +8992,13 @@
     </row>
     <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -8977,18 +9014,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="330">
       <c r="A159" s="28" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9007,13 +9044,13 @@
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9032,13 +9069,13 @@
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9057,13 +9094,13 @@
     </row>
     <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9082,13 +9119,13 @@
     </row>
     <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9107,13 +9144,13 @@
     </row>
     <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9132,13 +9169,13 @@
     </row>
     <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9157,13 +9194,13 @@
     </row>
     <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
@@ -9182,13 +9219,13 @@
     </row>
     <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9207,13 +9244,13 @@
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9232,13 +9269,13 @@
     </row>
     <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9257,13 +9294,13 @@
     </row>
     <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
@@ -9282,13 +9319,13 @@
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
@@ -9307,13 +9344,13 @@
     </row>
     <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
@@ -9332,13 +9369,13 @@
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
@@ -9357,13 +9394,13 @@
     </row>
     <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -9388,7 +9425,7 @@
         <v>400</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -9413,7 +9450,7 @@
         <v>400</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -9438,7 +9475,7 @@
         <v>400</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="28" t="s">
@@ -9463,7 +9500,7 @@
         <v>400</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D178" s="28"/>
       <c r="E178" s="28" t="s">
@@ -9488,7 +9525,7 @@
         <v>400</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="28" t="s">
@@ -9513,7 +9550,7 @@
         <v>400</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="28" t="s">
@@ -9538,7 +9575,7 @@
         <v>400</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -9563,7 +9600,7 @@
         <v>401</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
@@ -9588,7 +9625,7 @@
         <v>402</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -9613,7 +9650,7 @@
         <v>403</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D184" s="28"/>
       <c r="E184" s="28" t="s">
@@ -9638,7 +9675,7 @@
         <v>404</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D185" s="28"/>
       <c r="E185" s="28" t="s">
@@ -9663,7 +9700,7 @@
         <v>405</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
@@ -9688,7 +9725,7 @@
         <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
@@ -9713,7 +9750,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -9738,7 +9775,7 @@
         <v>405</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
@@ -9763,7 +9800,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -9788,7 +9825,7 @@
         <v>406</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="28" t="s">
@@ -9813,7 +9850,7 @@
         <v>407</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="28" t="s">
@@ -9838,7 +9875,7 @@
         <v>407</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D193" s="28"/>
       <c r="E193" s="28" t="s">
@@ -9863,7 +9900,7 @@
         <v>407</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -9888,7 +9925,7 @@
         <v>407</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -9913,7 +9950,7 @@
         <v>408</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
@@ -9938,7 +9975,7 @@
         <v>408</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D197" s="28"/>
       <c r="E197" s="28" t="s">
@@ -9963,7 +10000,7 @@
         <v>408</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D198" s="28"/>
       <c r="E198" s="28" t="s">
@@ -9988,7 +10025,7 @@
         <v>408</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D199" s="28"/>
       <c r="E199" s="28" t="s">
@@ -10013,7 +10050,7 @@
         <v>408</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10038,7 +10075,7 @@
         <v>32</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10063,7 +10100,7 @@
         <v>32</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D202" s="28"/>
       <c r="E202" s="28" t="s">
@@ -10088,7 +10125,7 @@
         <v>32</v>
       </c>
       <c r="C203" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
@@ -10113,7 +10150,7 @@
         <v>32</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D204" s="28"/>
       <c r="E204" s="28" t="s">
@@ -10138,7 +10175,7 @@
         <v>32</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D205" s="28"/>
       <c r="E205" s="28" t="s">
@@ -10163,7 +10200,7 @@
         <v>32</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10188,7 +10225,7 @@
         <v>32</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10204,7 +10241,7 @@
         <v>17</v>
       </c>
       <c r="I207" s="30" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30">
@@ -10215,10 +10252,10 @@
         <v>32</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E208" s="28" t="s">
         <v>19</v>
@@ -10242,7 +10279,7 @@
         <v>32</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D209" s="28"/>
       <c r="E209" s="28" t="s">
@@ -10267,7 +10304,7 @@
         <v>409</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D210" s="28"/>
       <c r="E210" s="28" t="s">
@@ -10292,7 +10329,7 @@
         <v>409</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D211" s="28"/>
       <c r="E211" s="28" t="s">
@@ -10317,7 +10354,7 @@
         <v>409</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -10342,7 +10379,7 @@
         <v>410</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D213" s="28"/>
       <c r="E213" s="28" t="s">
@@ -10367,7 +10404,7 @@
         <v>410</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -10392,7 +10429,7 @@
         <v>410</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -10417,7 +10454,7 @@
         <v>410</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="28" t="s">
@@ -10442,7 +10479,7 @@
         <v>410</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D217" s="28"/>
       <c r="E217" s="28" t="s">
@@ -10466,8 +10503,8 @@
       <c r="B218" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C218" s="30" t="s">
-        <v>841</v>
+      <c r="C218" s="19" t="s">
+        <v>941</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -10492,7 +10529,7 @@
         <v>410</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -10516,8 +10553,8 @@
       <c r="B220" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C220" s="30" t="s">
-        <v>842</v>
+      <c r="C220" s="19" t="s">
+        <v>942</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -10542,7 +10579,7 @@
         <v>410</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D221" s="28"/>
       <c r="E221" s="28" t="s">
@@ -10567,7 +10604,7 @@
         <v>410</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="28" t="s">
@@ -10591,8 +10628,8 @@
       <c r="B223" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C223" s="30" t="s">
-        <v>843</v>
+      <c r="C223" s="19" t="s">
+        <v>943</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -10617,7 +10654,7 @@
         <v>410</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
@@ -10642,7 +10679,7 @@
         <v>410</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -10667,7 +10704,7 @@
         <v>410</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -10692,7 +10729,7 @@
         <v>411</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="28" t="s">
@@ -10717,7 +10754,7 @@
         <v>411</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D228" s="28"/>
       <c r="E228" s="28" t="s">
@@ -10742,7 +10779,7 @@
         <v>411</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D229" s="28"/>
       <c r="E229" s="28" t="s">
@@ -10767,7 +10804,7 @@
         <v>411</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -10792,7 +10829,7 @@
         <v>411</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -10809,15 +10846,15 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" ht="45">
       <c r="A232" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B232" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C232" s="30" t="s">
-        <v>844</v>
+      <c r="C232" s="19" t="s">
+        <v>944</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -10842,7 +10879,7 @@
         <v>411</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="28" t="s">
@@ -10867,7 +10904,7 @@
         <v>411</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
@@ -10892,7 +10929,7 @@
         <v>411</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D235" s="28"/>
       <c r="E235" s="28" t="s">
@@ -10911,13 +10948,13 @@
     </row>
     <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
@@ -10936,13 +10973,13 @@
     </row>
     <row r="237" spans="1:9" ht="60">
       <c r="A237" s="28" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B237" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="28" t="s">
@@ -10967,7 +11004,7 @@
         <v>412</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -10992,7 +11029,7 @@
         <v>412</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
@@ -11017,7 +11054,7 @@
         <v>412</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
@@ -11042,7 +11079,7 @@
         <v>413</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="28" t="s">
@@ -11067,7 +11104,7 @@
         <v>414</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
@@ -11092,7 +11129,7 @@
         <v>415</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="28" t="s">
@@ -11117,7 +11154,7 @@
         <v>415</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
@@ -11142,7 +11179,7 @@
         <v>415</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
@@ -11167,7 +11204,7 @@
         <v>416</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -11192,7 +11229,7 @@
         <v>416</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="28" t="s">
@@ -11217,7 +11254,7 @@
         <v>416</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
@@ -11242,7 +11279,7 @@
         <v>417</v>
       </c>
       <c r="C249" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="28" t="s">
@@ -11267,7 +11304,7 @@
         <v>417</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -11292,7 +11329,7 @@
         <v>417</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -11317,7 +11354,7 @@
         <v>417</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -11342,7 +11379,7 @@
         <v>417</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
@@ -11367,7 +11404,7 @@
         <v>417</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="28" t="s">
@@ -11392,7 +11429,7 @@
         <v>417</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="28" t="s">
@@ -11417,7 +11454,7 @@
         <v>417</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -11442,7 +11479,7 @@
         <v>417</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -11467,7 +11504,7 @@
         <v>417</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -11492,7 +11529,7 @@
         <v>33</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="28" t="s">
@@ -11517,7 +11554,7 @@
         <v>33</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="28" t="s">
@@ -11542,7 +11579,7 @@
         <v>33</v>
       </c>
       <c r="C261" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D261" s="28"/>
       <c r="E261" s="28" t="s">
@@ -11567,7 +11604,7 @@
         <v>33</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
@@ -11592,7 +11629,7 @@
         <v>33</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -11617,7 +11654,7 @@
         <v>33</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -11642,7 +11679,7 @@
         <v>33</v>
       </c>
       <c r="C265" s="30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D265" s="28"/>
       <c r="E265" s="28" t="s">
@@ -11658,7 +11695,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="30" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="30">
@@ -11669,10 +11706,10 @@
         <v>33</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E266" s="28" t="s">
         <v>19</v>
@@ -11696,7 +11733,7 @@
         <v>33</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="28" t="s">
@@ -11721,7 +11758,7 @@
         <v>33</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -11746,7 +11783,7 @@
         <v>418</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -11771,7 +11808,7 @@
         <v>418</v>
       </c>
       <c r="C270" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
@@ -11796,7 +11833,7 @@
         <v>418</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D271" s="28"/>
       <c r="E271" s="28" t="s">
@@ -11821,7 +11858,7 @@
         <v>419</v>
       </c>
       <c r="C272" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="28" t="s">
@@ -11846,7 +11883,7 @@
         <v>419</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -11871,7 +11908,7 @@
         <v>419</v>
       </c>
       <c r="C274" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -11896,7 +11933,7 @@
         <v>419</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -11921,7 +11958,7 @@
         <v>419</v>
       </c>
       <c r="C276" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="28" t="s">
@@ -11945,8 +11982,8 @@
       <c r="B277" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C277" s="30" t="s">
-        <v>637</v>
+      <c r="C277" s="19" t="s">
+        <v>945</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -11971,7 +12008,7 @@
         <v>419</v>
       </c>
       <c r="C278" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -11995,8 +12032,8 @@
       <c r="B279" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C279" s="30" t="s">
-        <v>639</v>
+      <c r="C279" s="19" t="s">
+        <v>946</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12021,7 +12058,7 @@
         <v>419</v>
       </c>
       <c r="C280" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12046,7 +12083,7 @@
         <v>419</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="28" t="s">
@@ -12070,8 +12107,8 @@
       <c r="B282" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C282" s="30" t="s">
-        <v>642</v>
+      <c r="C282" s="19" t="s">
+        <v>947</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
@@ -12096,7 +12133,7 @@
         <v>419</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
@@ -12121,7 +12158,7 @@
         <v>420</v>
       </c>
       <c r="C284" s="30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -12146,7 +12183,7 @@
         <v>420</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -12171,7 +12208,7 @@
         <v>420</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -12196,7 +12233,7 @@
         <v>420</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -12221,7 +12258,7 @@
         <v>420</v>
       </c>
       <c r="C288" s="30" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="28" t="s">
@@ -12245,8 +12282,8 @@
       <c r="B289" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C289" s="30" t="s">
-        <v>854</v>
+      <c r="C289" s="19" t="s">
+        <v>948</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12271,7 +12308,7 @@
         <v>420</v>
       </c>
       <c r="C290" s="30" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -12296,7 +12333,7 @@
         <v>420</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -12321,7 +12358,7 @@
         <v>420</v>
       </c>
       <c r="C292" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -12340,13 +12377,13 @@
     </row>
     <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -12365,13 +12402,13 @@
     </row>
     <row r="294" spans="1:9" ht="60">
       <c r="A294" s="28" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="B294" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
@@ -12396,7 +12433,7 @@
         <v>421</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="28" t="s">
@@ -12421,7 +12458,7 @@
         <v>421</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="28" t="s">
@@ -12446,7 +12483,7 @@
         <v>421</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="28" t="s">
@@ -12471,7 +12508,7 @@
         <v>422</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
@@ -12496,7 +12533,7 @@
         <v>422</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
@@ -12521,7 +12558,7 @@
         <v>423</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -12546,7 +12583,7 @@
         <v>424</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
@@ -12571,7 +12608,7 @@
         <v>424</v>
       </c>
       <c r="C302" s="30" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
@@ -12596,7 +12633,7 @@
         <v>424</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
@@ -12621,7 +12658,7 @@
         <v>424</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="28" t="s">
@@ -12640,13 +12677,13 @@
     </row>
     <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -12665,13 +12702,13 @@
     </row>
     <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="B306" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -12696,7 +12733,7 @@
         <v>425</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -12721,7 +12758,7 @@
         <v>425</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="28" t="s">
@@ -12746,7 +12783,7 @@
         <v>425</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D309" s="28"/>
       <c r="E309" s="28" t="s">
@@ -12771,7 +12808,7 @@
         <v>425</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D310" s="28"/>
       <c r="E310" s="28" t="s">
@@ -12796,7 +12833,7 @@
         <v>425</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -12821,7 +12858,7 @@
         <v>425</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="28" t="s">
@@ -12846,7 +12883,7 @@
         <v>426</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="28" t="s">
@@ -12871,7 +12908,7 @@
         <v>426</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="28" t="s">
@@ -12896,7 +12933,7 @@
         <v>426</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="28" t="s">
@@ -12921,7 +12958,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D316" s="28"/>
       <c r="E316" s="28" t="s">
@@ -12946,7 +12983,7 @@
         <v>427</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="28" t="s">
@@ -12971,7 +13008,7 @@
         <v>427</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D318" s="28"/>
       <c r="E318" s="28" t="s">
@@ -12996,7 +13033,7 @@
         <v>427</v>
       </c>
       <c r="C319" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D319" s="28"/>
       <c r="E319" s="28" t="s">
@@ -13021,7 +13058,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="28" t="s">
@@ -13046,7 +13083,7 @@
         <v>427</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28" t="s">
@@ -13068,10 +13105,10 @@
         <v>168</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="28" t="s">
@@ -13093,10 +13130,10 @@
         <v>169</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="28" t="s">
@@ -13118,10 +13155,10 @@
         <v>170</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -13143,10 +13180,10 @@
         <v>171</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="28" t="s">
@@ -13168,10 +13205,10 @@
         <v>172</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -13193,10 +13230,10 @@
         <v>173</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="28" t="s">
@@ -13218,10 +13255,10 @@
         <v>174</v>
       </c>
       <c r="B328" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="28" t="s">
@@ -13237,7 +13274,7 @@
         <v>17</v>
       </c>
       <c r="I328" s="30" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="30">
@@ -13245,13 +13282,13 @@
         <v>175</v>
       </c>
       <c r="B329" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D329" s="28" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E329" s="28" t="s">
         <v>19</v>
@@ -13272,10 +13309,10 @@
         <v>176</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="28" t="s">
@@ -13297,10 +13334,10 @@
         <v>177</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -13322,10 +13359,10 @@
         <v>178</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C332" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D332" s="28"/>
       <c r="E332" s="28" t="s">
@@ -13341,7 +13378,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="30" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="30">
@@ -13349,13 +13386,13 @@
         <v>179</v>
       </c>
       <c r="B333" s="29" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E333" s="28" t="s">
         <v>19</v>
@@ -13379,7 +13416,7 @@
         <v>428</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -13404,7 +13441,7 @@
         <v>428</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -13429,7 +13466,7 @@
         <v>428</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -13454,7 +13491,7 @@
         <v>428</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
@@ -13479,7 +13516,7 @@
         <v>428</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -13504,7 +13541,7 @@
         <v>429</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -13529,7 +13566,7 @@
         <v>429</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
@@ -13554,7 +13591,7 @@
         <v>429</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
@@ -13579,7 +13616,7 @@
         <v>430</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -13604,7 +13641,7 @@
         <v>430</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="28" t="s">
@@ -13629,7 +13666,7 @@
         <v>430</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
@@ -13654,7 +13691,7 @@
         <v>430</v>
       </c>
       <c r="C345" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
@@ -13679,7 +13716,7 @@
         <v>430</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
@@ -13704,7 +13741,7 @@
         <v>430</v>
       </c>
       <c r="C347" s="30" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13729,7 +13766,7 @@
         <v>430</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -13754,7 +13791,7 @@
         <v>430</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -13779,7 +13816,7 @@
         <v>430</v>
       </c>
       <c r="C350" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -13804,7 +13841,7 @@
         <v>430</v>
       </c>
       <c r="C351" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="28" t="s">
@@ -13829,7 +13866,7 @@
         <v>430</v>
       </c>
       <c r="C352" s="30" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -13854,7 +13891,7 @@
         <v>430</v>
       </c>
       <c r="C353" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="28" t="s">
@@ -13879,7 +13916,7 @@
         <v>430</v>
       </c>
       <c r="C354" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="28" t="s">
@@ -13904,7 +13941,7 @@
         <v>430</v>
       </c>
       <c r="C355" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="28" t="s">
@@ -13929,7 +13966,7 @@
         <v>431</v>
       </c>
       <c r="C356" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="28" t="s">
@@ -13954,7 +13991,7 @@
         <v>431</v>
       </c>
       <c r="C357" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -13979,7 +14016,7 @@
         <v>431</v>
       </c>
       <c r="C358" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D358" s="28"/>
       <c r="E358" s="28" t="s">
@@ -14004,7 +14041,7 @@
         <v>431</v>
       </c>
       <c r="C359" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D359" s="28"/>
       <c r="E359" s="28" t="s">
@@ -14029,7 +14066,7 @@
         <v>431</v>
       </c>
       <c r="C360" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -14053,8 +14090,8 @@
       <c r="B361" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C361" s="30" t="s">
-        <v>873</v>
+      <c r="C361" s="19" t="s">
+        <v>949</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14079,7 +14116,7 @@
         <v>431</v>
       </c>
       <c r="C362" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D362" s="28"/>
       <c r="E362" s="28" t="s">
@@ -14104,7 +14141,7 @@
         <v>431</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="28" t="s">
@@ -14129,7 +14166,7 @@
         <v>431</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
@@ -14148,13 +14185,13 @@
     </row>
     <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28" t="s">
@@ -14173,13 +14210,13 @@
     </row>
     <row r="366" spans="1:9" ht="60">
       <c r="A366" s="28" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="B366" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="28" t="s">
@@ -14204,7 +14241,7 @@
         <v>432</v>
       </c>
       <c r="C367" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="28" t="s">
@@ -14229,7 +14266,7 @@
         <v>432</v>
       </c>
       <c r="C368" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D368" s="28"/>
       <c r="E368" s="28" t="s">
@@ -14254,7 +14291,7 @@
         <v>432</v>
       </c>
       <c r="C369" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D369" s="28"/>
       <c r="E369" s="28" t="s">
@@ -14279,7 +14316,7 @@
         <v>433</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
@@ -14304,7 +14341,7 @@
         <v>434</v>
       </c>
       <c r="C371" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D371" s="28"/>
       <c r="E371" s="28" t="s">
@@ -14329,7 +14366,7 @@
         <v>435</v>
       </c>
       <c r="C372" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D372" s="28"/>
       <c r="E372" s="28" t="s">
@@ -14354,7 +14391,7 @@
         <v>435</v>
       </c>
       <c r="C373" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
@@ -14379,7 +14416,7 @@
         <v>435</v>
       </c>
       <c r="C374" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="28" t="s">
@@ -14404,7 +14441,7 @@
         <v>435</v>
       </c>
       <c r="C375" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="28" t="s">
@@ -14429,7 +14466,7 @@
         <v>436</v>
       </c>
       <c r="C376" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="28" t="s">
@@ -14454,7 +14491,7 @@
         <v>436</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="28" t="s">
@@ -14479,7 +14516,7 @@
         <v>437</v>
       </c>
       <c r="C378" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="28" t="s">
@@ -14504,7 +14541,7 @@
         <v>437</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="28" t="s">
@@ -14529,7 +14566,7 @@
         <v>437</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="28" t="s">
@@ -14554,7 +14591,7 @@
         <v>437</v>
       </c>
       <c r="C381" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="28" t="s">
@@ -14579,7 +14616,7 @@
         <v>437</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="28" t="s">
@@ -14604,7 +14641,7 @@
         <v>437</v>
       </c>
       <c r="C383" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
@@ -14629,7 +14666,7 @@
         <v>437</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -14654,7 +14691,7 @@
         <v>438</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -14679,7 +14716,7 @@
         <v>438</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -14704,7 +14741,7 @@
         <v>438</v>
       </c>
       <c r="C387" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -14729,7 +14766,7 @@
         <v>438</v>
       </c>
       <c r="C388" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -14754,7 +14791,7 @@
         <v>438</v>
       </c>
       <c r="C389" s="30" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -14770,7 +14807,7 @@
         <v>17</v>
       </c>
       <c r="I389" s="30" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="30">
@@ -14781,10 +14818,10 @@
         <v>438</v>
       </c>
       <c r="C390" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D390" s="28" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E390" s="28" t="s">
         <v>19</v>
@@ -14808,7 +14845,7 @@
         <v>438</v>
       </c>
       <c r="C391" s="30" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -14833,7 +14870,7 @@
         <v>438</v>
       </c>
       <c r="C392" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="28" t="s">
@@ -14858,7 +14895,7 @@
         <v>438</v>
       </c>
       <c r="C393" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="28" t="s">
@@ -14874,7 +14911,7 @@
         <v>17</v>
       </c>
       <c r="I393" s="30" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="30">
@@ -14885,7 +14922,7 @@
         <v>438</v>
       </c>
       <c r="C394" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -14904,13 +14941,13 @@
     </row>
     <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -14929,16 +14966,16 @@
     </row>
     <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C396" s="30" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="D396" s="28" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E396" s="28" t="s">
         <v>19</v>
@@ -14962,7 +14999,7 @@
         <v>438</v>
       </c>
       <c r="C397" s="30" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -14987,7 +15024,7 @@
         <v>438</v>
       </c>
       <c r="C398" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
@@ -15012,7 +15049,7 @@
         <v>439</v>
       </c>
       <c r="C399" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15037,7 +15074,7 @@
         <v>439</v>
       </c>
       <c r="C400" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15062,10 +15099,10 @@
         <v>439</v>
       </c>
       <c r="C401" s="30" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D401" s="28" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>22</v>
@@ -15080,21 +15117,21 @@
         <v>21</v>
       </c>
       <c r="I401" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="75">
       <c r="A402" s="28" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B402" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
@@ -15109,21 +15146,21 @@
         <v>20</v>
       </c>
       <c r="I402" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D403" s="28" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E403" s="28" t="s">
         <v>22</v>
@@ -15141,16 +15178,16 @@
     </row>
     <row r="404" spans="1:9" ht="45">
       <c r="A404" s="28" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="D404" s="28" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="E404" s="28" t="s">
         <v>22</v>
@@ -15165,21 +15202,21 @@
         <v>21</v>
       </c>
       <c r="I404" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="D405" s="21" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="E405" s="28" t="s">
         <v>22</v>
@@ -15197,16 +15234,16 @@
     </row>
     <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="D406" s="28" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="E406" s="28" t="s">
         <v>22</v>
@@ -15221,21 +15258,21 @@
         <v>21</v>
       </c>
       <c r="I406" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C407" s="30" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
@@ -15250,21 +15287,21 @@
         <v>20</v>
       </c>
       <c r="I407" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C408" s="30" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D408" s="28" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15282,16 +15319,16 @@
     </row>
     <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
@@ -15309,16 +15346,16 @@
     </row>
     <row r="410" spans="1:9" ht="45">
       <c r="A410" s="28" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="D410" s="21" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="E410" s="28" t="s">
         <v>22</v>
@@ -15333,21 +15370,21 @@
         <v>21</v>
       </c>
       <c r="I410" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="60">
       <c r="A411" s="28" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="B411" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="D411" s="28" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="E411" s="28" t="s">
         <v>22</v>
@@ -15365,16 +15402,16 @@
     </row>
     <row r="412" spans="1:9" ht="45">
       <c r="A412" s="28" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="B412" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="D412" s="28" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="E412" s="28" t="s">
         <v>22</v>
@@ -15389,21 +15426,21 @@
         <v>21</v>
       </c>
       <c r="I412" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B413" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C413" s="30" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
@@ -15421,16 +15458,16 @@
     </row>
     <row r="414" spans="1:9" ht="45">
       <c r="A414" s="28" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="B414" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C414" s="30" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
@@ -15445,7 +15482,7 @@
         <v>20</v>
       </c>
       <c r="I414" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="75">
@@ -15456,10 +15493,10 @@
         <v>439</v>
       </c>
       <c r="C415" s="30" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="E415" s="28" t="s">
         <v>22</v>
@@ -15474,7 +15511,7 @@
         <v>20</v>
       </c>
       <c r="I415" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="75">
@@ -15485,10 +15522,10 @@
         <v>439</v>
       </c>
       <c r="C416" s="30" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="D416" s="28" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="E416" s="28" t="s">
         <v>22</v>
@@ -15503,7 +15540,7 @@
         <v>20</v>
       </c>
       <c r="I416" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="75">
@@ -15514,10 +15551,10 @@
         <v>439</v>
       </c>
       <c r="C417" s="30" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="D417" s="28" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="E417" s="28" t="s">
         <v>22</v>
@@ -15532,7 +15569,7 @@
         <v>20</v>
       </c>
       <c r="I417" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="105">
@@ -15543,10 +15580,10 @@
         <v>439</v>
       </c>
       <c r="C418" s="30" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="D418" s="28" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="E418" s="28" t="s">
         <v>22</v>
@@ -15561,21 +15598,21 @@
         <v>20</v>
       </c>
       <c r="I418" s="30" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="30">
       <c r="A419" s="28" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="B419" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C419" s="30" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="D419" s="28" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="E419" s="28" t="s">
         <v>22</v>
@@ -15599,7 +15636,7 @@
         <v>440</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15624,7 +15661,7 @@
         <v>441</v>
       </c>
       <c r="C421" s="30" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15649,7 +15686,7 @@
         <v>442</v>
       </c>
       <c r="C422" s="30" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D422" s="28"/>
       <c r="E422" s="28" t="s">
@@ -15964,20 +16001,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F422" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E422" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G422">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G422" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H422">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H422" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15987,7 +16024,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B10:B17 B19:B42 B419:B424 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B10:B17 B19:B42 B419:B424 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D869E67D-A06C-4F4B-9DC5-57B16F4ED7F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED12EB-1F41-4C47-B3B9-EC9D0D74B758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -1529,15 +1529,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>2.2.3.23</t>
-  </si>
-  <si>
-    <t>2.2.4.44</t>
-  </si>
-  <si>
-    <t>2.2.5.10</t>
-  </si>
-  <si>
     <t>[In Messages] In the following sections, the schema definition might differ from the processing rules imposed by the protocol.</t>
   </si>
   <si>
@@ -2651,19 +2642,7 @@
     <t>[In t:AttachmentResponseShapeType Complex Type][The AdditionalProperties element] Contains additional properties to return in a response.</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior]Implementation does use secure communications via HTTPS, as defined in [RFC2818]. (Exchange Server 2007 and above follow this behavior. )</t>
-  </si>
-  <si>
-    <t>[In m:ResponseCodeType Simple Type] The value "ErrorUnsupportedMimeConversion" occurs when you are trying to retrieve or set MIME content for an item other than a PostItemType, MessageType, or CalendarItemType object.</t>
-  </si>
-  <si>
-    <t>[In t:NonEmptyArrayOfPathsToElementType Complex Type] The element "t:Path" with type "t:Path" specifies a property to be returned in a response.</t>
   </si>
   <si>
     <t>[In t:ServerVersionInfo Element] &lt;xs:element name="t:ServerVersionInfo"&gt;
@@ -3230,15 +3209,6 @@
     <t>[In GetAttachment Operation] The GetAttachment operation gets attachments from an item in the server store.</t>
   </si>
   <si>
-    <t>[In tns:GetAttachmentSoapIn Message] [The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.4.33).</t>
-  </si>
-  <si>
-    <t>[In tns:GetAttachmentSoapIn Message] [The element of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.4.45).</t>
-  </si>
-  <si>
-    <t>[In tns:GetAttachmentSoapIn Message][The RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.11)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In tns:GetAttachmentSoapOut Message] If the request is unsuccessful, the GetAttachment operation returns a GetAttachmentResponse element with the ResponseClass attribute of the GetAttachmentResponseMessage element set to "Error". </t>
   </si>
   <si>
@@ -3329,9 +3299,6 @@
     <t>[In Appendix C: Product Behavior] Implementation does not support the Person element. (&lt;6&gt; Section 2.2.4.6:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the Person element.)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the Person element. (Exchange 2016 follow this behavior).</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the FilterHtmlContent element. (Exchange 2010 and above follow this behavior.)</t>
   </si>
   <si>
@@ -3498,9 +3465,6 @@
     <t>MS-OXWSATT_R318015</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 follow this behavior.)</t>
-  </si>
-  <si>
     <t>MS-OXWSATT_R527:i</t>
   </si>
   <si>
@@ -3550,6 +3514,42 @@
   </si>
   <si>
     <t>[In tns:GetAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+  </si>
+  <si>
+    <t>[In tns:GetAttachmentSoapIn Message] [The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
+  </si>
+  <si>
+    <t>[In tns:GetAttachmentSoapIn Message] [The element of MailboxCulture part is] t:MailboxCulture ([MS-OXWSCDATA] section 2.2.3.6).</t>
+  </si>
+  <si>
+    <t>[In tns:GetAttachmentSoapIn Message][The RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the Person element. (Exchange 2016  and above follow this behavior).</t>
+  </si>
+  <si>
+    <t>2.2.5.24</t>
+  </si>
+  <si>
+    <t>[In t:NonEmptyArrayOfPathsToElementType Complex Type] The element "t:Path" with type "t:BasePathToElementType " specifies a property to be returned in a response.</t>
+  </si>
+  <si>
+    <t>2.2.3.10</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019.)</t>
+  </si>
+  <si>
+    <t>2.2.4.50</t>
+  </si>
+  <si>
+    <t>[In m:ResponseCodeType Simple Type] The value "ErrorUnsupportedMimeConversion" occurs when an attempt is made to retrieve  MIME content for an item other than a PostItemType, MessageType, or CalendarItemType object.</t>
   </si>
 </sst>
 </file>
@@ -3862,6 +3862,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3885,27 +3906,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5136,13 +5136,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -5157,7 +5157,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5187,7 +5187,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="37" t="s">
@@ -5203,16 +5203,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5224,13 +5224,13 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -5238,16 +5238,16 @@
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -5255,16 +5255,16 @@
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -5272,16 +5272,16 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -5289,16 +5289,16 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -5306,16 +5306,16 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>745</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="B10" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -5323,16 +5323,16 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>744</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="B11" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -5416,16 +5416,16 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -5433,16 +5433,16 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -5450,16 +5450,16 @@
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>746</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="B18" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -5501,7 +5501,7 @@
         <v>385</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
@@ -5527,7 +5527,7 @@
         <v>385</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
@@ -5553,7 +5553,7 @@
         <v>386</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
@@ -5579,7 +5579,7 @@
         <v>386</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -5605,7 +5605,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
@@ -5631,7 +5631,7 @@
         <v>386</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
@@ -5657,7 +5657,7 @@
         <v>386</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
@@ -5683,7 +5683,7 @@
         <v>387</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
@@ -5709,7 +5709,7 @@
         <v>387</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
@@ -5735,7 +5735,7 @@
         <v>387</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
@@ -5755,13 +5755,13 @@
     </row>
     <row r="30" spans="1:13" s="22" customFormat="1">
       <c r="A30" s="21" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>387</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28" t="s">
@@ -5787,7 +5787,7 @@
         <v>387</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
@@ -5803,7 +5803,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="J31" s="35"/>
     </row>
@@ -5815,7 +5815,7 @@
         <v>388</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
@@ -5841,7 +5841,7 @@
         <v>388</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
@@ -5867,7 +5867,7 @@
         <v>389</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
@@ -5893,7 +5893,7 @@
         <v>389</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
@@ -5918,7 +5918,7 @@
         <v>389</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28" t="s">
@@ -5943,7 +5943,7 @@
         <v>389</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28" t="s">
@@ -5968,7 +5968,7 @@
         <v>389</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
@@ -5993,7 +5993,7 @@
         <v>389</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="28" t="s">
@@ -6012,13 +6012,13 @@
     </row>
     <row r="40" spans="1:10" ht="30">
       <c r="A40" s="28" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>389</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28" t="s">
@@ -6043,7 +6043,7 @@
         <v>389</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28" t="s">
@@ -6062,13 +6062,13 @@
     </row>
     <row r="42" spans="1:10" ht="30">
       <c r="A42" s="28" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>389</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28" t="s">
@@ -6093,7 +6093,7 @@
         <v>390</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="28" t="s">
@@ -6118,7 +6118,7 @@
         <v>391</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28" t="s">
@@ -6143,7 +6143,7 @@
         <v>392</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28" t="s">
@@ -6168,7 +6168,7 @@
         <v>392</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
@@ -6193,7 +6193,7 @@
         <v>392</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="28" t="s">
@@ -6218,7 +6218,7 @@
         <v>392</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="28" t="s">
@@ -6243,7 +6243,7 @@
         <v>392</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="28" t="s">
@@ -6268,7 +6268,7 @@
         <v>392</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28" t="s">
@@ -6293,7 +6293,7 @@
         <v>392</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="28" t="s">
@@ -6318,7 +6318,7 @@
         <v>392</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28" t="s">
@@ -6343,7 +6343,7 @@
         <v>392</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28" t="s">
@@ -6362,13 +6362,13 @@
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>392</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28" t="s">
@@ -6393,7 +6393,7 @@
         <v>392</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28" t="s">
@@ -6418,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28" t="s">
@@ -6443,7 +6443,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28" t="s">
@@ -6459,7 +6459,7 @@
         <v>17</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30">
@@ -6470,10 +6470,10 @@
         <v>31</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>19</v>
@@ -6497,7 +6497,7 @@
         <v>31</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28" t="s">
@@ -6522,7 +6522,7 @@
         <v>31</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="28" t="s">
@@ -6547,7 +6547,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28" t="s">
@@ -6572,7 +6572,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28" t="s">
@@ -6597,7 +6597,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28" t="s">
@@ -6622,7 +6622,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28" t="s">
@@ -6641,13 +6641,13 @@
     </row>
     <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -6666,13 +6666,13 @@
     </row>
     <row r="66" spans="1:9" ht="30">
       <c r="A66" s="28" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
@@ -6697,7 +6697,7 @@
         <v>393</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28" t="s">
@@ -6722,7 +6722,7 @@
         <v>393</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -6747,7 +6747,7 @@
         <v>393</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28" t="s">
@@ -6772,7 +6772,7 @@
         <v>393</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
@@ -6797,7 +6797,7 @@
         <v>393</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="28" t="s">
@@ -6822,7 +6822,7 @@
         <v>393</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="28" t="s">
@@ -6841,13 +6841,13 @@
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>393</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28" t="s">
@@ -6872,7 +6872,7 @@
         <v>393</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="28" t="s">
@@ -6888,7 +6888,7 @@
         <v>17</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="30">
@@ -6899,10 +6899,10 @@
         <v>393</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>19</v>
@@ -6926,7 +6926,7 @@
         <v>393</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="28" t="s">
@@ -6951,7 +6951,7 @@
         <v>393</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28" t="s">
@@ -6976,7 +6976,7 @@
         <v>393</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28" t="s">
@@ -6992,7 +6992,7 @@
         <v>17</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30">
@@ -7003,10 +7003,10 @@
         <v>393</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>19</v>
@@ -7030,7 +7030,7 @@
         <v>394</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28" t="s">
@@ -7055,7 +7055,7 @@
         <v>394</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="28" t="s">
@@ -7080,7 +7080,7 @@
         <v>394</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28" t="s">
@@ -7105,7 +7105,7 @@
         <v>394</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28" t="s">
@@ -7130,7 +7130,7 @@
         <v>394</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="28" t="s">
@@ -7155,7 +7155,7 @@
         <v>394</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="s">
@@ -7171,7 +7171,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="30">
@@ -7182,10 +7182,10 @@
         <v>394</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>19</v>
@@ -7209,7 +7209,7 @@
         <v>395</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="s">
@@ -7234,7 +7234,7 @@
         <v>395</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="s">
@@ -7259,7 +7259,7 @@
         <v>395</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -7284,7 +7284,7 @@
         <v>395</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="s">
@@ -7309,7 +7309,7 @@
         <v>395</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="28" t="s">
@@ -7334,7 +7334,7 @@
         <v>395</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="28" t="s">
@@ -7359,7 +7359,7 @@
         <v>395</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="s">
@@ -7384,7 +7384,7 @@
         <v>395</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="s">
@@ -7409,7 +7409,7 @@
         <v>395</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="s">
@@ -7434,7 +7434,7 @@
         <v>395</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28" t="s">
@@ -7459,7 +7459,7 @@
         <v>395</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28" t="s">
@@ -7475,7 +7475,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
@@ -7486,10 +7486,10 @@
         <v>395</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>19</v>
@@ -7513,7 +7513,7 @@
         <v>395</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28" t="s">
@@ -7538,7 +7538,7 @@
         <v>395</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D100" s="28"/>
       <c r="E100" s="28" t="s">
@@ -7563,7 +7563,7 @@
         <v>395</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D101" s="28"/>
       <c r="E101" s="28" t="s">
@@ -7588,7 +7588,7 @@
         <v>395</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="28" t="s">
@@ -7613,7 +7613,7 @@
         <v>395</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D103" s="28"/>
       <c r="E103" s="28" t="s">
@@ -7638,7 +7638,7 @@
         <v>395</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D104" s="28"/>
       <c r="E104" s="28" t="s">
@@ -7663,7 +7663,7 @@
         <v>395</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D105" s="28"/>
       <c r="E105" s="28" t="s">
@@ -7688,7 +7688,7 @@
         <v>395</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -7704,7 +7704,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30">
@@ -7715,7 +7715,7 @@
         <v>395</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="28" t="s">
@@ -7740,7 +7740,7 @@
         <v>395</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
@@ -7765,7 +7765,7 @@
         <v>395</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="28" t="s">
@@ -7790,7 +7790,7 @@
         <v>395</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="28" t="s">
@@ -7815,7 +7815,7 @@
         <v>396</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
@@ -7840,7 +7840,7 @@
         <v>396</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="28" t="s">
@@ -7865,7 +7865,7 @@
         <v>396</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="28" t="s">
@@ -7890,7 +7890,7 @@
         <v>396</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
@@ -7906,7 +7906,7 @@
         <v>17</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="30">
@@ -7917,7 +7917,7 @@
         <v>396</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="28" t="s">
@@ -7942,7 +7942,7 @@
         <v>396</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="28" t="s">
@@ -7967,7 +7967,7 @@
         <v>396</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="28" t="s">
@@ -7992,7 +7992,7 @@
         <v>397</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="28" t="s">
@@ -8017,7 +8017,7 @@
         <v>397</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="28" t="s">
@@ -8036,13 +8036,13 @@
     </row>
     <row r="120" spans="1:9" ht="60">
       <c r="A120" s="28" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="28" t="s">
@@ -8058,18 +8058,18 @@
         <v>17</v>
       </c>
       <c r="I120" s="30" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45">
       <c r="A121" s="28" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="28" t="s">
@@ -8094,7 +8094,7 @@
         <v>397</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="28" t="s">
@@ -8119,7 +8119,7 @@
         <v>397</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="28" t="s">
@@ -8144,7 +8144,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8160,7 +8160,7 @@
         <v>17</v>
       </c>
       <c r="I124" s="19" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30">
@@ -8171,7 +8171,7 @@
         <v>397</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8196,7 +8196,7 @@
         <v>397</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8221,7 +8221,7 @@
         <v>397</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8246,7 +8246,7 @@
         <v>397</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8271,7 +8271,7 @@
         <v>397</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8296,7 +8296,7 @@
         <v>397</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8321,7 +8321,7 @@
         <v>397</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -8346,7 +8346,7 @@
         <v>397</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -8371,7 +8371,7 @@
         <v>397</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -8396,7 +8396,7 @@
         <v>397</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -8421,7 +8421,7 @@
         <v>397</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -8446,7 +8446,7 @@
         <v>397</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -8471,7 +8471,7 @@
         <v>397</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -8496,7 +8496,7 @@
         <v>397</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -8521,7 +8521,7 @@
         <v>397</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -8546,7 +8546,7 @@
         <v>397</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
@@ -8571,7 +8571,7 @@
         <v>397</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="28" t="s">
@@ -8596,7 +8596,7 @@
         <v>397</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="28" t="s">
@@ -8621,7 +8621,7 @@
         <v>397</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -8640,13 +8640,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -8665,13 +8665,13 @@
     </row>
     <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8690,13 +8690,13 @@
     </row>
     <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -8715,13 +8715,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="28" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -8740,13 +8740,13 @@
     </row>
     <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -8765,13 +8765,13 @@
     </row>
     <row r="149" spans="1:9" ht="45">
       <c r="A149" s="28" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -8787,18 +8787,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -8817,13 +8817,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -8848,7 +8848,7 @@
         <v>398</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
@@ -8873,7 +8873,7 @@
         <v>398</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -8898,7 +8898,7 @@
         <v>398</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -8923,7 +8923,7 @@
         <v>398</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -8948,7 +8948,7 @@
         <v>398</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -8967,13 +8967,13 @@
     </row>
     <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
@@ -8992,13 +8992,13 @@
     </row>
     <row r="158" spans="1:9" ht="45">
       <c r="A158" s="28" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -9014,18 +9014,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="330">
       <c r="A159" s="28" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9044,13 +9044,13 @@
     </row>
     <row r="160" spans="1:9" ht="30">
       <c r="A160" s="28" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9069,13 +9069,13 @@
     </row>
     <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9094,13 +9094,13 @@
     </row>
     <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9119,13 +9119,13 @@
     </row>
     <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9144,13 +9144,13 @@
     </row>
     <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9169,13 +9169,13 @@
     </row>
     <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9194,13 +9194,13 @@
     </row>
     <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
@@ -9219,13 +9219,13 @@
     </row>
     <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9244,13 +9244,13 @@
     </row>
     <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9269,13 +9269,13 @@
     </row>
     <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9294,13 +9294,13 @@
     </row>
     <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
@@ -9319,13 +9319,13 @@
     </row>
     <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
@@ -9344,13 +9344,13 @@
     </row>
     <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
@@ -9369,13 +9369,13 @@
     </row>
     <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
@@ -9394,13 +9394,13 @@
     </row>
     <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -9425,7 +9425,7 @@
         <v>400</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -9450,7 +9450,7 @@
         <v>400</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -9475,7 +9475,7 @@
         <v>400</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="28" t="s">
@@ -9500,7 +9500,7 @@
         <v>400</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D178" s="28"/>
       <c r="E178" s="28" t="s">
@@ -9525,7 +9525,7 @@
         <v>400</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="28" t="s">
@@ -9550,7 +9550,7 @@
         <v>400</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="28" t="s">
@@ -9575,7 +9575,7 @@
         <v>400</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -9600,7 +9600,7 @@
         <v>401</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
@@ -9625,7 +9625,7 @@
         <v>402</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -9650,7 +9650,7 @@
         <v>403</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D184" s="28"/>
       <c r="E184" s="28" t="s">
@@ -9675,7 +9675,7 @@
         <v>404</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D185" s="28"/>
       <c r="E185" s="28" t="s">
@@ -9700,7 +9700,7 @@
         <v>405</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
@@ -9725,7 +9725,7 @@
         <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
@@ -9750,7 +9750,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -9775,7 +9775,7 @@
         <v>405</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
@@ -9800,7 +9800,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -9825,7 +9825,7 @@
         <v>406</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="28" t="s">
@@ -9850,7 +9850,7 @@
         <v>407</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="28" t="s">
@@ -9875,7 +9875,7 @@
         <v>407</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D193" s="28"/>
       <c r="E193" s="28" t="s">
@@ -9900,7 +9900,7 @@
         <v>407</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -9925,7 +9925,7 @@
         <v>407</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -9950,7 +9950,7 @@
         <v>408</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
@@ -9975,7 +9975,7 @@
         <v>408</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D197" s="28"/>
       <c r="E197" s="28" t="s">
@@ -10000,7 +10000,7 @@
         <v>408</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D198" s="28"/>
       <c r="E198" s="28" t="s">
@@ -10025,7 +10025,7 @@
         <v>408</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D199" s="28"/>
       <c r="E199" s="28" t="s">
@@ -10050,7 +10050,7 @@
         <v>408</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10075,7 +10075,7 @@
         <v>32</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10100,7 +10100,7 @@
         <v>32</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D202" s="28"/>
       <c r="E202" s="28" t="s">
@@ -10125,7 +10125,7 @@
         <v>32</v>
       </c>
       <c r="C203" s="30" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
@@ -10150,7 +10150,7 @@
         <v>32</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D204" s="28"/>
       <c r="E204" s="28" t="s">
@@ -10175,7 +10175,7 @@
         <v>32</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D205" s="28"/>
       <c r="E205" s="28" t="s">
@@ -10200,7 +10200,7 @@
         <v>32</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10225,7 +10225,7 @@
         <v>32</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10241,7 +10241,7 @@
         <v>17</v>
       </c>
       <c r="I207" s="30" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="30">
@@ -10252,10 +10252,10 @@
         <v>32</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E208" s="28" t="s">
         <v>19</v>
@@ -10279,7 +10279,7 @@
         <v>32</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D209" s="28"/>
       <c r="E209" s="28" t="s">
@@ -10304,7 +10304,7 @@
         <v>409</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D210" s="28"/>
       <c r="E210" s="28" t="s">
@@ -10329,7 +10329,7 @@
         <v>409</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D211" s="28"/>
       <c r="E211" s="28" t="s">
@@ -10354,7 +10354,7 @@
         <v>409</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -10379,7 +10379,7 @@
         <v>410</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D213" s="28"/>
       <c r="E213" s="28" t="s">
@@ -10404,7 +10404,7 @@
         <v>410</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -10429,7 +10429,7 @@
         <v>410</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -10454,7 +10454,7 @@
         <v>410</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="28" t="s">
@@ -10479,7 +10479,7 @@
         <v>410</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D217" s="28"/>
       <c r="E217" s="28" t="s">
@@ -10504,7 +10504,7 @@
         <v>410</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -10529,7 +10529,7 @@
         <v>410</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -10554,7 +10554,7 @@
         <v>410</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -10579,7 +10579,7 @@
         <v>410</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D221" s="28"/>
       <c r="E221" s="28" t="s">
@@ -10604,7 +10604,7 @@
         <v>410</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="28" t="s">
@@ -10629,7 +10629,7 @@
         <v>410</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -10654,7 +10654,7 @@
         <v>410</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
@@ -10679,7 +10679,7 @@
         <v>410</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -10704,7 +10704,7 @@
         <v>410</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -10729,7 +10729,7 @@
         <v>411</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="28" t="s">
@@ -10754,7 +10754,7 @@
         <v>411</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D228" s="28"/>
       <c r="E228" s="28" t="s">
@@ -10779,7 +10779,7 @@
         <v>411</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D229" s="28"/>
       <c r="E229" s="28" t="s">
@@ -10804,7 +10804,7 @@
         <v>411</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -10829,7 +10829,7 @@
         <v>411</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -10854,7 +10854,7 @@
         <v>411</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -10879,7 +10879,7 @@
         <v>411</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="28" t="s">
@@ -10904,7 +10904,7 @@
         <v>411</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
@@ -10929,7 +10929,7 @@
         <v>411</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D235" s="28"/>
       <c r="E235" s="28" t="s">
@@ -10948,13 +10948,13 @@
     </row>
     <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
@@ -10973,13 +10973,13 @@
     </row>
     <row r="237" spans="1:9" ht="60">
       <c r="A237" s="28" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B237" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="28" t="s">
@@ -11004,7 +11004,7 @@
         <v>412</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -11029,7 +11029,7 @@
         <v>412</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
@@ -11054,7 +11054,7 @@
         <v>412</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
@@ -11079,7 +11079,7 @@
         <v>413</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="28" t="s">
@@ -11104,7 +11104,7 @@
         <v>414</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
@@ -11129,7 +11129,7 @@
         <v>415</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="28" t="s">
@@ -11154,7 +11154,7 @@
         <v>415</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
@@ -11179,7 +11179,7 @@
         <v>415</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
@@ -11204,7 +11204,7 @@
         <v>416</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -11229,7 +11229,7 @@
         <v>416</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="28" t="s">
@@ -11254,7 +11254,7 @@
         <v>416</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
@@ -11279,7 +11279,7 @@
         <v>417</v>
       </c>
       <c r="C249" s="30" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="28" t="s">
@@ -11304,7 +11304,7 @@
         <v>417</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -11329,7 +11329,7 @@
         <v>417</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -11354,7 +11354,7 @@
         <v>417</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -11379,7 +11379,7 @@
         <v>417</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
@@ -11404,7 +11404,7 @@
         <v>417</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="28" t="s">
@@ -11429,7 +11429,7 @@
         <v>417</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="28" t="s">
@@ -11454,7 +11454,7 @@
         <v>417</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -11479,7 +11479,7 @@
         <v>417</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -11504,7 +11504,7 @@
         <v>417</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -11529,7 +11529,7 @@
         <v>33</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="28" t="s">
@@ -11554,7 +11554,7 @@
         <v>33</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="28" t="s">
@@ -11579,7 +11579,7 @@
         <v>33</v>
       </c>
       <c r="C261" s="30" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D261" s="28"/>
       <c r="E261" s="28" t="s">
@@ -11604,7 +11604,7 @@
         <v>33</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
@@ -11629,7 +11629,7 @@
         <v>33</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -11654,7 +11654,7 @@
         <v>33</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -11679,7 +11679,7 @@
         <v>33</v>
       </c>
       <c r="C265" s="30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D265" s="28"/>
       <c r="E265" s="28" t="s">
@@ -11695,7 +11695,7 @@
         <v>17</v>
       </c>
       <c r="I265" s="30" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="30">
@@ -11706,10 +11706,10 @@
         <v>33</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E266" s="28" t="s">
         <v>19</v>
@@ -11733,7 +11733,7 @@
         <v>33</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D267" s="28"/>
       <c r="E267" s="28" t="s">
@@ -11758,7 +11758,7 @@
         <v>33</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -11783,7 +11783,7 @@
         <v>418</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -11808,7 +11808,7 @@
         <v>418</v>
       </c>
       <c r="C270" s="30" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
@@ -11833,7 +11833,7 @@
         <v>418</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D271" s="28"/>
       <c r="E271" s="28" t="s">
@@ -11858,7 +11858,7 @@
         <v>419</v>
       </c>
       <c r="C272" s="30" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="28" t="s">
@@ -11883,7 +11883,7 @@
         <v>419</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -11908,7 +11908,7 @@
         <v>419</v>
       </c>
       <c r="C274" s="30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -11933,7 +11933,7 @@
         <v>419</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -11958,7 +11958,7 @@
         <v>419</v>
       </c>
       <c r="C276" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="28" t="s">
@@ -11983,7 +11983,7 @@
         <v>419</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -12008,7 +12008,7 @@
         <v>419</v>
       </c>
       <c r="C278" s="30" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12033,7 +12033,7 @@
         <v>419</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12058,7 +12058,7 @@
         <v>419</v>
       </c>
       <c r="C280" s="30" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12083,7 +12083,7 @@
         <v>419</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="28" t="s">
@@ -12108,7 +12108,7 @@
         <v>419</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
@@ -12133,7 +12133,7 @@
         <v>419</v>
       </c>
       <c r="C283" s="30" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
@@ -12158,7 +12158,7 @@
         <v>420</v>
       </c>
       <c r="C284" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -12183,7 +12183,7 @@
         <v>420</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -12208,7 +12208,7 @@
         <v>420</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -12233,7 +12233,7 @@
         <v>420</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -12258,7 +12258,7 @@
         <v>420</v>
       </c>
       <c r="C288" s="30" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="28" t="s">
@@ -12283,7 +12283,7 @@
         <v>420</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12308,7 +12308,7 @@
         <v>420</v>
       </c>
       <c r="C290" s="30" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -12333,7 +12333,7 @@
         <v>420</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -12358,7 +12358,7 @@
         <v>420</v>
       </c>
       <c r="C292" s="30" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -12377,13 +12377,13 @@
     </row>
     <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -12402,13 +12402,13 @@
     </row>
     <row r="294" spans="1:9" ht="60">
       <c r="A294" s="28" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B294" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
@@ -12433,7 +12433,7 @@
         <v>421</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="28" t="s">
@@ -12458,7 +12458,7 @@
         <v>421</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="28" t="s">
@@ -12483,7 +12483,7 @@
         <v>421</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="28" t="s">
@@ -12508,7 +12508,7 @@
         <v>422</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
@@ -12533,7 +12533,7 @@
         <v>422</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
@@ -12558,7 +12558,7 @@
         <v>423</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -12583,7 +12583,7 @@
         <v>424</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
@@ -12608,7 +12608,7 @@
         <v>424</v>
       </c>
       <c r="C302" s="30" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
@@ -12633,7 +12633,7 @@
         <v>424</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
@@ -12658,7 +12658,7 @@
         <v>424</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="28" t="s">
@@ -12677,13 +12677,13 @@
     </row>
     <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -12702,13 +12702,13 @@
     </row>
     <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B306" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -12733,7 +12733,7 @@
         <v>425</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -12758,7 +12758,7 @@
         <v>425</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="28" t="s">
@@ -12783,7 +12783,7 @@
         <v>425</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D309" s="28"/>
       <c r="E309" s="28" t="s">
@@ -12808,7 +12808,7 @@
         <v>425</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D310" s="28"/>
       <c r="E310" s="28" t="s">
@@ -12833,7 +12833,7 @@
         <v>425</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -12858,7 +12858,7 @@
         <v>425</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="28" t="s">
@@ -12883,7 +12883,7 @@
         <v>426</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="28" t="s">
@@ -12908,7 +12908,7 @@
         <v>426</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="28" t="s">
@@ -12933,7 +12933,7 @@
         <v>426</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="28" t="s">
@@ -12958,7 +12958,7 @@
         <v>427</v>
       </c>
       <c r="C316" s="30" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D316" s="28"/>
       <c r="E316" s="28" t="s">
@@ -12983,7 +12983,7 @@
         <v>427</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="28" t="s">
@@ -13008,7 +13008,7 @@
         <v>427</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D318" s="28"/>
       <c r="E318" s="28" t="s">
@@ -13033,7 +13033,7 @@
         <v>427</v>
       </c>
       <c r="C319" s="30" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D319" s="28"/>
       <c r="E319" s="28" t="s">
@@ -13058,7 +13058,7 @@
         <v>427</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="28" t="s">
@@ -13083,7 +13083,7 @@
         <v>427</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28" t="s">
@@ -13105,10 +13105,10 @@
         <v>168</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="28" t="s">
@@ -13130,10 +13130,10 @@
         <v>169</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="28" t="s">
@@ -13155,10 +13155,10 @@
         <v>170</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -13180,10 +13180,10 @@
         <v>171</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="28" t="s">
@@ -13205,10 +13205,10 @@
         <v>172</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -13230,10 +13230,10 @@
         <v>173</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="28" t="s">
@@ -13255,10 +13255,10 @@
         <v>174</v>
       </c>
       <c r="B328" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="28" t="s">
@@ -13274,7 +13274,7 @@
         <v>17</v>
       </c>
       <c r="I328" s="30" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="30">
@@ -13282,13 +13282,13 @@
         <v>175</v>
       </c>
       <c r="B329" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C329" s="30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D329" s="28" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E329" s="28" t="s">
         <v>19</v>
@@ -13309,10 +13309,10 @@
         <v>176</v>
       </c>
       <c r="B330" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C330" s="30" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D330" s="28"/>
       <c r="E330" s="28" t="s">
@@ -13334,10 +13334,10 @@
         <v>177</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -13359,10 +13359,10 @@
         <v>178</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C332" s="30" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D332" s="28"/>
       <c r="E332" s="28" t="s">
@@ -13378,7 +13378,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="30" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="30">
@@ -13386,13 +13386,13 @@
         <v>179</v>
       </c>
       <c r="B333" s="29" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E333" s="28" t="s">
         <v>19</v>
@@ -13416,7 +13416,7 @@
         <v>428</v>
       </c>
       <c r="C334" s="30" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -13441,7 +13441,7 @@
         <v>428</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -13466,7 +13466,7 @@
         <v>428</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -13491,7 +13491,7 @@
         <v>428</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
@@ -13516,7 +13516,7 @@
         <v>428</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -13541,7 +13541,7 @@
         <v>429</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -13566,7 +13566,7 @@
         <v>429</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
@@ -13591,7 +13591,7 @@
         <v>429</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
@@ -13616,7 +13616,7 @@
         <v>430</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -13641,7 +13641,7 @@
         <v>430</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="28" t="s">
@@ -13666,7 +13666,7 @@
         <v>430</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
@@ -13691,7 +13691,7 @@
         <v>430</v>
       </c>
       <c r="C345" s="30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
@@ -13716,7 +13716,7 @@
         <v>430</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
@@ -13740,8 +13740,8 @@
       <c r="B347" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C347" s="30" t="s">
-        <v>856</v>
+      <c r="C347" s="19" t="s">
+        <v>938</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13766,7 +13766,7 @@
         <v>430</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -13790,8 +13790,8 @@
       <c r="B349" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C349" s="30" t="s">
-        <v>857</v>
+      <c r="C349" s="19" t="s">
+        <v>939</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -13816,7 +13816,7 @@
         <v>430</v>
       </c>
       <c r="C350" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -13841,7 +13841,7 @@
         <v>430</v>
       </c>
       <c r="C351" s="30" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="28" t="s">
@@ -13865,8 +13865,8 @@
       <c r="B352" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C352" s="30" t="s">
-        <v>858</v>
+      <c r="C352" s="19" t="s">
+        <v>940</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -13891,7 +13891,7 @@
         <v>430</v>
       </c>
       <c r="C353" s="30" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="28" t="s">
@@ -13916,7 +13916,7 @@
         <v>430</v>
       </c>
       <c r="C354" s="30" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="28" t="s">
@@ -13941,7 +13941,7 @@
         <v>430</v>
       </c>
       <c r="C355" s="30" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="28" t="s">
@@ -13966,7 +13966,7 @@
         <v>431</v>
       </c>
       <c r="C356" s="30" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="28" t="s">
@@ -13991,7 +13991,7 @@
         <v>431</v>
       </c>
       <c r="C357" s="30" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -14016,7 +14016,7 @@
         <v>431</v>
       </c>
       <c r="C358" s="30" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D358" s="28"/>
       <c r="E358" s="28" t="s">
@@ -14041,7 +14041,7 @@
         <v>431</v>
       </c>
       <c r="C359" s="30" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D359" s="28"/>
       <c r="E359" s="28" t="s">
@@ -14066,7 +14066,7 @@
         <v>431</v>
       </c>
       <c r="C360" s="30" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -14091,7 +14091,7 @@
         <v>431</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14116,7 +14116,7 @@
         <v>431</v>
       </c>
       <c r="C362" s="30" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D362" s="28"/>
       <c r="E362" s="28" t="s">
@@ -14141,7 +14141,7 @@
         <v>431</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="28" t="s">
@@ -14166,7 +14166,7 @@
         <v>431</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
@@ -14185,13 +14185,13 @@
     </row>
     <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28" t="s">
@@ -14210,13 +14210,13 @@
     </row>
     <row r="366" spans="1:9" ht="60">
       <c r="A366" s="28" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B366" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="28" t="s">
@@ -14241,7 +14241,7 @@
         <v>432</v>
       </c>
       <c r="C367" s="30" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="28" t="s">
@@ -14266,7 +14266,7 @@
         <v>432</v>
       </c>
       <c r="C368" s="30" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D368" s="28"/>
       <c r="E368" s="28" t="s">
@@ -14291,7 +14291,7 @@
         <v>432</v>
       </c>
       <c r="C369" s="30" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D369" s="28"/>
       <c r="E369" s="28" t="s">
@@ -14316,7 +14316,7 @@
         <v>433</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
@@ -14341,7 +14341,7 @@
         <v>434</v>
       </c>
       <c r="C371" s="30" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D371" s="28"/>
       <c r="E371" s="28" t="s">
@@ -14366,7 +14366,7 @@
         <v>435</v>
       </c>
       <c r="C372" s="30" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D372" s="28"/>
       <c r="E372" s="28" t="s">
@@ -14391,7 +14391,7 @@
         <v>435</v>
       </c>
       <c r="C373" s="30" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
@@ -14416,7 +14416,7 @@
         <v>435</v>
       </c>
       <c r="C374" s="30" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="28" t="s">
@@ -14441,7 +14441,7 @@
         <v>435</v>
       </c>
       <c r="C375" s="30" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="28" t="s">
@@ -14466,7 +14466,7 @@
         <v>436</v>
       </c>
       <c r="C376" s="30" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="28" t="s">
@@ -14491,7 +14491,7 @@
         <v>436</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="28" t="s">
@@ -14516,7 +14516,7 @@
         <v>437</v>
       </c>
       <c r="C378" s="30" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="28" t="s">
@@ -14541,7 +14541,7 @@
         <v>437</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="28" t="s">
@@ -14566,7 +14566,7 @@
         <v>437</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="28" t="s">
@@ -14591,7 +14591,7 @@
         <v>437</v>
       </c>
       <c r="C381" s="30" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="28" t="s">
@@ -14616,7 +14616,7 @@
         <v>437</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="28" t="s">
@@ -14641,7 +14641,7 @@
         <v>437</v>
       </c>
       <c r="C383" s="30" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
@@ -14666,7 +14666,7 @@
         <v>437</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -14691,7 +14691,7 @@
         <v>438</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -14716,7 +14716,7 @@
         <v>438</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -14741,7 +14741,7 @@
         <v>438</v>
       </c>
       <c r="C387" s="30" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -14766,7 +14766,7 @@
         <v>438</v>
       </c>
       <c r="C388" s="30" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -14791,7 +14791,7 @@
         <v>438</v>
       </c>
       <c r="C389" s="30" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -14807,7 +14807,7 @@
         <v>17</v>
       </c>
       <c r="I389" s="30" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="30">
@@ -14818,10 +14818,10 @@
         <v>438</v>
       </c>
       <c r="C390" s="30" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D390" s="28" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E390" s="28" t="s">
         <v>19</v>
@@ -14845,7 +14845,7 @@
         <v>438</v>
       </c>
       <c r="C391" s="30" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -14870,7 +14870,7 @@
         <v>438</v>
       </c>
       <c r="C392" s="30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="28" t="s">
@@ -14895,7 +14895,7 @@
         <v>438</v>
       </c>
       <c r="C393" s="30" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="28" t="s">
@@ -14911,7 +14911,7 @@
         <v>17</v>
       </c>
       <c r="I393" s="30" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="30">
@@ -14922,7 +14922,7 @@
         <v>438</v>
       </c>
       <c r="C394" s="30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -14941,13 +14941,13 @@
     </row>
     <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -14966,16 +14966,16 @@
     </row>
     <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C396" s="30" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="D396" s="28" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="E396" s="28" t="s">
         <v>19</v>
@@ -14999,7 +14999,7 @@
         <v>438</v>
       </c>
       <c r="C397" s="30" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -15024,7 +15024,7 @@
         <v>438</v>
       </c>
       <c r="C398" s="30" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
@@ -15048,8 +15048,8 @@
       <c r="B399" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C399" s="30" t="s">
-        <v>714</v>
+      <c r="C399" s="19" t="s">
+        <v>941</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15073,8 +15073,8 @@
       <c r="B400" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C400" s="30" t="s">
-        <v>715</v>
+      <c r="C400" s="19" t="s">
+        <v>942</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15098,11 +15098,11 @@
       <c r="B401" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C401" s="30" t="s">
-        <v>716</v>
+      <c r="C401" s="19" t="s">
+        <v>711</v>
       </c>
       <c r="D401" s="28" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E401" s="28" t="s">
         <v>22</v>
@@ -15117,21 +15117,21 @@
         <v>21</v>
       </c>
       <c r="I401" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="75">
       <c r="A402" s="28" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B402" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
@@ -15146,21 +15146,21 @@
         <v>20</v>
       </c>
       <c r="I402" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D403" s="28" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="E403" s="28" t="s">
         <v>22</v>
@@ -15178,16 +15178,16 @@
     </row>
     <row r="404" spans="1:9" ht="45">
       <c r="A404" s="28" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="D404" s="28" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="E404" s="28" t="s">
         <v>22</v>
@@ -15202,21 +15202,21 @@
         <v>21</v>
       </c>
       <c r="I404" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D405" s="21" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="E405" s="28" t="s">
         <v>22</v>
@@ -15234,16 +15234,16 @@
     </row>
     <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D406" s="28" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="E406" s="28" t="s">
         <v>22</v>
@@ -15258,21 +15258,21 @@
         <v>21</v>
       </c>
       <c r="I406" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C407" s="30" t="s">
-        <v>900</v>
+      <c r="C407" s="19" t="s">
+        <v>889</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
@@ -15287,21 +15287,21 @@
         <v>20</v>
       </c>
       <c r="I407" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C408" s="30" t="s">
-        <v>932</v>
+      <c r="C408" s="19" t="s">
+        <v>947</v>
       </c>
       <c r="D408" s="28" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15319,16 +15319,16 @@
     </row>
     <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
@@ -15346,16 +15346,16 @@
     </row>
     <row r="410" spans="1:9" ht="45">
       <c r="A410" s="28" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>881</v>
+        <v>943</v>
       </c>
       <c r="D410" s="21" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="E410" s="28" t="s">
         <v>22</v>
@@ -15370,21 +15370,21 @@
         <v>21</v>
       </c>
       <c r="I410" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="60">
       <c r="A411" s="28" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B411" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C411" s="30" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D411" s="28" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="E411" s="28" t="s">
         <v>22</v>
@@ -15402,16 +15402,16 @@
     </row>
     <row r="412" spans="1:9" ht="45">
       <c r="A412" s="28" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B412" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D412" s="28" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="E412" s="28" t="s">
         <v>22</v>
@@ -15426,21 +15426,21 @@
         <v>21</v>
       </c>
       <c r="I412" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B413" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C413" s="30" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
@@ -15458,16 +15458,16 @@
     </row>
     <row r="414" spans="1:9" ht="45">
       <c r="A414" s="28" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B414" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C414" s="30" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
@@ -15482,7 +15482,7 @@
         <v>20</v>
       </c>
       <c r="I414" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="75">
@@ -15493,10 +15493,10 @@
         <v>439</v>
       </c>
       <c r="C415" s="30" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E415" s="28" t="s">
         <v>22</v>
@@ -15511,7 +15511,7 @@
         <v>20</v>
       </c>
       <c r="I415" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="75">
@@ -15522,10 +15522,10 @@
         <v>439</v>
       </c>
       <c r="C416" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="D416" s="28" t="s">
         <v>907</v>
-      </c>
-      <c r="D416" s="28" t="s">
-        <v>918</v>
       </c>
       <c r="E416" s="28" t="s">
         <v>22</v>
@@ -15540,7 +15540,7 @@
         <v>20</v>
       </c>
       <c r="I416" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="75">
@@ -15551,10 +15551,10 @@
         <v>439</v>
       </c>
       <c r="C417" s="30" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D417" s="28" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E417" s="28" t="s">
         <v>22</v>
@@ -15569,7 +15569,7 @@
         <v>20</v>
       </c>
       <c r="I417" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="105">
@@ -15580,10 +15580,10 @@
         <v>439</v>
       </c>
       <c r="C418" s="30" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D418" s="28" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E418" s="28" t="s">
         <v>22</v>
@@ -15598,21 +15598,21 @@
         <v>20</v>
       </c>
       <c r="I418" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="30">
-      <c r="A419" s="28" t="s">
-        <v>904</v>
+      <c r="A419" s="21" t="s">
+        <v>893</v>
       </c>
       <c r="B419" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C419" s="30" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="D419" s="28" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E419" s="28" t="s">
         <v>22</v>
@@ -15629,14 +15629,14 @@
       <c r="I419" s="30"/>
     </row>
     <row r="420" spans="1:9" ht="45">
-      <c r="A420" s="28" t="s">
+      <c r="A420" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B420" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="C420" s="30" t="s">
-        <v>717</v>
+      <c r="B420" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>949</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15657,11 +15657,11 @@
       <c r="A421" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="B421" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="C421" s="30" t="s">
-        <v>718</v>
+      <c r="B421" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="C421" s="19" t="s">
+        <v>945</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15682,11 +15682,11 @@
       <c r="A422" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B422" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="C422" s="30" t="s">
-        <v>719</v>
+      <c r="B422" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="C422" s="19" t="s">
+        <v>712</v>
       </c>
       <c r="D422" s="28"/>
       <c r="E422" s="28" t="s">
@@ -15713,17 +15713,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
@@ -16024,7 +16024,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B10:B17 B19:B42 B419:B424 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B10:B17 B19:B42 B419 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395 B423:B424" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED12EB-1F41-4C47-B3B9-EC9D0D74B758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615C0CA-22FE-433A-964D-0541E30AAAAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -3498,9 +3498,6 @@
     <t>[In tns:CreateAttachmentSoapIn Message][The type of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
   </si>
   <si>
-    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    ).</t>
-  </si>
-  <si>
     <t>[In tns:DeleteAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
   </si>
   <si>
@@ -3525,12 +3522,6 @@
     <t>[In tns:GetAttachmentSoapIn Message][The RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the Person element. (Exchange 2016  and above follow this behavior).</t>
   </si>
   <si>
@@ -3543,13 +3534,26 @@
     <t>2.2.3.10</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019.)</t>
-  </si>
-  <si>
     <t>2.2.4.50</t>
   </si>
   <si>
     <t>[In m:ResponseCodeType Simple Type] The value "ErrorUnsupportedMimeConversion" occurs when an attempt is made to retrieve  MIME content for an item other than a PostItemType, MessageType, or CalendarItemType object.</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019 follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3557,14 +3561,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3604,6 +3608,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3769,7 +3774,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3807,7 +3812,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3848,8 +3853,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3861,27 +3866,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3906,6 +3890,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5136,26 +5141,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>735</v>
       </c>
@@ -5167,7 +5172,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>736</v>
       </c>
@@ -5181,7 +5186,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>25</v>
@@ -5202,141 +5207,141 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="56" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>737</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5360,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -5374,7 +5379,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5398,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -5412,59 +5417,59 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" ht="60">
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
@@ -5519,7 +5524,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -5545,7 +5550,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -5571,7 +5576,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -5597,7 +5602,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -5623,7 +5628,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
@@ -5649,7 +5654,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="26" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -5675,7 +5680,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1">
+    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -5701,7 +5706,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1">
+    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -5727,7 +5732,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="29" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -5753,7 +5758,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1">
+    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>743</v>
       </c>
@@ -5779,7 +5784,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
@@ -5807,7 +5812,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -5833,7 +5838,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="33" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
@@ -5859,7 +5864,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -5885,7 +5890,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>55</v>
       </c>
@@ -5910,7 +5915,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>56</v>
       </c>
@@ -5935,7 +5940,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="30">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
@@ -5960,7 +5965,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -5985,7 +5990,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
@@ -6010,7 +6015,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>745</v>
       </c>
@@ -6035,7 +6040,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>60</v>
       </c>
@@ -6060,7 +6065,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>748</v>
       </c>
@@ -6085,7 +6090,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>61</v>
       </c>
@@ -6110,7 +6115,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>62</v>
       </c>
@@ -6135,7 +6140,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="45">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -6160,7 +6165,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="75">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
@@ -6185,7 +6190,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
@@ -6210,7 +6215,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="45">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
@@ -6235,7 +6240,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>67</v>
       </c>
@@ -6260,7 +6265,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
@@ -6285,7 +6290,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
@@ -6310,7 +6315,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
@@ -6335,7 +6340,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
@@ -6360,7 +6365,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>752</v>
       </c>
@@ -6385,7 +6390,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
@@ -6410,7 +6415,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
@@ -6435,7 +6440,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>74</v>
       </c>
@@ -6462,7 +6467,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
@@ -6489,7 +6494,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="270">
+    <row r="59" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>76</v>
       </c>
@@ -6514,7 +6519,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>77</v>
       </c>
@@ -6539,7 +6544,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
@@ -6564,7 +6569,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6594,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>80</v>
       </c>
@@ -6614,7 +6619,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>81</v>
       </c>
@@ -6639,7 +6644,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>757</v>
       </c>
@@ -6664,7 +6669,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>758</v>
       </c>
@@ -6689,7 +6694,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>82</v>
       </c>
@@ -6714,7 +6719,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>83</v>
       </c>
@@ -6739,7 +6744,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="255">
+    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>84</v>
       </c>
@@ -6764,7 +6769,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>85</v>
       </c>
@@ -6789,7 +6794,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>86</v>
       </c>
@@ -6814,7 +6819,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>87</v>
       </c>
@@ -6839,7 +6844,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>902</v>
       </c>
@@ -6864,7 +6869,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
@@ -6918,7 +6923,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>90</v>
       </c>
@@ -6943,7 +6948,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
@@ -6968,7 +6973,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="45">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>93</v>
       </c>
@@ -7022,7 +7027,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
@@ -7047,7 +7052,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="240">
+    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -7072,7 +7077,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>97</v>
       </c>
@@ -7122,7 +7127,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>98</v>
       </c>
@@ -7147,7 +7152,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7179,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>100</v>
       </c>
@@ -7201,7 +7206,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="409.5">
+    <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>101</v>
       </c>
@@ -7226,7 +7231,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>102</v>
       </c>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>103</v>
       </c>
@@ -7276,7 +7281,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
@@ -7301,7 +7306,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
@@ -7326,7 +7331,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>106</v>
       </c>
@@ -7351,7 +7356,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>107</v>
       </c>
@@ -7376,7 +7381,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>108</v>
       </c>
@@ -7401,7 +7406,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="45">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>109</v>
       </c>
@@ -7426,7 +7431,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>110</v>
       </c>
@@ -7451,7 +7456,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>111</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
@@ -7505,7 +7510,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>113</v>
       </c>
@@ -7530,7 +7535,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>114</v>
       </c>
@@ -7555,7 +7560,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>115</v>
       </c>
@@ -7580,7 +7585,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>116</v>
       </c>
@@ -7605,7 +7610,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>117</v>
       </c>
@@ -7630,7 +7635,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>118</v>
       </c>
@@ -7655,7 +7660,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -7680,7 +7685,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -7707,7 +7712,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -7732,7 +7737,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -7757,7 +7762,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -7782,7 +7787,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -7807,7 +7812,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -7832,7 +7837,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="330">
+    <row r="112" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -7857,7 +7862,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -7882,7 +7887,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -7909,7 +7914,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -7934,7 +7939,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -7959,7 +7964,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -7984,7 +7989,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -8009,7 +8014,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8034,7 +8039,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="60">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>764</v>
       </c>
@@ -8061,7 +8066,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>765</v>
       </c>
@@ -8086,7 +8091,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="409.5">
+    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>134</v>
       </c>
@@ -8111,7 +8116,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="60">
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>135</v>
       </c>
@@ -8136,7 +8141,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="30">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8188,7 +8193,7 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>138</v>
       </c>
@@ -8213,7 +8218,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>139</v>
       </c>
@@ -8238,7 +8243,7 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="30">
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>140</v>
       </c>
@@ -8263,7 +8268,7 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>141</v>
       </c>
@@ -8288,7 +8293,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>142</v>
       </c>
@@ -8313,7 +8318,7 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>143</v>
       </c>
@@ -8338,7 +8343,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>144</v>
       </c>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>145</v>
       </c>
@@ -8388,7 +8393,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>146</v>
       </c>
@@ -8413,7 +8418,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>147</v>
       </c>
@@ -8438,7 +8443,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>148</v>
       </c>
@@ -8463,7 +8468,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>149</v>
       </c>
@@ -8488,7 +8493,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>150</v>
       </c>
@@ -8513,7 +8518,7 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>151</v>
       </c>
@@ -8538,7 +8543,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>152</v>
       </c>
@@ -8563,7 +8568,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>153</v>
       </c>
@@ -8588,7 +8593,7 @@
       </c>
       <c r="I141" s="30"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>154</v>
       </c>
@@ -8613,7 +8618,7 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>155</v>
       </c>
@@ -8638,7 +8643,7 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>779</v>
       </c>
@@ -8663,7 +8668,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>780</v>
       </c>
@@ -8688,7 +8693,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>781</v>
       </c>
@@ -8713,7 +8718,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>782</v>
       </c>
@@ -8738,7 +8743,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>783</v>
       </c>
@@ -8763,7 +8768,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" ht="45">
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>784</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>785</v>
       </c>
@@ -8815,7 +8820,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>786</v>
       </c>
@@ -8840,7 +8845,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="45">
+    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>156</v>
       </c>
@@ -8865,7 +8870,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="180">
+    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>157</v>
       </c>
@@ -8890,7 +8895,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>158</v>
       </c>
@@ -8915,7 +8920,7 @@
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>159</v>
       </c>
@@ -8940,7 +8945,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>160</v>
       </c>
@@ -8965,7 +8970,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>806</v>
       </c>
@@ -8990,7 +8995,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>807</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="330">
+    <row r="159" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>915</v>
       </c>
@@ -9042,7 +9047,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>808</v>
       </c>
@@ -9067,7 +9072,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>809</v>
       </c>
@@ -9092,7 +9097,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>810</v>
       </c>
@@ -9117,7 +9122,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>811</v>
       </c>
@@ -9142,7 +9147,7 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>812</v>
       </c>
@@ -9167,7 +9172,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>813</v>
       </c>
@@ -9192,7 +9197,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>814</v>
       </c>
@@ -9217,7 +9222,7 @@
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>815</v>
       </c>
@@ -9242,7 +9247,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>816</v>
       </c>
@@ -9267,7 +9272,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>817</v>
       </c>
@@ -9292,7 +9297,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>818</v>
       </c>
@@ -9317,7 +9322,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>819</v>
       </c>
@@ -9342,7 +9347,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>820</v>
       </c>
@@ -9367,7 +9372,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>821</v>
       </c>
@@ -9392,7 +9397,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>822</v>
       </c>
@@ -9417,7 +9422,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>161</v>
       </c>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>162</v>
       </c>
@@ -9467,7 +9472,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="210">
+    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>163</v>
       </c>
@@ -9492,7 +9497,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>164</v>
       </c>
@@ -9517,7 +9522,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>165</v>
       </c>
@@ -9542,7 +9547,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>166</v>
       </c>
@@ -9567,7 +9572,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>167</v>
       </c>
@@ -9592,7 +9597,7 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>180</v>
       </c>
@@ -9617,7 +9622,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>181</v>
       </c>
@@ -9642,7 +9647,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>182</v>
       </c>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>183</v>
       </c>
@@ -9692,7 +9697,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>184</v>
       </c>
@@ -9717,7 +9722,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>185</v>
       </c>
@@ -9742,7 +9747,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>186</v>
       </c>
@@ -9767,7 +9772,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="45">
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>187</v>
       </c>
@@ -9792,7 +9797,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>188</v>
       </c>
@@ -9817,7 +9822,7 @@
       </c>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" ht="45">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>189</v>
       </c>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="45">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>190</v>
       </c>
@@ -9867,7 +9872,7 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>191</v>
       </c>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="60">
+    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>192</v>
       </c>
@@ -9917,7 +9922,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>193</v>
       </c>
@@ -9942,7 +9947,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="60">
+    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>194</v>
       </c>
@@ -9967,7 +9972,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>195</v>
       </c>
@@ -9992,7 +9997,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>196</v>
       </c>
@@ -10017,7 +10022,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>197</v>
       </c>
@@ -10042,7 +10047,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>198</v>
       </c>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>199</v>
       </c>
@@ -10092,7 +10097,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="90">
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>200</v>
       </c>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="345">
+    <row r="203" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>201</v>
       </c>
@@ -10142,7 +10147,7 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>202</v>
       </c>
@@ -10167,7 +10172,7 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>203</v>
       </c>
@@ -10192,7 +10197,7 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>204</v>
       </c>
@@ -10217,7 +10222,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="45">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>205</v>
       </c>
@@ -10244,7 +10249,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>206</v>
       </c>
@@ -10271,7 +10276,7 @@
       </c>
       <c r="I208" s="30"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>207</v>
       </c>
@@ -10296,7 +10301,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>210</v>
       </c>
@@ -10321,7 +10326,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>211</v>
       </c>
@@ -10346,7 +10351,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>212</v>
       </c>
@@ -10371,7 +10376,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="135">
+    <row r="213" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>213</v>
       </c>
@@ -10396,7 +10401,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>214</v>
       </c>
@@ -10421,7 +10426,7 @@
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>215</v>
       </c>
@@ -10446,7 +10451,7 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>216</v>
       </c>
@@ -10471,7 +10476,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>217</v>
       </c>
@@ -10496,7 +10501,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>218</v>
       </c>
@@ -10521,7 +10526,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>219</v>
       </c>
@@ -10546,7 +10551,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>220</v>
       </c>
@@ -10571,7 +10576,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>221</v>
       </c>
@@ -10596,7 +10601,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>222</v>
       </c>
@@ -10621,7 +10626,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>223</v>
       </c>
@@ -10646,7 +10651,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>224</v>
       </c>
@@ -10671,7 +10676,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>225</v>
       </c>
@@ -10696,7 +10701,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>226</v>
       </c>
@@ -10721,7 +10726,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="120">
+    <row r="227" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>227</v>
       </c>
@@ -10746,7 +10751,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>228</v>
       </c>
@@ -10771,7 +10776,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>229</v>
       </c>
@@ -10796,7 +10801,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>230</v>
       </c>
@@ -10821,7 +10826,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>231</v>
       </c>
@@ -10846,7 +10851,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>232</v>
       </c>
@@ -10854,7 +10859,7 @@
         <v>411</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -10871,7 +10876,7 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>233</v>
       </c>
@@ -10896,7 +10901,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
         <v>208</v>
       </c>
@@ -10921,7 +10926,7 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45">
+    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>209</v>
       </c>
@@ -10946,7 +10951,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45">
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>855</v>
       </c>
@@ -10971,7 +10976,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="60">
+    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>856</v>
       </c>
@@ -10996,7 +11001,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>234</v>
       </c>
@@ -11021,7 +11026,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>235</v>
       </c>
@@ -11046,7 +11051,7 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>236</v>
       </c>
@@ -11071,7 +11076,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="75">
+    <row r="241" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>237</v>
       </c>
@@ -11096,7 +11101,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="75">
+    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>238</v>
       </c>
@@ -11121,7 +11126,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45">
+    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>239</v>
       </c>
@@ -11146,7 +11151,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
         <v>240</v>
       </c>
@@ -11171,7 +11176,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>241</v>
       </c>
@@ -11196,7 +11201,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="45">
+    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>242</v>
       </c>
@@ -11221,7 +11226,7 @@
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="45">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>243</v>
       </c>
@@ -11246,7 +11251,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="135">
+    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>244</v>
       </c>
@@ -11271,7 +11276,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>245</v>
       </c>
@@ -11296,7 +11301,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>246</v>
       </c>
@@ -11321,7 +11326,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="270">
+    <row r="251" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>247</v>
       </c>
@@ -11346,7 +11351,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="45">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>248</v>
       </c>
@@ -11371,7 +11376,7 @@
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>249</v>
       </c>
@@ -11396,7 +11401,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>250</v>
       </c>
@@ -11421,7 +11426,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>251</v>
       </c>
@@ -11446,7 +11451,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>252</v>
       </c>
@@ -11471,7 +11476,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>253</v>
       </c>
@@ -11496,7 +11501,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>254</v>
       </c>
@@ -11521,7 +11526,7 @@
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>255</v>
       </c>
@@ -11546,7 +11551,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="90">
+    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>256</v>
       </c>
@@ -11571,7 +11576,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="315">
+    <row r="261" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>257</v>
       </c>
@@ -11596,7 +11601,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>258</v>
       </c>
@@ -11621,7 +11626,7 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>259</v>
       </c>
@@ -11646,7 +11651,7 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>260</v>
       </c>
@@ -11671,7 +11676,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>261</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>262</v>
       </c>
@@ -11725,7 +11730,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>263</v>
       </c>
@@ -11750,7 +11755,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>264</v>
       </c>
@@ -11775,7 +11780,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>267</v>
       </c>
@@ -11800,7 +11805,7 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>268</v>
       </c>
@@ -11825,7 +11830,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>269</v>
       </c>
@@ -11850,7 +11855,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="120">
+    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>270</v>
       </c>
@@ -11875,7 +11880,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>271</v>
       </c>
@@ -11900,7 +11905,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>272</v>
       </c>
@@ -11925,7 +11930,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>273</v>
       </c>
@@ -11950,7 +11955,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>274</v>
       </c>
@@ -11975,7 +11980,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>275</v>
       </c>
@@ -11983,7 +11988,7 @@
         <v>419</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -12000,7 +12005,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>276</v>
       </c>
@@ -12025,7 +12030,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>277</v>
       </c>
@@ -12033,7 +12038,7 @@
         <v>419</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12050,7 +12055,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>278</v>
       </c>
@@ -12075,7 +12080,7 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>279</v>
       </c>
@@ -12100,7 +12105,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>280</v>
       </c>
@@ -12108,7 +12113,7 @@
         <v>419</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
@@ -12125,7 +12130,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>281</v>
       </c>
@@ -12150,7 +12155,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="120">
+    <row r="284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>282</v>
       </c>
@@ -12175,7 +12180,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="45">
+    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>283</v>
       </c>
@@ -12200,7 +12205,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="45">
+    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>284</v>
       </c>
@@ -12225,7 +12230,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>285</v>
       </c>
@@ -12250,7 +12255,7 @@
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>286</v>
       </c>
@@ -12275,7 +12280,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>287</v>
       </c>
@@ -12283,7 +12288,7 @@
         <v>420</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12300,7 +12305,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>288</v>
       </c>
@@ -12325,7 +12330,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>265</v>
       </c>
@@ -12350,7 +12355,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>266</v>
       </c>
@@ -12375,7 +12380,7 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>835</v>
       </c>
@@ -12400,7 +12405,7 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="60">
+    <row r="294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>836</v>
       </c>
@@ -12425,7 +12430,7 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>289</v>
       </c>
@@ -12450,7 +12455,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>290</v>
       </c>
@@ -12475,7 +12480,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>291</v>
       </c>
@@ -12500,7 +12505,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>292</v>
       </c>
@@ -12525,7 +12530,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>293</v>
       </c>
@@ -12550,7 +12555,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="75">
+    <row r="300" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
         <v>294</v>
       </c>
@@ -12575,7 +12580,7 @@
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>295</v>
       </c>
@@ -12600,7 +12605,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>296</v>
       </c>
@@ -12625,7 +12630,7 @@
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
         <v>297</v>
       </c>
@@ -12650,7 +12655,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>298</v>
       </c>
@@ -12675,7 +12680,7 @@
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>838</v>
       </c>
@@ -12700,7 +12705,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>839</v>
       </c>
@@ -12725,7 +12730,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="45">
+    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>299</v>
       </c>
@@ -12750,7 +12755,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="45">
+    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>300</v>
       </c>
@@ -12775,7 +12780,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="240">
+    <row r="309" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>301</v>
       </c>
@@ -12800,7 +12805,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="45">
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>302</v>
       </c>
@@ -12825,7 +12830,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>303</v>
       </c>
@@ -12850,7 +12855,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>304</v>
       </c>
@@ -12875,7 +12880,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="45">
+    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>305</v>
       </c>
@@ -12900,7 +12905,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="45">
+    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>306</v>
       </c>
@@ -12925,7 +12930,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="135">
+    <row r="315" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>307</v>
       </c>
@@ -12950,7 +12955,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>308</v>
       </c>
@@ -12975,7 +12980,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>309</v>
       </c>
@@ -13000,7 +13005,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="225">
+    <row r="318" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>310</v>
       </c>
@@ -13025,7 +13030,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>311</v>
       </c>
@@ -13050,7 +13055,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>312</v>
       </c>
@@ -13075,7 +13080,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>313</v>
       </c>
@@ -13100,7 +13105,7 @@
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>168</v>
       </c>
@@ -13125,7 +13130,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>169</v>
       </c>
@@ -13150,7 +13155,7 @@
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="255">
+    <row r="324" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>170</v>
       </c>
@@ -13175,7 +13180,7 @@
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="45">
+    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>171</v>
       </c>
@@ -13200,7 +13205,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>172</v>
       </c>
@@ -13225,7 +13230,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>173</v>
       </c>
@@ -13250,7 +13255,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>174</v>
       </c>
@@ -13277,7 +13282,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>175</v>
       </c>
@@ -13304,7 +13309,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>176</v>
       </c>
@@ -13329,7 +13334,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>177</v>
       </c>
@@ -13354,7 +13359,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>178</v>
       </c>
@@ -13381,7 +13386,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>179</v>
       </c>
@@ -13408,7 +13413,7 @@
       </c>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
         <v>314</v>
       </c>
@@ -13433,7 +13438,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="90">
+    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>315</v>
       </c>
@@ -13458,7 +13463,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="345">
+    <row r="336" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>316</v>
       </c>
@@ -13483,7 +13488,7 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
         <v>317</v>
       </c>
@@ -13508,7 +13513,7 @@
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>318</v>
       </c>
@@ -13533,7 +13538,7 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>321</v>
       </c>
@@ -13558,7 +13563,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>322</v>
       </c>
@@ -13583,7 +13588,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>323</v>
       </c>
@@ -13608,7 +13613,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="135">
+    <row r="342" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>324</v>
       </c>
@@ -13633,7 +13638,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>325</v>
       </c>
@@ -13658,7 +13663,7 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>326</v>
       </c>
@@ -13683,7 +13688,7 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>327</v>
       </c>
@@ -13708,7 +13713,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>328</v>
       </c>
@@ -13733,7 +13738,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>329</v>
       </c>
@@ -13741,7 +13746,7 @@
         <v>430</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13758,7 +13763,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>330</v>
       </c>
@@ -13783,7 +13788,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>331</v>
       </c>
@@ -13791,7 +13796,7 @@
         <v>430</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -13808,7 +13813,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>332</v>
       </c>
@@ -13833,7 +13838,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>333</v>
       </c>
@@ -13858,7 +13863,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="30">
+    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>334</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>430</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -13883,7 +13888,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>335</v>
       </c>
@@ -13908,7 +13913,7 @@
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>336</v>
       </c>
@@ -13933,7 +13938,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>337</v>
       </c>
@@ -13958,7 +13963,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="90">
+    <row r="356" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>338</v>
       </c>
@@ -13983,7 +13988,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
         <v>339</v>
       </c>
@@ -14008,7 +14013,7 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="45">
+    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
         <v>340</v>
       </c>
@@ -14033,7 +14038,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
         <v>341</v>
       </c>
@@ -14058,7 +14063,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
         <v>342</v>
       </c>
@@ -14083,7 +14088,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
         <v>343</v>
       </c>
@@ -14091,7 +14096,7 @@
         <v>431</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14108,7 +14113,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
         <v>344</v>
       </c>
@@ -14133,7 +14138,7 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
         <v>319</v>
       </c>
@@ -14158,7 +14163,7 @@
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
         <v>320</v>
       </c>
@@ -14183,7 +14188,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="45">
+    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
         <v>850</v>
       </c>
@@ -14208,7 +14213,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="60">
+    <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
         <v>851</v>
       </c>
@@ -14233,7 +14238,7 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="28" t="s">
         <v>345</v>
       </c>
@@ -14258,7 +14263,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
         <v>346</v>
       </c>
@@ -14283,7 +14288,7 @@
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
         <v>347</v>
       </c>
@@ -14308,7 +14313,7 @@
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="75">
+    <row r="370" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
         <v>348</v>
       </c>
@@ -14333,7 +14338,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="75">
+    <row r="371" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
         <v>349</v>
       </c>
@@ -14358,7 +14363,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="60">
+    <row r="372" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
         <v>350</v>
       </c>
@@ -14383,7 +14388,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
         <v>351</v>
       </c>
@@ -14408,7 +14413,7 @@
       </c>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
         <v>352</v>
       </c>
@@ -14433,7 +14438,7 @@
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="30">
+    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>353</v>
       </c>
@@ -14458,7 +14463,7 @@
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="45">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
         <v>354</v>
       </c>
@@ -14483,7 +14488,7 @@
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="150">
+    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>355</v>
       </c>
@@ -14508,7 +14513,7 @@
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
         <v>356</v>
       </c>
@@ -14533,7 +14538,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="285">
+    <row r="379" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
         <v>357</v>
       </c>
@@ -14558,7 +14563,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
         <v>358</v>
       </c>
@@ -14583,7 +14588,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="28" t="s">
         <v>359</v>
       </c>
@@ -14608,7 +14613,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="28" t="s">
         <v>360</v>
       </c>
@@ -14633,7 +14638,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="28" t="s">
         <v>361</v>
       </c>
@@ -14658,7 +14663,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>362</v>
       </c>
@@ -14683,7 +14688,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="345">
+    <row r="385" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A385" s="28" t="s">
         <v>363</v>
       </c>
@@ -14708,7 +14713,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="45">
+    <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="28" t="s">
         <v>364</v>
       </c>
@@ -14733,7 +14738,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>365</v>
       </c>
@@ -14758,7 +14763,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
         <v>366</v>
       </c>
@@ -14783,7 +14788,7 @@
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="90">
+    <row r="389" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="28" t="s">
         <v>367</v>
       </c>
@@ -14810,7 +14815,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="28" t="s">
         <v>368</v>
       </c>
@@ -14837,7 +14842,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
         <v>373</v>
       </c>
@@ -14862,7 +14867,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="28" t="s">
         <v>374</v>
       </c>
@@ -14887,7 +14892,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="45">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="28" t="s">
         <v>375</v>
       </c>
@@ -14914,7 +14919,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="28" t="s">
         <v>376</v>
       </c>
@@ -14939,7 +14944,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="28" t="s">
         <v>873</v>
       </c>
@@ -14964,7 +14969,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="28" t="s">
         <v>876</v>
       </c>
@@ -14991,7 +14996,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="30">
+    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="28" t="s">
         <v>377</v>
       </c>
@@ -15016,7 +15021,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="28" t="s">
         <v>378</v>
       </c>
@@ -15041,7 +15046,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="28" t="s">
         <v>379</v>
       </c>
@@ -15049,7 +15054,7 @@
         <v>439</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15066,7 +15071,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="28" t="s">
         <v>380</v>
       </c>
@@ -15074,7 +15079,7 @@
         <v>439</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15091,7 +15096,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="28" t="s">
         <v>381</v>
       </c>
@@ -15120,7 +15125,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75">
+    <row r="402" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="28" t="s">
         <v>766</v>
       </c>
@@ -15149,7 +15154,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
         <v>877</v>
       </c>
@@ -15176,7 +15181,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="28" t="s">
         <v>878</v>
       </c>
@@ -15205,7 +15210,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28" t="s">
         <v>879</v>
       </c>
@@ -15232,7 +15237,7 @@
       </c>
       <c r="I405" s="19"/>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="28" t="s">
         <v>880</v>
       </c>
@@ -15261,7 +15266,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="28" t="s">
         <v>888</v>
       </c>
@@ -15290,7 +15295,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28" t="s">
         <v>920</v>
       </c>
@@ -15317,7 +15322,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="45">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="28" t="s">
         <v>881</v>
       </c>
@@ -15344,7 +15349,7 @@
       </c>
       <c r="I409" s="19"/>
     </row>
-    <row r="410" spans="1:9" ht="45">
+    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
         <v>882</v>
       </c>
@@ -15352,7 +15357,7 @@
         <v>439</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D410" s="21" t="s">
         <v>905</v>
@@ -15373,7 +15378,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="60">
+    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="28" t="s">
         <v>883</v>
       </c>
@@ -15400,7 +15405,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="45">
+    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="28" t="s">
         <v>884</v>
       </c>
@@ -15429,7 +15434,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="45">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28" t="s">
         <v>885</v>
       </c>
@@ -15456,7 +15461,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="45">
+    <row r="414" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="28" t="s">
         <v>886</v>
       </c>
@@ -15485,7 +15490,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="75">
+    <row r="415" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="28" t="s">
         <v>369</v>
       </c>
@@ -15514,7 +15519,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="28" t="s">
         <v>370</v>
       </c>
@@ -15543,7 +15548,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75">
+    <row r="417" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>371</v>
       </c>
@@ -15572,7 +15577,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="105">
+    <row r="418" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>372</v>
       </c>
@@ -15601,7 +15606,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="s">
         <v>893</v>
       </c>
@@ -15628,15 +15633,15 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="s">
         <v>382</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15653,15 +15658,15 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>383</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15678,12 +15683,12 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360">
+    <row r="422" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A422" s="28" t="s">
         <v>384</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C422" s="19" t="s">
         <v>712</v>
@@ -15703,27 +15708,27 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED12EB-1F41-4C47-B3B9-EC9D0D74B758}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E15836-AA0C-4E9A-90CD-D3E20730B277}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -3498,9 +3498,6 @@
     <t>[In tns:CreateAttachmentSoapIn Message][The type of RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9).</t>
   </si>
   <si>
-    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    ).</t>
-  </si>
-  <si>
     <t>[In tns:DeleteAttachmentSoapIn Message][The type of Impersonation part is] t:ExchangeImpersonation ([MS-OXWSCDATA] section 2.2.3.3).</t>
   </si>
   <si>
@@ -3525,12 +3522,6 @@
     <t>[In tns:GetAttachmentSoapIn Message][The RequestVersion part is] t:RequestServerVersion ([MS-OXWSCDATA] section 2.2.3.9)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms "SHOULD" or "SHOULD NOT" implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the Person element. (Exchange 2016  and above follow this behavior).</t>
   </si>
   <si>
@@ -3543,13 +3534,26 @@
     <t>2.2.3.10</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019.)</t>
-  </si>
-  <si>
     <t>2.2.4.50</t>
   </si>
   <si>
     <t>[In m:ResponseCodeType Simple Type] The value "ErrorUnsupportedMimeConversion" occurs when an attempt is made to retrieve  MIME content for an item other than a PostItemType, MessageType, or CalendarItemType object.</t>
+  </si>
+  <si>
+    <t>[In tns:CreateAttachmentSoapOut Message][The element of ServerVersion part is] t:ServerVersionInfo ([MS-OXWSCDATA] section 2.2.3.10).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019 follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3557,14 +3561,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3769,7 +3773,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3807,7 +3811,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3848,8 +3852,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3861,27 +3865,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3906,6 +3889,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5136,26 +5140,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>735</v>
       </c>
@@ -5167,7 +5171,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>736</v>
       </c>
@@ -5181,7 +5185,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>25</v>
@@ -5202,141 +5206,141 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="56" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>737</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5359,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -5374,7 +5378,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +5397,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -5412,59 +5416,59 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" ht="60">
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
@@ -5519,7 +5523,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -5545,7 +5549,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1">
+    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -5597,7 +5601,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -5623,7 +5627,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="25" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
@@ -5649,7 +5653,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="26" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -5675,7 +5679,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1">
+    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -5701,7 +5705,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1">
+    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -5727,7 +5731,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="29" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -5753,7 +5757,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1">
+    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>743</v>
       </c>
@@ -5779,7 +5783,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
@@ -5807,7 +5811,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" ht="30">
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -5833,7 +5837,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="33" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
@@ -5859,7 +5863,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="45">
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -5885,7 +5889,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>55</v>
       </c>
@@ -5910,7 +5914,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>56</v>
       </c>
@@ -5935,7 +5939,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="30">
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
@@ -5960,7 +5964,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -5985,7 +5989,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
@@ -6010,7 +6014,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:10" ht="30">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>745</v>
       </c>
@@ -6035,7 +6039,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>60</v>
       </c>
@@ -6060,7 +6064,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="30">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>748</v>
       </c>
@@ -6085,7 +6089,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>61</v>
       </c>
@@ -6110,7 +6114,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>62</v>
       </c>
@@ -6135,7 +6139,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="45">
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -6160,7 +6164,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="75">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
@@ -6185,7 +6189,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
@@ -6210,7 +6214,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="45">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
@@ -6235,7 +6239,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>67</v>
       </c>
@@ -6260,7 +6264,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
@@ -6285,7 +6289,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
@@ -6310,7 +6314,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
@@ -6335,7 +6339,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
@@ -6360,7 +6364,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>752</v>
       </c>
@@ -6385,7 +6389,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
@@ -6410,7 +6414,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
@@ -6435,7 +6439,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>74</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
@@ -6489,7 +6493,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="270">
+    <row r="59" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>76</v>
       </c>
@@ -6514,7 +6518,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>77</v>
       </c>
@@ -6539,7 +6543,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
@@ -6564,7 +6568,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6593,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>80</v>
       </c>
@@ -6614,7 +6618,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>81</v>
       </c>
@@ -6639,7 +6643,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>757</v>
       </c>
@@ -6664,7 +6668,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>758</v>
       </c>
@@ -6689,7 +6693,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>82</v>
       </c>
@@ -6714,7 +6718,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>83</v>
       </c>
@@ -6739,7 +6743,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="255">
+    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>84</v>
       </c>
@@ -6764,7 +6768,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>85</v>
       </c>
@@ -6789,7 +6793,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>86</v>
       </c>
@@ -6814,7 +6818,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>87</v>
       </c>
@@ -6839,7 +6843,7 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>902</v>
       </c>
@@ -6864,7 +6868,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="45">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -6891,7 +6895,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
@@ -6918,7 +6922,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>90</v>
       </c>
@@ -6943,7 +6947,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
@@ -6968,7 +6972,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="45">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>93</v>
       </c>
@@ -7022,7 +7026,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="45">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
@@ -7047,7 +7051,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="240">
+    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -7072,7 +7076,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -7097,7 +7101,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>97</v>
       </c>
@@ -7122,7 +7126,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>98</v>
       </c>
@@ -7147,7 +7151,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7178,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>100</v>
       </c>
@@ -7201,7 +7205,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="409.5">
+    <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>101</v>
       </c>
@@ -7226,7 +7230,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>102</v>
       </c>
@@ -7251,7 +7255,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>103</v>
       </c>
@@ -7276,7 +7280,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
@@ -7301,7 +7305,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
@@ -7326,7 +7330,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>106</v>
       </c>
@@ -7351,7 +7355,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>107</v>
       </c>
@@ -7376,7 +7380,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>108</v>
       </c>
@@ -7401,7 +7405,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="45">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>109</v>
       </c>
@@ -7426,7 +7430,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>110</v>
       </c>
@@ -7451,7 +7455,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>111</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
@@ -7505,7 +7509,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>113</v>
       </c>
@@ -7530,7 +7534,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>114</v>
       </c>
@@ -7555,7 +7559,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>115</v>
       </c>
@@ -7580,7 +7584,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>116</v>
       </c>
@@ -7605,7 +7609,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>117</v>
       </c>
@@ -7630,7 +7634,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>118</v>
       </c>
@@ -7655,7 +7659,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -7680,7 +7684,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -7732,7 +7736,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -7757,7 +7761,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -7782,7 +7786,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -7807,7 +7811,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -7832,7 +7836,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="330">
+    <row r="112" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -7857,7 +7861,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -7882,7 +7886,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="45">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -7934,7 +7938,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -7959,7 +7963,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -7984,7 +7988,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -8009,7 +8013,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8034,7 +8038,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="60">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>764</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>765</v>
       </c>
@@ -8086,7 +8090,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="409.5">
+    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>134</v>
       </c>
@@ -8111,7 +8115,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="60">
+    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>135</v>
       </c>
@@ -8136,7 +8140,7 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="30">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
@@ -8188,7 +8192,7 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>138</v>
       </c>
@@ -8213,7 +8217,7 @@
       </c>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>139</v>
       </c>
@@ -8238,7 +8242,7 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="30">
+    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>140</v>
       </c>
@@ -8263,7 +8267,7 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>141</v>
       </c>
@@ -8288,7 +8292,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>142</v>
       </c>
@@ -8313,7 +8317,7 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>143</v>
       </c>
@@ -8338,7 +8342,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>144</v>
       </c>
@@ -8363,7 +8367,7 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>145</v>
       </c>
@@ -8388,7 +8392,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>146</v>
       </c>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>147</v>
       </c>
@@ -8438,7 +8442,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>148</v>
       </c>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>149</v>
       </c>
@@ -8488,7 +8492,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>150</v>
       </c>
@@ -8513,7 +8517,7 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>151</v>
       </c>
@@ -8538,7 +8542,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>152</v>
       </c>
@@ -8563,7 +8567,7 @@
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>153</v>
       </c>
@@ -8588,7 +8592,7 @@
       </c>
       <c r="I141" s="30"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>154</v>
       </c>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>155</v>
       </c>
@@ -8638,7 +8642,7 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>779</v>
       </c>
@@ -8663,7 +8667,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>780</v>
       </c>
@@ -8688,7 +8692,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>781</v>
       </c>
@@ -8713,7 +8717,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>782</v>
       </c>
@@ -8738,7 +8742,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>783</v>
       </c>
@@ -8763,7 +8767,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" ht="45">
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>784</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>785</v>
       </c>
@@ -8815,7 +8819,7 @@
       </c>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>786</v>
       </c>
@@ -8840,7 +8844,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="45">
+    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>156</v>
       </c>
@@ -8865,7 +8869,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="180">
+    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>157</v>
       </c>
@@ -8890,7 +8894,7 @@
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>158</v>
       </c>
@@ -8915,7 +8919,7 @@
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>159</v>
       </c>
@@ -8940,7 +8944,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>160</v>
       </c>
@@ -8965,7 +8969,7 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>806</v>
       </c>
@@ -8990,7 +8994,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45">
+    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>807</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="330">
+    <row r="159" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>915</v>
       </c>
@@ -9042,7 +9046,7 @@
       </c>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>808</v>
       </c>
@@ -9067,7 +9071,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>809</v>
       </c>
@@ -9092,7 +9096,7 @@
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>810</v>
       </c>
@@ -9117,7 +9121,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>811</v>
       </c>
@@ -9142,7 +9146,7 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>812</v>
       </c>
@@ -9167,7 +9171,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>813</v>
       </c>
@@ -9192,7 +9196,7 @@
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>814</v>
       </c>
@@ -9217,7 +9221,7 @@
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>815</v>
       </c>
@@ -9242,7 +9246,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>816</v>
       </c>
@@ -9267,7 +9271,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>817</v>
       </c>
@@ -9292,7 +9296,7 @@
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>818</v>
       </c>
@@ -9317,7 +9321,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>819</v>
       </c>
@@ -9342,7 +9346,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>820</v>
       </c>
@@ -9367,7 +9371,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>821</v>
       </c>
@@ -9392,7 +9396,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>822</v>
       </c>
@@ -9417,7 +9421,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>161</v>
       </c>
@@ -9442,7 +9446,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>162</v>
       </c>
@@ -9467,7 +9471,7 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="210">
+    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>163</v>
       </c>
@@ -9492,7 +9496,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="45">
+    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>164</v>
       </c>
@@ -9517,7 +9521,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>165</v>
       </c>
@@ -9542,7 +9546,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>166</v>
       </c>
@@ -9567,7 +9571,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>167</v>
       </c>
@@ -9592,7 +9596,7 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>180</v>
       </c>
@@ -9617,7 +9621,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>181</v>
       </c>
@@ -9642,7 +9646,7 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>182</v>
       </c>
@@ -9667,7 +9671,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>183</v>
       </c>
@@ -9692,7 +9696,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>184</v>
       </c>
@@ -9717,7 +9721,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>185</v>
       </c>
@@ -9742,7 +9746,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>186</v>
       </c>
@@ -9767,7 +9771,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="45">
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>187</v>
       </c>
@@ -9792,7 +9796,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>188</v>
       </c>
@@ -9817,7 +9821,7 @@
       </c>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" ht="45">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>189</v>
       </c>
@@ -9842,7 +9846,7 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="45">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>190</v>
       </c>
@@ -9867,7 +9871,7 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>191</v>
       </c>
@@ -9892,7 +9896,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="60">
+    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>192</v>
       </c>
@@ -9917,7 +9921,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>193</v>
       </c>
@@ -9942,7 +9946,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="60">
+    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>194</v>
       </c>
@@ -9967,7 +9971,7 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>195</v>
       </c>
@@ -9992,7 +9996,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>196</v>
       </c>
@@ -10017,7 +10021,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>197</v>
       </c>
@@ -10042,7 +10046,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>198</v>
       </c>
@@ -10067,7 +10071,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>199</v>
       </c>
@@ -10092,7 +10096,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="90">
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>200</v>
       </c>
@@ -10117,7 +10121,7 @@
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="345">
+    <row r="203" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>201</v>
       </c>
@@ -10142,7 +10146,7 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>202</v>
       </c>
@@ -10167,7 +10171,7 @@
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>203</v>
       </c>
@@ -10192,7 +10196,7 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>204</v>
       </c>
@@ -10217,7 +10221,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="45">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>205</v>
       </c>
@@ -10244,7 +10248,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>206</v>
       </c>
@@ -10271,7 +10275,7 @@
       </c>
       <c r="I208" s="30"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>207</v>
       </c>
@@ -10296,7 +10300,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="45">
+    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>210</v>
       </c>
@@ -10321,7 +10325,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>211</v>
       </c>
@@ -10346,7 +10350,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>212</v>
       </c>
@@ -10371,7 +10375,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="135">
+    <row r="213" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="28" t="s">
         <v>213</v>
       </c>
@@ -10396,7 +10400,7 @@
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="45">
+    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>214</v>
       </c>
@@ -10421,7 +10425,7 @@
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>215</v>
       </c>
@@ -10446,7 +10450,7 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>216</v>
       </c>
@@ -10471,7 +10475,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>217</v>
       </c>
@@ -10496,7 +10500,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>218</v>
       </c>
@@ -10521,7 +10525,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>219</v>
       </c>
@@ -10546,7 +10550,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>220</v>
       </c>
@@ -10571,7 +10575,7 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>221</v>
       </c>
@@ -10596,7 +10600,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>222</v>
       </c>
@@ -10621,7 +10625,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>223</v>
       </c>
@@ -10646,7 +10650,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>224</v>
       </c>
@@ -10671,7 +10675,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>225</v>
       </c>
@@ -10696,7 +10700,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>226</v>
       </c>
@@ -10721,7 +10725,7 @@
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="120">
+    <row r="227" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>227</v>
       </c>
@@ -10746,7 +10750,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>228</v>
       </c>
@@ -10771,7 +10775,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>229</v>
       </c>
@@ -10796,7 +10800,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>230</v>
       </c>
@@ -10821,7 +10825,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>231</v>
       </c>
@@ -10846,7 +10850,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>232</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>411</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -10871,7 +10875,7 @@
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>233</v>
       </c>
@@ -10896,7 +10900,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
         <v>208</v>
       </c>
@@ -10921,7 +10925,7 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45">
+    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>209</v>
       </c>
@@ -10946,7 +10950,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45">
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>855</v>
       </c>
@@ -10971,7 +10975,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="60">
+    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>856</v>
       </c>
@@ -10996,7 +11000,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>234</v>
       </c>
@@ -11021,7 +11025,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>235</v>
       </c>
@@ -11046,7 +11050,7 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>236</v>
       </c>
@@ -11071,7 +11075,7 @@
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="75">
+    <row r="241" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>237</v>
       </c>
@@ -11096,7 +11100,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="75">
+    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>238</v>
       </c>
@@ -11121,7 +11125,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45">
+    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>239</v>
       </c>
@@ -11146,7 +11150,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
         <v>240</v>
       </c>
@@ -11171,7 +11175,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>241</v>
       </c>
@@ -11196,7 +11200,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="45">
+    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>242</v>
       </c>
@@ -11221,7 +11225,7 @@
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="45">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>243</v>
       </c>
@@ -11246,7 +11250,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="135">
+    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>244</v>
       </c>
@@ -11271,7 +11275,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="45">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>245</v>
       </c>
@@ -11296,7 +11300,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>246</v>
       </c>
@@ -11321,7 +11325,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="270">
+    <row r="251" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>247</v>
       </c>
@@ -11346,7 +11350,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="45">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>248</v>
       </c>
@@ -11371,7 +11375,7 @@
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>249</v>
       </c>
@@ -11396,7 +11400,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>250</v>
       </c>
@@ -11421,7 +11425,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>251</v>
       </c>
@@ -11446,7 +11450,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>252</v>
       </c>
@@ -11471,7 +11475,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>253</v>
       </c>
@@ -11496,7 +11500,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>254</v>
       </c>
@@ -11521,7 +11525,7 @@
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>255</v>
       </c>
@@ -11546,7 +11550,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="90">
+    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>256</v>
       </c>
@@ -11571,7 +11575,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="315">
+    <row r="261" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>257</v>
       </c>
@@ -11596,7 +11600,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>258</v>
       </c>
@@ -11621,7 +11625,7 @@
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>259</v>
       </c>
@@ -11646,7 +11650,7 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>260</v>
       </c>
@@ -11671,7 +11675,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>261</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>262</v>
       </c>
@@ -11725,7 +11729,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>263</v>
       </c>
@@ -11750,7 +11754,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>264</v>
       </c>
@@ -11775,7 +11779,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>267</v>
       </c>
@@ -11800,7 +11804,7 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>268</v>
       </c>
@@ -11825,7 +11829,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>269</v>
       </c>
@@ -11850,7 +11854,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="120">
+    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>270</v>
       </c>
@@ -11875,7 +11879,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="45">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>271</v>
       </c>
@@ -11900,7 +11904,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>272</v>
       </c>
@@ -11925,7 +11929,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>273</v>
       </c>
@@ -11950,7 +11954,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>274</v>
       </c>
@@ -11975,7 +11979,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>275</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>419</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -12000,7 +12004,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>276</v>
       </c>
@@ -12025,7 +12029,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="28" t="s">
         <v>277</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>419</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12050,7 +12054,7 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>278</v>
       </c>
@@ -12075,7 +12079,7 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>279</v>
       </c>
@@ -12100,7 +12104,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>280</v>
       </c>
@@ -12108,7 +12112,7 @@
         <v>419</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
@@ -12125,7 +12129,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>281</v>
       </c>
@@ -12150,7 +12154,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="120">
+    <row r="284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>282</v>
       </c>
@@ -12175,7 +12179,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="45">
+    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>283</v>
       </c>
@@ -12200,7 +12204,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="45">
+    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>284</v>
       </c>
@@ -12225,7 +12229,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>285</v>
       </c>
@@ -12250,7 +12254,7 @@
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>286</v>
       </c>
@@ -12275,7 +12279,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>287</v>
       </c>
@@ -12283,7 +12287,7 @@
         <v>420</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12300,7 +12304,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>288</v>
       </c>
@@ -12325,7 +12329,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>265</v>
       </c>
@@ -12350,7 +12354,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>266</v>
       </c>
@@ -12375,7 +12379,7 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>835</v>
       </c>
@@ -12400,7 +12404,7 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="60">
+    <row r="294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>836</v>
       </c>
@@ -12425,7 +12429,7 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>289</v>
       </c>
@@ -12450,7 +12454,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>290</v>
       </c>
@@ -12475,7 +12479,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>291</v>
       </c>
@@ -12500,7 +12504,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>292</v>
       </c>
@@ -12525,7 +12529,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>293</v>
       </c>
@@ -12550,7 +12554,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="75">
+    <row r="300" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A300" s="28" t="s">
         <v>294</v>
       </c>
@@ -12575,7 +12579,7 @@
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>295</v>
       </c>
@@ -12600,7 +12604,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>296</v>
       </c>
@@ -12625,7 +12629,7 @@
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="28" t="s">
         <v>297</v>
       </c>
@@ -12650,7 +12654,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>298</v>
       </c>
@@ -12675,7 +12679,7 @@
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>838</v>
       </c>
@@ -12700,7 +12704,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>839</v>
       </c>
@@ -12725,7 +12729,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="45">
+    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>299</v>
       </c>
@@ -12750,7 +12754,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="45">
+    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>300</v>
       </c>
@@ -12775,7 +12779,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="240">
+    <row r="309" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>301</v>
       </c>
@@ -12800,7 +12804,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="45">
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>302</v>
       </c>
@@ -12825,7 +12829,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>303</v>
       </c>
@@ -12850,7 +12854,7 @@
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>304</v>
       </c>
@@ -12875,7 +12879,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="45">
+    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>305</v>
       </c>
@@ -12900,7 +12904,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="45">
+    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>306</v>
       </c>
@@ -12925,7 +12929,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="135">
+    <row r="315" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>307</v>
       </c>
@@ -12950,7 +12954,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>308</v>
       </c>
@@ -12975,7 +12979,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>309</v>
       </c>
@@ -13000,7 +13004,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="225">
+    <row r="318" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>310</v>
       </c>
@@ -13025,7 +13029,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>311</v>
       </c>
@@ -13050,7 +13054,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>312</v>
       </c>
@@ -13075,7 +13079,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>313</v>
       </c>
@@ -13100,7 +13104,7 @@
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>168</v>
       </c>
@@ -13125,7 +13129,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>169</v>
       </c>
@@ -13150,7 +13154,7 @@
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="255">
+    <row r="324" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>170</v>
       </c>
@@ -13175,7 +13179,7 @@
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="45">
+    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>171</v>
       </c>
@@ -13200,7 +13204,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>172</v>
       </c>
@@ -13225,7 +13229,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>173</v>
       </c>
@@ -13250,7 +13254,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>174</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>175</v>
       </c>
@@ -13304,7 +13308,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>176</v>
       </c>
@@ -13329,7 +13333,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>177</v>
       </c>
@@ -13354,7 +13358,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>178</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>179</v>
       </c>
@@ -13408,7 +13412,7 @@
       </c>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="28" t="s">
         <v>314</v>
       </c>
@@ -13433,7 +13437,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="90">
+    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>315</v>
       </c>
@@ -13458,7 +13462,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="345">
+    <row r="336" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>316</v>
       </c>
@@ -13483,7 +13487,7 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
         <v>317</v>
       </c>
@@ -13508,7 +13512,7 @@
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>318</v>
       </c>
@@ -13533,7 +13537,7 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>321</v>
       </c>
@@ -13558,7 +13562,7 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>322</v>
       </c>
@@ -13583,7 +13587,7 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>323</v>
       </c>
@@ -13608,7 +13612,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="135">
+    <row r="342" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>324</v>
       </c>
@@ -13633,7 +13637,7 @@
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>325</v>
       </c>
@@ -13658,7 +13662,7 @@
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>326</v>
       </c>
@@ -13683,7 +13687,7 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>327</v>
       </c>
@@ -13708,7 +13712,7 @@
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>328</v>
       </c>
@@ -13733,7 +13737,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>329</v>
       </c>
@@ -13741,7 +13745,7 @@
         <v>430</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13758,7 +13762,7 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>330</v>
       </c>
@@ -13783,7 +13787,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>331</v>
       </c>
@@ -13791,7 +13795,7 @@
         <v>430</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -13808,7 +13812,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>332</v>
       </c>
@@ -13833,7 +13837,7 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>333</v>
       </c>
@@ -13858,7 +13862,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="30">
+    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>334</v>
       </c>
@@ -13866,7 +13870,7 @@
         <v>430</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -13883,7 +13887,7 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>335</v>
       </c>
@@ -13908,7 +13912,7 @@
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>336</v>
       </c>
@@ -13933,7 +13937,7 @@
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>337</v>
       </c>
@@ -13958,7 +13962,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="90">
+    <row r="356" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>338</v>
       </c>
@@ -13983,7 +13987,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="28" t="s">
         <v>339</v>
       </c>
@@ -14008,7 +14012,7 @@
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="45">
+    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
         <v>340</v>
       </c>
@@ -14033,7 +14037,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
         <v>341</v>
       </c>
@@ -14058,7 +14062,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
         <v>342</v>
       </c>
@@ -14083,7 +14087,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
         <v>343</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>431</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14108,7 +14112,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
         <v>344</v>
       </c>
@@ -14133,7 +14137,7 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
         <v>319</v>
       </c>
@@ -14158,7 +14162,7 @@
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
         <v>320</v>
       </c>
@@ -14183,7 +14187,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="45">
+    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
         <v>850</v>
       </c>
@@ -14208,7 +14212,7 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="60">
+    <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
         <v>851</v>
       </c>
@@ -14233,7 +14237,7 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="28" t="s">
         <v>345</v>
       </c>
@@ -14258,7 +14262,7 @@
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
         <v>346</v>
       </c>
@@ -14283,7 +14287,7 @@
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
         <v>347</v>
       </c>
@@ -14308,7 +14312,7 @@
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="75">
+    <row r="370" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
         <v>348</v>
       </c>
@@ -14333,7 +14337,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="75">
+    <row r="371" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
         <v>349</v>
       </c>
@@ -14358,7 +14362,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="60">
+    <row r="372" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
         <v>350</v>
       </c>
@@ -14383,7 +14387,7 @@
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="28" t="s">
         <v>351</v>
       </c>
@@ -14408,7 +14412,7 @@
       </c>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
         <v>352</v>
       </c>
@@ -14433,7 +14437,7 @@
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="30">
+    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>353</v>
       </c>
@@ -14458,7 +14462,7 @@
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="45">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
         <v>354</v>
       </c>
@@ -14483,7 +14487,7 @@
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="150">
+    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>355</v>
       </c>
@@ -14508,7 +14512,7 @@
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
         <v>356</v>
       </c>
@@ -14533,7 +14537,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="285">
+    <row r="379" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
         <v>357</v>
       </c>
@@ -14558,7 +14562,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
         <v>358</v>
       </c>
@@ -14583,7 +14587,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="28" t="s">
         <v>359</v>
       </c>
@@ -14608,7 +14612,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="28" t="s">
         <v>360</v>
       </c>
@@ -14633,7 +14637,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="28" t="s">
         <v>361</v>
       </c>
@@ -14658,7 +14662,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>362</v>
       </c>
@@ -14683,7 +14687,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="345">
+    <row r="385" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A385" s="28" t="s">
         <v>363</v>
       </c>
@@ -14708,7 +14712,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="45">
+    <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="28" t="s">
         <v>364</v>
       </c>
@@ -14733,7 +14737,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>365</v>
       </c>
@@ -14758,7 +14762,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
         <v>366</v>
       </c>
@@ -14783,7 +14787,7 @@
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="90">
+    <row r="389" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="28" t="s">
         <v>367</v>
       </c>
@@ -14810,7 +14814,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="28" t="s">
         <v>368</v>
       </c>
@@ -14837,7 +14841,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
         <v>373</v>
       </c>
@@ -14862,7 +14866,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="28" t="s">
         <v>374</v>
       </c>
@@ -14887,7 +14891,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="45">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="28" t="s">
         <v>375</v>
       </c>
@@ -14914,7 +14918,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="28" t="s">
         <v>376</v>
       </c>
@@ -14939,7 +14943,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="28" t="s">
         <v>873</v>
       </c>
@@ -14964,7 +14968,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="28" t="s">
         <v>876</v>
       </c>
@@ -14991,7 +14995,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="30">
+    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="28" t="s">
         <v>377</v>
       </c>
@@ -15016,7 +15020,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="28" t="s">
         <v>378</v>
       </c>
@@ -15041,7 +15045,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="28" t="s">
         <v>379</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>439</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15066,7 +15070,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="28" t="s">
         <v>380</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>439</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15091,7 +15095,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="28" t="s">
         <v>381</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75">
+    <row r="402" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="28" t="s">
         <v>766</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
         <v>877</v>
       </c>
@@ -15176,7 +15180,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="28" t="s">
         <v>878</v>
       </c>
@@ -15205,7 +15209,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28" t="s">
         <v>879</v>
       </c>
@@ -15232,7 +15236,7 @@
       </c>
       <c r="I405" s="19"/>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="28" t="s">
         <v>880</v>
       </c>
@@ -15261,7 +15265,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="28" t="s">
         <v>888</v>
       </c>
@@ -15290,7 +15294,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28" t="s">
         <v>920</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>439</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D408" s="28" t="s">
         <v>921</v>
@@ -15317,7 +15321,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="45">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="28" t="s">
         <v>881</v>
       </c>
@@ -15344,7 +15348,7 @@
       </c>
       <c r="I409" s="19"/>
     </row>
-    <row r="410" spans="1:9" ht="45">
+    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
         <v>882</v>
       </c>
@@ -15352,7 +15356,7 @@
         <v>439</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D410" s="21" t="s">
         <v>905</v>
@@ -15373,7 +15377,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="60">
+    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="28" t="s">
         <v>883</v>
       </c>
@@ -15400,7 +15404,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="45">
+    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="28" t="s">
         <v>884</v>
       </c>
@@ -15429,7 +15433,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="45">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28" t="s">
         <v>885</v>
       </c>
@@ -15456,7 +15460,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="45">
+    <row r="414" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="28" t="s">
         <v>886</v>
       </c>
@@ -15485,7 +15489,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="75">
+    <row r="415" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="28" t="s">
         <v>369</v>
       </c>
@@ -15514,7 +15518,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="28" t="s">
         <v>370</v>
       </c>
@@ -15543,7 +15547,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75">
+    <row r="417" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>371</v>
       </c>
@@ -15572,7 +15576,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="105">
+    <row r="418" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>372</v>
       </c>
@@ -15601,7 +15605,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="21" t="s">
         <v>893</v>
       </c>
@@ -15628,15 +15632,15 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="21" t="s">
         <v>382</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D420" s="28"/>
       <c r="E420" s="28" t="s">
@@ -15653,15 +15657,15 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>383</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15678,12 +15682,12 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360">
+    <row r="422" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A422" s="28" t="s">
         <v>384</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C422" s="19" t="s">
         <v>712</v>
@@ -15703,27 +15707,27 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="10"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E15836-AA0C-4E9A-90CD-D3E20730B277}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F65448-C719-4440-B0E9-7FDDA90EB6B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$422</definedName>
-    <definedName name="Appendix_A_1" localSheetId="0">Requirements!$B$403</definedName>
-    <definedName name="Appendix_A_2" localSheetId="0">Requirements!$B$405</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$423</definedName>
+    <definedName name="Appendix_A_1" localSheetId="0">Requirements!$B$404</definedName>
+    <definedName name="Appendix_A_2" localSheetId="0">Requirements!$B$406</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="952">
   <si>
     <t>Req ID</t>
   </si>
@@ -2971,13 +2971,7 @@
     <t>[In t:ItemAttachmentType Complex Type][The type of Task element is] t:TaskType ([MS-OXWSTASK] section 2.2.4.6)</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type] [The type of RoleMember element is] t:RoleMemberItemType ([MS-OXWSCORE] section 2.2.4.42)</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type] [The RoleMember element] For internal use only.&lt;4&gt;</t>
-  </si>
-  <si>
-    <t>[In t:ItemAttachmentType Complex Type] [The type of Network element is] t:NetworkItemType ([MS-OXWSCORE] section 2.2.4.29)</t>
   </si>
   <si>
     <t>[In t:ItemAttachmentType Complex Type] [The Network element] For internal use only.&lt;5&gt;</t>
@@ -3353,9 +3347,6 @@
     <t>MS-OXWSATT_R318014</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a MessageType item.(&lt;3&gt; Section 2.2.4.6:  In Microsoft Exchange Server 2007 Service Pack 1 (SP1), Exchange 2010, Exchange 2013, and Exchange 2016, generic items will be returned as MessageType items.)</t>
-  </si>
-  <si>
     <t>Verified by derived requirement:MS-OXWSATT_R318003.</t>
   </si>
   <si>
@@ -3456,19 +3447,10 @@
     <t>MS-OXWSATT_R401:i</t>
   </si>
   <si>
-    <t>[In t:ItemAttachmentType Complex Type][The type of Item element is] t:ItemType ([MS-OXWSCORE] section 2.2.4.24).&lt;3&gt;</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The Item element] Represents a generic item in the server store.</t>
   </si>
   <si>
     <t>MS-OXWSATT_R318015</t>
-  </si>
-  <si>
-    <t>MS-OXWSATT_R527:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
   </si>
   <si>
     <t>[In t:ItemAttachmentType Complex Type][The type of Message element is] t:MessageType ([MS-OXWSMSG] section 2.2.4.3)</t>
@@ -3552,8 +3534,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Exchange2007 and Exchange2019 follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MS-OXWSATT_R444</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The Item element]All items of type t:ItemType SHOULD&lt;3&gt; be returned as Message of a t:MessageType type.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not return the items of type t:ItemType as a t:MessageType type.(&lt;3&gt; Section 2.2.4.6:  Exchange 2007 does not return the items of type t:ItemType as a t:MessageType type. )</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Microsoft Exchange Server 2007 Service Pack 1 (SP1) starts to return the items of type t:ItemType as a t:MessageType type.)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type][The type of Item element is] t:ItemType ([MS-OXWSCORE] section 2.2.4.24).</t>
+  </si>
+  <si>
+    <t>MS-OXWSATT_R444:i,MS-OXWSATT_R1:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318015.</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type] [The type of RoleMember element is] t:RoleMemberItemType ([MS-OXWSCORE] section 2.2.4.43)</t>
+  </si>
+  <si>
+    <t>[In t:ItemAttachmentType Complex Type] [The type of Network element is] t:NetworkItemType ([MS-OXWSCORE] section 2.2.4.30)</t>
   </si>
 </sst>
 </file>
@@ -3561,14 +3566,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3773,7 +3778,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3811,7 +3816,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3852,8 +3857,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4642,6 +4647,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4769,8 +4779,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I422" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I422" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I423" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I423" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -5138,28 +5148,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M424"/>
+  <dimension ref="A1:M425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>735</v>
       </c>
@@ -5171,7 +5181,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>736</v>
       </c>
@@ -5185,20 +5195,20 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="38">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="39">
-        <v>43374</v>
+        <v>43788</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="4"/>
@@ -5206,7 +5216,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
@@ -5221,7 +5231,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5248,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -5255,7 +5265,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -5272,7 +5282,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
@@ -5289,7 +5299,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -5306,7 +5316,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
@@ -5323,7 +5333,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -5340,7 +5350,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5359,7 +5369,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -5378,7 +5388,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5407,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -5416,7 +5426,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -5433,7 +5443,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
@@ -5450,7 +5460,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
@@ -5468,7 +5478,7 @@
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="60">
       <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
@@ -5523,7 +5533,7 @@
       <c r="I20" s="23"/>
       <c r="J20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A21" s="21" t="s">
         <v>42</v>
       </c>
@@ -5549,7 +5559,7 @@
       <c r="I21" s="23"/>
       <c r="J21" s="35"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -5575,7 +5585,7 @@
       <c r="I22" s="23"/>
       <c r="J22" s="35"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
@@ -5601,7 +5611,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A24" s="21" t="s">
         <v>45</v>
       </c>
@@ -5627,7 +5637,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A25" s="21" t="s">
         <v>46</v>
       </c>
@@ -5653,7 +5663,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A26" s="21" t="s">
         <v>47</v>
       </c>
@@ -5679,7 +5689,7 @@
       <c r="I26" s="23"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" s="22" customFormat="1">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -5705,7 +5715,7 @@
       <c r="I27" s="23"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" s="22" customFormat="1">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -5731,7 +5741,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -5757,7 +5767,7 @@
       <c r="I29" s="23"/>
       <c r="J29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="22" customFormat="1">
       <c r="A30" s="21" t="s">
         <v>743</v>
       </c>
@@ -5783,7 +5793,7 @@
       <c r="I30" s="30"/>
       <c r="J30" s="35"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" s="22" customFormat="1" ht="45">
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
@@ -5811,7 +5821,7 @@
       </c>
       <c r="J31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" s="22" customFormat="1" ht="30">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -5837,7 +5847,7 @@
       <c r="I32" s="23"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="22" customFormat="1" ht="45">
       <c r="A33" s="21" t="s">
         <v>53</v>
       </c>
@@ -5863,7 +5873,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="22" customFormat="1" ht="45">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -5889,7 +5899,7 @@
       <c r="I34" s="23"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="60">
       <c r="A35" s="28" t="s">
         <v>55</v>
       </c>
@@ -5914,7 +5924,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="28" t="s">
         <v>56</v>
       </c>
@@ -5939,7 +5949,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="28" t="s">
         <v>57</v>
       </c>
@@ -5964,7 +5974,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="28" t="s">
         <v>58</v>
       </c>
@@ -5989,7 +5999,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
@@ -6014,7 +6024,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30">
       <c r="A40" s="28" t="s">
         <v>745</v>
       </c>
@@ -6039,7 +6049,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30">
       <c r="A41" s="28" t="s">
         <v>60</v>
       </c>
@@ -6064,7 +6074,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="28" t="s">
         <v>748</v>
       </c>
@@ -6089,7 +6099,7 @@
       </c>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="28" t="s">
         <v>61</v>
       </c>
@@ -6114,7 +6124,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30">
       <c r="A44" s="28" t="s">
         <v>62</v>
       </c>
@@ -6139,7 +6149,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="45">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -6164,7 +6174,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="75">
       <c r="A46" s="28" t="s">
         <v>64</v>
       </c>
@@ -6189,7 +6199,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="28" t="s">
         <v>65</v>
       </c>
@@ -6214,7 +6224,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="45">
       <c r="A48" s="28" t="s">
         <v>66</v>
       </c>
@@ -6239,7 +6249,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="28" t="s">
         <v>67</v>
       </c>
@@ -6264,7 +6274,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="28" t="s">
         <v>68</v>
       </c>
@@ -6289,7 +6299,7 @@
       </c>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="28" t="s">
         <v>69</v>
       </c>
@@ -6314,7 +6324,7 @@
       </c>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="28" t="s">
         <v>70</v>
       </c>
@@ -6339,7 +6349,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28" t="s">
         <v>71</v>
       </c>
@@ -6364,7 +6374,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
         <v>752</v>
       </c>
@@ -6389,7 +6399,7 @@
       </c>
       <c r="I54" s="30"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
@@ -6414,7 +6424,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
@@ -6439,7 +6449,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45">
       <c r="A57" s="28" t="s">
         <v>74</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>75</v>
       </c>
@@ -6493,7 +6503,7 @@
       </c>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="270">
       <c r="A59" s="28" t="s">
         <v>76</v>
       </c>
@@ -6518,7 +6528,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="28" t="s">
         <v>77</v>
       </c>
@@ -6543,7 +6553,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="28" t="s">
         <v>78</v>
       </c>
@@ -6568,7 +6578,7 @@
       </c>
       <c r="I61" s="30"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="28" t="s">
         <v>79</v>
       </c>
@@ -6593,7 +6603,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="28" t="s">
         <v>80</v>
       </c>
@@ -6618,7 +6628,7 @@
       </c>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="28" t="s">
         <v>81</v>
       </c>
@@ -6643,7 +6653,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
         <v>757</v>
       </c>
@@ -6668,7 +6678,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="28" t="s">
         <v>758</v>
       </c>
@@ -6693,7 +6703,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="28" t="s">
         <v>82</v>
       </c>
@@ -6718,7 +6728,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="28" t="s">
         <v>83</v>
       </c>
@@ -6743,7 +6753,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="255">
       <c r="A69" s="28" t="s">
         <v>84</v>
       </c>
@@ -6768,7 +6778,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="28" t="s">
         <v>85</v>
       </c>
@@ -6793,7 +6803,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="28" t="s">
         <v>86</v>
       </c>
@@ -6818,7 +6828,7 @@
       </c>
       <c r="I71" s="30"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="28" t="s">
         <v>87</v>
       </c>
@@ -6843,9 +6853,9 @@
       </c>
       <c r="I72" s="30"/>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>393</v>
@@ -6868,7 +6878,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="45">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -6895,7 +6905,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="28" t="s">
         <v>89</v>
       </c>
@@ -6922,7 +6932,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="28" t="s">
         <v>90</v>
       </c>
@@ -6947,7 +6957,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="28" t="s">
         <v>91</v>
       </c>
@@ -6972,7 +6982,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="28" t="s">
         <v>92</v>
       </c>
@@ -6999,7 +7009,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="28" t="s">
         <v>93</v>
       </c>
@@ -7026,7 +7036,7 @@
       </c>
       <c r="I79" s="30"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="28" t="s">
         <v>94</v>
       </c>
@@ -7051,7 +7061,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="240">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -7076,7 +7086,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="45">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -7101,7 +7111,7 @@
       </c>
       <c r="I82" s="30"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="28" t="s">
         <v>97</v>
       </c>
@@ -7126,7 +7136,7 @@
       </c>
       <c r="I83" s="30"/>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="28" t="s">
         <v>98</v>
       </c>
@@ -7151,7 +7161,7 @@
       </c>
       <c r="I84" s="30"/>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -7178,7 +7188,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="28" t="s">
         <v>100</v>
       </c>
@@ -7205,7 +7215,7 @@
       </c>
       <c r="I86" s="30"/>
     </row>
-    <row r="87" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="409.5">
       <c r="A87" s="28" t="s">
         <v>101</v>
       </c>
@@ -7230,7 +7240,7 @@
       </c>
       <c r="I87" s="30"/>
     </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="45">
       <c r="A88" s="28" t="s">
         <v>102</v>
       </c>
@@ -7255,7 +7265,7 @@
       </c>
       <c r="I88" s="30"/>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="28" t="s">
         <v>103</v>
       </c>
@@ -7280,7 +7290,7 @@
       </c>
       <c r="I89" s="30"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
@@ -7305,7 +7315,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="28" t="s">
         <v>105</v>
       </c>
@@ -7330,7 +7340,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="28" t="s">
         <v>106</v>
       </c>
@@ -7355,7 +7365,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="28" t="s">
         <v>107</v>
       </c>
@@ -7380,7 +7390,7 @@
       </c>
       <c r="I93" s="30"/>
     </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="28" t="s">
         <v>108</v>
       </c>
@@ -7405,7 +7415,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="45">
       <c r="A95" s="28" t="s">
         <v>109</v>
       </c>
@@ -7430,7 +7440,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="28" t="s">
         <v>110</v>
       </c>
@@ -7455,7 +7465,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="28" t="s">
         <v>111</v>
       </c>
@@ -7482,7 +7492,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
@@ -7509,7 +7519,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="28" t="s">
         <v>113</v>
       </c>
@@ -7534,7 +7544,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="28" t="s">
         <v>114</v>
       </c>
@@ -7559,7 +7569,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="28" t="s">
         <v>115</v>
       </c>
@@ -7584,7 +7594,7 @@
       </c>
       <c r="I101" s="30"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="28" t="s">
         <v>116</v>
       </c>
@@ -7609,7 +7619,7 @@
       </c>
       <c r="I102" s="30"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="28" t="s">
         <v>117</v>
       </c>
@@ -7634,7 +7644,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="28" t="s">
         <v>118</v>
       </c>
@@ -7659,7 +7669,7 @@
       </c>
       <c r="I104" s="30"/>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -7684,7 +7694,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>395</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -7708,10 +7718,10 @@
         <v>17</v>
       </c>
       <c r="I106" s="30" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -7736,7 +7746,7 @@
       </c>
       <c r="I107" s="30"/>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -7761,7 +7771,7 @@
       </c>
       <c r="I108" s="30"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -7786,7 +7796,7 @@
       </c>
       <c r="I109" s="30"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -7811,7 +7821,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -7836,7 +7846,7 @@
       </c>
       <c r="I111" s="30"/>
     </row>
-    <row r="112" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="330">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -7861,7 +7871,7 @@
       </c>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -7886,7 +7896,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -7894,7 +7904,7 @@
         <v>396</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
@@ -7909,11 +7919,11 @@
       <c r="H114" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I114" s="30" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I114" s="19" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -7938,7 +7948,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -7963,7 +7973,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -7988,7 +7998,7 @@
       </c>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -8013,7 +8023,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8038,7 +8048,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="60">
       <c r="A120" s="28" t="s">
         <v>764</v>
       </c>
@@ -8061,11 +8071,11 @@
       <c r="H120" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="30" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I120" s="19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="28" t="s">
         <v>765</v>
       </c>
@@ -8090,7 +8100,7 @@
       </c>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="409.5">
       <c r="A122" s="28" t="s">
         <v>134</v>
       </c>
@@ -8115,7 +8125,7 @@
       </c>
       <c r="I122" s="30"/>
     </row>
-    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="60">
       <c r="A123" s="28" t="s">
         <v>135</v>
       </c>
@@ -8140,15 +8150,15 @@
       </c>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C124" s="30" t="s">
-        <v>918</v>
+      <c r="C124" s="19" t="s">
+        <v>947</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8163,19 +8173,17 @@
       <c r="H124" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="19" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="C125" s="30" t="s">
-        <v>919</v>
+      <c r="C125" s="19" t="s">
+        <v>915</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8192,15 +8200,15 @@
       </c>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="28" t="s">
-        <v>138</v>
+    <row r="126" spans="1:9" ht="45">
+      <c r="A126" s="21" t="s">
+        <v>943</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8213,19 +8221,21 @@
         <v>15</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
+      <c r="A127" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C127" s="30" t="s">
-        <v>523</v>
+      <c r="C127" s="19" t="s">
+        <v>917</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8242,15 +8252,15 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>924</v>
+      <c r="C128" s="30" t="s">
+        <v>523</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8267,15 +8277,15 @@
       </c>
       <c r="I128" s="30"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C129" s="30" t="s">
-        <v>524</v>
+      <c r="C129" s="19" t="s">
+        <v>918</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8292,15 +8302,15 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>769</v>
+        <v>524</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8317,15 +8327,15 @@
       </c>
       <c r="I130" s="30"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>525</v>
+        <v>769</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -8342,15 +8352,15 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>925</v>
+      <c r="C132" s="30" t="s">
+        <v>525</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -8363,19 +8373,19 @@
         <v>15</v>
       </c>
       <c r="H132" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="30" t="s">
-        <v>526</v>
+      <c r="C133" s="19" t="s">
+        <v>919</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -8392,15 +8402,15 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="19" t="s">
-        <v>926</v>
+      <c r="C134" s="30" t="s">
+        <v>526</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -8417,15 +8427,15 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C135" s="30" t="s">
-        <v>527</v>
+      <c r="C135" s="19" t="s">
+        <v>920</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -8442,15 +8452,15 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>927</v>
+      <c r="C136" s="30" t="s">
+        <v>527</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -8467,15 +8477,15 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C137" s="30" t="s">
-        <v>528</v>
+      <c r="C137" s="19" t="s">
+        <v>921</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -8492,15 +8502,15 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>928</v>
+      <c r="C138" s="30" t="s">
+        <v>528</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -8517,15 +8527,15 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C139" s="30" t="s">
-        <v>529</v>
+      <c r="C139" s="19" t="s">
+        <v>922</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -8542,15 +8552,15 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>770</v>
+        <v>529</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="28" t="s">
@@ -8563,19 +8573,19 @@
         <v>15</v>
       </c>
       <c r="H140" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I140" s="30"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B141" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>530</v>
+        <v>770</v>
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="28" t="s">
@@ -8592,15 +8602,15 @@
       </c>
       <c r="I141" s="30"/>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="28" t="s">
@@ -8617,15 +8627,15 @@
       </c>
       <c r="I142" s="30"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -8642,15 +8652,15 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
-        <v>779</v>
+        <v>155</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>771</v>
+        <v>532</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -8663,19 +8673,19 @@
         <v>15</v>
       </c>
       <c r="H144" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C145" s="30" t="s">
-        <v>772</v>
+      <c r="C145" s="19" t="s">
+        <v>950</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8692,15 +8702,15 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -8717,15 +8727,15 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="28" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C147" s="30" t="s">
-        <v>774</v>
+      <c r="C147" s="19" t="s">
+        <v>951</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -8742,15 +8752,15 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="28" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -8763,19 +8773,19 @@
         <v>15</v>
       </c>
       <c r="H148" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="28" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -8788,21 +8798,19 @@
         <v>15</v>
       </c>
       <c r="H149" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="30" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -8815,19 +8823,21 @@
         <v>15</v>
       </c>
       <c r="H150" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" s="30"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I150" s="30" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="28" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>397</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -8844,40 +8854,40 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="28" t="s">
-        <v>156</v>
+        <v>784</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>533</v>
+        <v>776</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H152" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="29" t="s">
         <v>398</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -8887,22 +8897,22 @@
         <v>7</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H153" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I153" s="30"/>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="180">
       <c r="A154" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="29" t="s">
         <v>398</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -8912,22 +8922,22 @@
         <v>7</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I154" s="30"/>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" s="29" t="s">
         <v>398</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>787</v>
+        <v>535</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -8937,22 +8947,22 @@
         <v>7</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H155" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" s="29" t="s">
         <v>398</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>536</v>
+        <v>785</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -8969,40 +8979,40 @@
       </c>
       <c r="I156" s="30"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
-        <v>806</v>
+        <v>160</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>790</v>
+        <v>536</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="28" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>914</v>
+        <v>788</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28" t="s">
@@ -9012,24 +9022,22 @@
         <v>6</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H158" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I158" s="30" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="1:9" ht="45">
       <c r="A159" s="28" t="s">
-        <v>915</v>
+        <v>805</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9042,19 +9050,21 @@
         <v>15</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I159" s="30"/>
-    </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I159" s="19" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="330">
       <c r="A160" s="28" t="s">
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="B160" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>791</v>
+        <v>913</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9064,22 +9074,22 @@
         <v>6</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H160" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="28" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B161" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9089,22 +9099,22 @@
         <v>6</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H161" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I161" s="30"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B162" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9117,19 +9127,19 @@
         <v>15</v>
       </c>
       <c r="H162" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B163" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9142,19 +9152,19 @@
         <v>15</v>
       </c>
       <c r="H163" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B164" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9167,19 +9177,19 @@
         <v>15</v>
       </c>
       <c r="H164" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B165" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9192,19 +9202,19 @@
         <v>15</v>
       </c>
       <c r="H165" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B166" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="28" t="s">
@@ -9217,19 +9227,19 @@
         <v>15</v>
       </c>
       <c r="H166" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B167" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9242,19 +9252,19 @@
         <v>15</v>
       </c>
       <c r="H167" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B168" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9267,19 +9277,19 @@
         <v>15</v>
       </c>
       <c r="H168" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B169" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9292,19 +9302,19 @@
         <v>15</v>
       </c>
       <c r="H169" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B170" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="28" t="s">
@@ -9317,19 +9327,19 @@
         <v>15</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B171" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="28" t="s">
@@ -9342,19 +9352,19 @@
         <v>15</v>
       </c>
       <c r="H171" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B172" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="28" t="s">
@@ -9367,19 +9377,19 @@
         <v>15</v>
       </c>
       <c r="H172" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B173" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="28" t="s">
@@ -9392,19 +9402,19 @@
         <v>15</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="28" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B174" s="29" t="s">
         <v>399</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -9417,44 +9427,44 @@
         <v>15</v>
       </c>
       <c r="H174" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
-        <v>161</v>
+        <v>820</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>537</v>
+        <v>803</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G175" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H175" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B176" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>788</v>
+        <v>537</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -9471,15 +9481,15 @@
       </c>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>538</v>
+        <v>786</v>
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="28" t="s">
@@ -9496,15 +9506,15 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="210">
       <c r="A178" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D178" s="28"/>
       <c r="E178" s="28" t="s">
@@ -9514,22 +9524,22 @@
         <v>7</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H178" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45">
       <c r="A179" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B179" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="28" t="s">
@@ -9539,22 +9549,22 @@
         <v>7</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H179" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B180" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="28" t="s">
@@ -9571,15 +9581,15 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" s="29" t="s">
         <v>400</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -9596,47 +9606,47 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G183" s="28" t="s">
         <v>16</v>
@@ -9646,15 +9656,15 @@
       </c>
       <c r="I183" s="30"/>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D184" s="28"/>
       <c r="E184" s="28" t="s">
@@ -9671,15 +9681,15 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D185" s="28"/>
       <c r="E185" s="28" t="s">
@@ -9696,22 +9706,22 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D186" s="28"/>
       <c r="E186" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G186" s="28" t="s">
         <v>16</v>
@@ -9721,15 +9731,15 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>823</v>
+        <v>558</v>
       </c>
       <c r="D187" s="28"/>
       <c r="E187" s="28" t="s">
@@ -9746,15 +9756,15 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>559</v>
+        <v>821</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -9771,22 +9781,22 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="29" t="s">
         <v>405</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>16</v>
@@ -9796,22 +9806,22 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G190" s="28" t="s">
         <v>16</v>
@@ -9821,15 +9831,15 @@
       </c>
       <c r="I190" s="30"/>
     </row>
-    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="45">
       <c r="A191" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="29" t="s">
         <v>406</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="28" t="s">
@@ -9846,15 +9856,15 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="28" t="s">
@@ -9871,15 +9881,15 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="45">
       <c r="A193" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D193" s="28"/>
       <c r="E193" s="28" t="s">
@@ -9896,15 +9906,15 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45">
       <c r="A194" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -9921,15 +9931,15 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="60">
       <c r="A195" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="29" t="s">
         <v>407</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -9946,22 +9956,22 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G196" s="28" t="s">
         <v>16</v>
@@ -9971,40 +9981,40 @@
       </c>
       <c r="I196" s="30"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="60">
       <c r="A197" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D197" s="28"/>
       <c r="E197" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G197" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H197" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D198" s="28"/>
       <c r="E198" s="28" t="s">
@@ -10021,15 +10031,15 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D199" s="28"/>
       <c r="E199" s="28" t="s">
@@ -10042,19 +10052,19 @@
         <v>15</v>
       </c>
       <c r="H199" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="29" t="s">
         <v>408</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10071,15 +10081,15 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="29" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10089,22 +10099,22 @@
         <v>3</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D202" s="28"/>
       <c r="E202" s="28" t="s">
@@ -10114,22 +10124,22 @@
         <v>3</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H202" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I202" s="30"/>
     </row>
-    <row r="203" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="90">
       <c r="A203" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C203" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D203" s="28"/>
       <c r="E203" s="28" t="s">
@@ -10146,47 +10156,47 @@
       </c>
       <c r="I203" s="30"/>
     </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="345">
       <c r="A204" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D204" s="28"/>
       <c r="E204" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H204" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I204" s="30"/>
     </row>
-    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D205" s="28"/>
       <c r="E205" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G205" s="28" t="s">
         <v>16</v>
@@ -10196,15 +10206,15 @@
       </c>
       <c r="I205" s="30"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10214,22 +10224,22 @@
         <v>6</v>
       </c>
       <c r="G206" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>824</v>
+        <v>577</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10242,25 +10252,21 @@
         <v>15</v>
       </c>
       <c r="H207" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I207" s="30" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="1:9" ht="45">
       <c r="A208" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>720</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="D208" s="28"/>
       <c r="E208" s="28" t="s">
         <v>19</v>
       </c>
@@ -10271,51 +10277,55 @@
         <v>15</v>
       </c>
       <c r="H208" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I208" s="30"/>
-    </row>
-    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I208" s="30" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C209" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="E209" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="1:9" ht="30">
+      <c r="A210" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C210" s="30" t="s">
         <v>579</v>
-      </c>
-      <c r="D209" s="28"/>
-      <c r="E209" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G209" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H209" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" s="30"/>
-    </row>
-    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C210" s="30" t="s">
-        <v>581</v>
       </c>
       <c r="D210" s="28"/>
       <c r="E210" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G210" s="28" t="s">
         <v>16</v>
@@ -10325,22 +10335,22 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="45">
       <c r="A211" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" s="29" t="s">
         <v>409</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D211" s="28"/>
       <c r="E211" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G211" s="28" t="s">
         <v>16</v>
@@ -10350,65 +10360,65 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="29" t="s">
         <v>409</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G212" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H212" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D213" s="28"/>
       <c r="E213" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G213" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H213" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="135">
       <c r="A214" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -10418,22 +10428,22 @@
         <v>7</v>
       </c>
       <c r="G214" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H214" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I214" s="30"/>
     </row>
-    <row r="215" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45">
       <c r="A215" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D215" s="28"/>
       <c r="E215" s="28" t="s">
@@ -10450,15 +10460,15 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="45">
       <c r="A216" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D216" s="28"/>
       <c r="E216" s="28" t="s">
@@ -10468,22 +10478,22 @@
         <v>7</v>
       </c>
       <c r="G216" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H216" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D217" s="28"/>
       <c r="E217" s="28" t="s">
@@ -10500,15 +10510,15 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C218" s="19" t="s">
-        <v>929</v>
+      <c r="C218" s="30" t="s">
+        <v>588</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -10518,22 +10528,22 @@
         <v>7</v>
       </c>
       <c r="G218" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H218" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C219" s="30" t="s">
-        <v>589</v>
+      <c r="C219" s="19" t="s">
+        <v>923</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -10543,22 +10553,22 @@
         <v>7</v>
       </c>
       <c r="G219" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H219" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C220" s="19" t="s">
-        <v>930</v>
+      <c r="C220" s="30" t="s">
+        <v>589</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -10575,15 +10585,15 @@
       </c>
       <c r="I220" s="30"/>
     </row>
-    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C221" s="30" t="s">
-        <v>590</v>
+      <c r="C221" s="19" t="s">
+        <v>924</v>
       </c>
       <c r="D221" s="28"/>
       <c r="E221" s="28" t="s">
@@ -10600,15 +10610,15 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D222" s="28"/>
       <c r="E222" s="28" t="s">
@@ -10625,15 +10635,15 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C223" s="19" t="s">
-        <v>931</v>
+      <c r="C223" s="30" t="s">
+        <v>591</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -10650,65 +10660,65 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C224" s="30" t="s">
-        <v>592</v>
+      <c r="C224" s="19" t="s">
+        <v>925</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G224" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H224" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G225" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H225" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="29" t="s">
         <v>410</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -10718,47 +10728,47 @@
         <v>7</v>
       </c>
       <c r="G226" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H226" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="30"/>
     </row>
-    <row r="227" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D227" s="28"/>
       <c r="E227" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F227" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G227" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H227" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="120">
       <c r="A228" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D228" s="28"/>
       <c r="E228" s="28" t="s">
@@ -10768,22 +10778,22 @@
         <v>6</v>
       </c>
       <c r="G228" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H228" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="45">
       <c r="A229" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D229" s="28"/>
       <c r="E229" s="28" t="s">
@@ -10800,15 +10810,15 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="45">
       <c r="A230" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -10818,22 +10828,22 @@
         <v>6</v>
       </c>
       <c r="G230" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H230" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -10843,22 +10853,22 @@
         <v>6</v>
       </c>
       <c r="G231" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H231" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C232" s="19" t="s">
-        <v>946</v>
+      <c r="C232" s="30" t="s">
+        <v>599</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -10868,22 +10878,22 @@
         <v>6</v>
       </c>
       <c r="G232" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H232" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I232" s="30"/>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C233" s="30" t="s">
-        <v>600</v>
+      <c r="C233" s="19" t="s">
+        <v>940</v>
       </c>
       <c r="D233" s="28"/>
       <c r="E233" s="28" t="s">
@@ -10900,15 +10910,15 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B234" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>854</v>
+        <v>600</v>
       </c>
       <c r="D234" s="28"/>
       <c r="E234" s="28" t="s">
@@ -10921,19 +10931,19 @@
         <v>15</v>
       </c>
       <c r="H234" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="45">
       <c r="A235" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B235" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>580</v>
+        <v>852</v>
       </c>
       <c r="D235" s="28"/>
       <c r="E235" s="28" t="s">
@@ -10950,22 +10960,22 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
-        <v>855</v>
+        <v>209</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>857</v>
+        <v>580</v>
       </c>
       <c r="D236" s="28"/>
       <c r="E236" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F236" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G236" s="28" t="s">
         <v>15</v>
@@ -10975,15 +10985,15 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="45">
       <c r="A237" s="28" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B237" s="29" t="s">
         <v>411</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D237" s="28"/>
       <c r="E237" s="28" t="s">
@@ -11000,15 +11010,15 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="60">
       <c r="A238" s="28" t="s">
-        <v>234</v>
+        <v>854</v>
       </c>
       <c r="B238" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>601</v>
+        <v>856</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -11018,129 +11028,129 @@
         <v>3</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H238" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="29" t="s">
         <v>412</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G239" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H239" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B240" s="29" t="s">
         <v>412</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G240" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H240" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I240" s="30"/>
     </row>
-    <row r="241" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B241" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D241" s="28"/>
       <c r="E241" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G241" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H241" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="75">
       <c r="A242" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>825</v>
+        <v>604</v>
       </c>
       <c r="D242" s="28"/>
       <c r="E242" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F242" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G242" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H242" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="75">
       <c r="A243" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>605</v>
+        <v>823</v>
       </c>
       <c r="D243" s="28"/>
       <c r="E243" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G243" s="28" t="s">
         <v>16</v>
@@ -11150,90 +11160,90 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="45">
       <c r="A244" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244" s="29" t="s">
         <v>415</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G244" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H244" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245" s="29" t="s">
         <v>415</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G245" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B246" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F246" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G246" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H246" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I246" s="30"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="45">
       <c r="A247" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B247" s="29" t="s">
         <v>416</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>826</v>
+        <v>608</v>
       </c>
       <c r="D247" s="28"/>
       <c r="E247" s="28" t="s">
@@ -11243,22 +11253,22 @@
         <v>6</v>
       </c>
       <c r="G247" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H247" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="45">
       <c r="A248" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" s="29" t="s">
         <v>416</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>609</v>
+        <v>824</v>
       </c>
       <c r="D248" s="28"/>
       <c r="E248" s="28" t="s">
@@ -11271,44 +11281,44 @@
         <v>15</v>
       </c>
       <c r="H248" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="135">
       <c r="A249" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B249" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C249" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F249" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G249" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H249" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="45">
       <c r="A250" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B250" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>827</v>
+        <v>610</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -11318,22 +11328,22 @@
         <v>7</v>
       </c>
       <c r="G250" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H250" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>611</v>
+        <v>825</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -11350,15 +11360,15 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="270">
       <c r="A252" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -11368,22 +11378,22 @@
         <v>7</v>
       </c>
       <c r="G252" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H252" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="45">
       <c r="A253" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>828</v>
+        <v>612</v>
       </c>
       <c r="D253" s="28"/>
       <c r="E253" s="28" t="s">
@@ -11393,72 +11403,72 @@
         <v>7</v>
       </c>
       <c r="G253" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H253" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>613</v>
+        <v>826</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F254" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G254" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H254" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B255" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G255" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H255" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B256" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C256" s="30" t="s">
-        <v>830</v>
+        <v>614</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -11475,15 +11485,15 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B257" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C257" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -11500,40 +11510,40 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" s="29" t="s">
         <v>417</v>
       </c>
       <c r="C258" s="30" t="s">
-        <v>615</v>
+        <v>827</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F258" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G258" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H258" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I258" s="30"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="29" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>831</v>
+        <v>615</v>
       </c>
       <c r="D259" s="28"/>
       <c r="E259" s="28" t="s">
@@ -11543,22 +11553,22 @@
         <v>3</v>
       </c>
       <c r="G259" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H259" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B260" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>616</v>
+        <v>829</v>
       </c>
       <c r="D260" s="28"/>
       <c r="E260" s="28" t="s">
@@ -11568,22 +11578,22 @@
         <v>3</v>
       </c>
       <c r="G260" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H260" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="90">
       <c r="A261" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B261" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C261" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D261" s="28"/>
       <c r="E261" s="28" t="s">
@@ -11600,47 +11610,47 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="315">
       <c r="A262" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F262" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G262" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H262" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F263" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G263" s="28" t="s">
         <v>16</v>
@@ -11650,15 +11660,15 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -11668,22 +11678,22 @@
         <v>6</v>
       </c>
       <c r="G264" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H264" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C265" s="30" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D265" s="28"/>
       <c r="E265" s="28" t="s">
@@ -11696,25 +11706,21 @@
         <v>15</v>
       </c>
       <c r="H265" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I265" s="30" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I265" s="30"/>
+    </row>
+    <row r="266" spans="1:9" ht="45">
       <c r="A266" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B266" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="D266" s="28" t="s">
-        <v>721</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="D266" s="28"/>
       <c r="E266" s="28" t="s">
         <v>19</v>
       </c>
@@ -11725,69 +11731,73 @@
         <v>15</v>
       </c>
       <c r="H266" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I266" s="30"/>
-    </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I266" s="30" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B267" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C267" s="30" t="s">
-        <v>622</v>
-      </c>
-      <c r="D267" s="28"/>
+        <v>830</v>
+      </c>
+      <c r="D267" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="E267" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F267" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G267" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H267" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B268" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C268" s="30" t="s">
-        <v>833</v>
+        <v>622</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F268" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G268" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H268" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B269" s="29" t="s">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="C269" s="30" t="s">
-        <v>625</v>
+        <v>831</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -11797,97 +11807,97 @@
         <v>3</v>
       </c>
       <c r="G269" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H269" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="45">
       <c r="A270" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="29" t="s">
         <v>418</v>
       </c>
       <c r="C270" s="30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F270" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G270" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H270" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="29" t="s">
         <v>418</v>
       </c>
       <c r="C271" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D271" s="28"/>
       <c r="E271" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F271" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G271" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H271" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C272" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D272" s="28"/>
       <c r="E272" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F272" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G272" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H272" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="120">
       <c r="A273" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C273" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -11904,15 +11914,15 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C274" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -11922,22 +11932,22 @@
         <v>7</v>
       </c>
       <c r="G274" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H274" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C275" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -11947,22 +11957,22 @@
         <v>7</v>
       </c>
       <c r="G275" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H275" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C276" s="30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D276" s="28"/>
       <c r="E276" s="28" t="s">
@@ -11979,15 +11989,15 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C277" s="19" t="s">
-        <v>932</v>
+      <c r="C277" s="30" t="s">
+        <v>632</v>
       </c>
       <c r="D277" s="28"/>
       <c r="E277" s="28" t="s">
@@ -12004,15 +12014,15 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C278" s="30" t="s">
-        <v>633</v>
+      <c r="C278" s="19" t="s">
+        <v>926</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12029,15 +12039,15 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C279" s="19" t="s">
-        <v>933</v>
+      <c r="C279" s="30" t="s">
+        <v>633</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12054,15 +12064,15 @@
       </c>
       <c r="I279" s="30"/>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C280" s="30" t="s">
-        <v>634</v>
+      <c r="C280" s="19" t="s">
+        <v>927</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12079,15 +12089,15 @@
       </c>
       <c r="I280" s="30"/>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C281" s="30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="28" t="s">
@@ -12104,15 +12114,15 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30">
       <c r="A282" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C282" s="19" t="s">
-        <v>934</v>
+      <c r="C282" s="30" t="s">
+        <v>635</v>
       </c>
       <c r="D282" s="28"/>
       <c r="E282" s="28" t="s">
@@ -12129,47 +12139,47 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C283" s="30" t="s">
-        <v>636</v>
+      <c r="C283" s="19" t="s">
+        <v>928</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G283" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H283" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="30">
       <c r="A284" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C284" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G284" s="28" t="s">
         <v>15</v>
@@ -12179,15 +12189,15 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="120">
       <c r="A285" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -12197,22 +12207,22 @@
         <v>6</v>
       </c>
       <c r="G285" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H285" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="45">
       <c r="A286" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -12229,15 +12239,15 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="45">
       <c r="A287" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C287" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -12247,22 +12257,22 @@
         <v>6</v>
       </c>
       <c r="G287" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H287" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C288" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D288" s="28"/>
       <c r="E288" s="28" t="s">
@@ -12279,15 +12289,15 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C289" s="19" t="s">
-        <v>935</v>
+      <c r="C289" s="30" t="s">
+        <v>641</v>
       </c>
       <c r="D289" s="28"/>
       <c r="E289" s="28" t="s">
@@ -12304,15 +12314,15 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C290" s="30" t="s">
-        <v>642</v>
+      <c r="C290" s="19" t="s">
+        <v>929</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -12329,15 +12339,15 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="28" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B291" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -12350,19 +12360,19 @@
         <v>15</v>
       </c>
       <c r="H291" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B292" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C292" s="30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -12379,22 +12389,22 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="45">
       <c r="A293" s="28" t="s">
-        <v>835</v>
+        <v>266</v>
       </c>
       <c r="B293" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C293" s="30" t="s">
-        <v>834</v>
+        <v>624</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F293" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G293" s="28" t="s">
         <v>15</v>
@@ -12404,15 +12414,15 @@
       </c>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="28" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B294" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C294" s="30" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="D294" s="28"/>
       <c r="E294" s="28" t="s">
@@ -12429,115 +12439,115 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="60">
       <c r="A295" s="28" t="s">
-        <v>289</v>
+        <v>834</v>
       </c>
       <c r="B295" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C295" s="30" t="s">
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="D295" s="28"/>
       <c r="E295" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F295" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G295" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H295" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="45">
       <c r="A296" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B296" s="29" t="s">
         <v>421</v>
       </c>
       <c r="C296" s="30" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D296" s="28"/>
       <c r="E296" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F296" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G296" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H296" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B297" s="29" t="s">
         <v>421</v>
       </c>
       <c r="C297" s="30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D297" s="28"/>
       <c r="E297" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F297" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G297" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B298" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C298" s="30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F298" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G298" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H298" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30">
       <c r="A299" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B299" s="29" t="s">
         <v>422</v>
       </c>
       <c r="C299" s="30" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
@@ -12547,47 +12557,47 @@
         <v>7</v>
       </c>
       <c r="G299" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H299" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="60">
       <c r="A300" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B300" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F300" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G300" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H300" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75">
       <c r="A301" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B301" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C301" s="30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
@@ -12597,22 +12607,22 @@
         <v>6</v>
       </c>
       <c r="G301" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H301" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B302" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C302" s="30" t="s">
-        <v>837</v>
+        <v>649</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
@@ -12622,72 +12632,72 @@
         <v>6</v>
       </c>
       <c r="G302" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H302" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B303" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C303" s="30" t="s">
-        <v>650</v>
+        <v>835</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F303" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G303" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H303" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="30">
       <c r="A304" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B304" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D304" s="28"/>
       <c r="E304" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F304" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G304" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H304" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
-        <v>838</v>
+        <v>298</v>
       </c>
       <c r="B305" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C305" s="30" t="s">
-        <v>841</v>
+        <v>651</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -12700,19 +12710,19 @@
         <v>15</v>
       </c>
       <c r="H305" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B306" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C306" s="30" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -12722,22 +12732,22 @@
         <v>6</v>
       </c>
       <c r="G306" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H306" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="28" t="s">
-        <v>299</v>
+        <v>837</v>
       </c>
       <c r="B307" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C307" s="30" t="s">
-        <v>652</v>
+        <v>838</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -12754,15 +12764,15 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="45">
       <c r="A308" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B308" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C308" s="30" t="s">
-        <v>842</v>
+        <v>652</v>
       </c>
       <c r="D308" s="28"/>
       <c r="E308" s="28" t="s">
@@ -12772,22 +12782,22 @@
         <v>6</v>
       </c>
       <c r="G308" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H308" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B309" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>653</v>
+        <v>840</v>
       </c>
       <c r="D309" s="28"/>
       <c r="E309" s="28" t="s">
@@ -12800,19 +12810,19 @@
         <v>15</v>
       </c>
       <c r="H309" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="240">
       <c r="A310" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B310" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C310" s="30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D310" s="28"/>
       <c r="E310" s="28" t="s">
@@ -12822,22 +12832,22 @@
         <v>6</v>
       </c>
       <c r="G310" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H310" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="45">
       <c r="A311" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B311" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C311" s="30" t="s">
-        <v>843</v>
+        <v>654</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -12847,22 +12857,22 @@
         <v>6</v>
       </c>
       <c r="G311" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H311" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B312" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C312" s="30" t="s">
-        <v>655</v>
+        <v>841</v>
       </c>
       <c r="D312" s="28"/>
       <c r="E312" s="28" t="s">
@@ -12875,19 +12885,19 @@
         <v>15</v>
       </c>
       <c r="H312" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="30">
       <c r="A313" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B313" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C313" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D313" s="28"/>
       <c r="E313" s="28" t="s">
@@ -12897,22 +12907,22 @@
         <v>6</v>
       </c>
       <c r="G313" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H313" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="45">
       <c r="A314" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B314" s="29" t="s">
         <v>426</v>
       </c>
       <c r="C314" s="30" t="s">
-        <v>844</v>
+        <v>656</v>
       </c>
       <c r="D314" s="28"/>
       <c r="E314" s="28" t="s">
@@ -12922,22 +12932,22 @@
         <v>6</v>
       </c>
       <c r="G314" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H314" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="45">
       <c r="A315" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B315" s="29" t="s">
         <v>426</v>
       </c>
       <c r="C315" s="30" t="s">
-        <v>657</v>
+        <v>842</v>
       </c>
       <c r="D315" s="28"/>
       <c r="E315" s="28" t="s">
@@ -12950,44 +12960,44 @@
         <v>15</v>
       </c>
       <c r="H315" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="135">
       <c r="A316" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B316" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C316" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D316" s="28"/>
       <c r="E316" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F316" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G316" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H316" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B317" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C317" s="30" t="s">
-        <v>845</v>
+        <v>658</v>
       </c>
       <c r="D317" s="28"/>
       <c r="E317" s="28" t="s">
@@ -12997,22 +13007,22 @@
         <v>7</v>
       </c>
       <c r="G317" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H317" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B318" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>659</v>
+        <v>843</v>
       </c>
       <c r="D318" s="28"/>
       <c r="E318" s="28" t="s">
@@ -13029,15 +13039,15 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="225">
       <c r="A319" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B319" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C319" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D319" s="28"/>
       <c r="E319" s="28" t="s">
@@ -13047,22 +13057,22 @@
         <v>7</v>
       </c>
       <c r="G319" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H319" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B320" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D320" s="28"/>
       <c r="E320" s="28" t="s">
@@ -13072,47 +13082,47 @@
         <v>7</v>
       </c>
       <c r="G320" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H320" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B321" s="29" t="s">
         <v>427</v>
       </c>
       <c r="C321" s="30" t="s">
-        <v>846</v>
+        <v>661</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F321" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G321" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H321" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="28" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="B322" s="29" t="s">
-        <v>789</v>
+        <v>427</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>543</v>
+        <v>844</v>
       </c>
       <c r="D322" s="28"/>
       <c r="E322" s="28" t="s">
@@ -13122,22 +13132,22 @@
         <v>3</v>
       </c>
       <c r="G322" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H322" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B323" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>847</v>
+        <v>543</v>
       </c>
       <c r="D323" s="28"/>
       <c r="E323" s="28" t="s">
@@ -13147,22 +13157,22 @@
         <v>3</v>
       </c>
       <c r="G323" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H323" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B324" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>544</v>
+        <v>845</v>
       </c>
       <c r="D324" s="28"/>
       <c r="E324" s="28" t="s">
@@ -13175,19 +13185,19 @@
         <v>15</v>
       </c>
       <c r="H324" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="255">
       <c r="A325" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B325" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D325" s="28"/>
       <c r="E325" s="28" t="s">
@@ -13197,22 +13207,22 @@
         <v>3</v>
       </c>
       <c r="G325" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H325" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="45">
       <c r="A326" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B326" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -13222,22 +13232,22 @@
         <v>3</v>
       </c>
       <c r="G326" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H326" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B327" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D327" s="28"/>
       <c r="E327" s="28" t="s">
@@ -13250,75 +13260,75 @@
         <v>15</v>
       </c>
       <c r="H327" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B328" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C328" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D328" s="28"/>
       <c r="E328" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F328" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G328" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H328" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I328" s="30"/>
+    </row>
+    <row r="329" spans="1:9" ht="45">
+      <c r="A329" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B329" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C329" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G329" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I328" s="30" t="s">
+      <c r="I329" s="30" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="28" t="s">
+    <row r="330" spans="1:9" ht="30">
+      <c r="A330" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B329" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="C329" s="30" t="s">
+      <c r="B330" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C330" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="D329" s="28" t="s">
+      <c r="D330" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="E329" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F329" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G329" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H329" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I329" s="30"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B330" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="C330" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="D330" s="28"/>
       <c r="E330" s="28" t="s">
         <v>19</v>
       </c>
@@ -13333,15 +13343,15 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B331" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C331" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -13354,19 +13364,19 @@
         <v>15</v>
       </c>
       <c r="H331" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C332" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D332" s="28"/>
       <c r="E332" s="28" t="s">
@@ -13379,73 +13389,73 @@
         <v>15</v>
       </c>
       <c r="H332" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I332" s="30"/>
+    </row>
+    <row r="333" spans="1:9" ht="45">
+      <c r="A333" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B333" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C333" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D333" s="28"/>
+      <c r="E333" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G333" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H333" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I332" s="30" t="s">
+      <c r="I333" s="19" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="28" t="s">
+    <row r="334" spans="1:9" ht="30">
+      <c r="A334" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B333" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="C333" s="30" t="s">
+      <c r="B334" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C334" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="D333" s="28" t="s">
+      <c r="D334" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="E333" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F333" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G333" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H333" s="28" t="s">
+      <c r="E334" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G334" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H334" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I333" s="30"/>
-    </row>
-    <row r="334" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="28" t="s">
+      <c r="I334" s="30"/>
+    </row>
+    <row r="335" spans="1:9" ht="30">
+      <c r="A335" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="B334" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="C334" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="D334" s="28"/>
-      <c r="E334" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G334" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H334" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I334" s="30"/>
-    </row>
-    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A335" s="28" t="s">
-        <v>315</v>
       </c>
       <c r="B335" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C335" s="30" t="s">
-        <v>662</v>
+        <v>846</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -13455,22 +13465,22 @@
         <v>3</v>
       </c>
       <c r="G335" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H335" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="90">
       <c r="A336" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B336" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C336" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -13487,47 +13497,47 @@
       </c>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="345">
       <c r="A337" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B337" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F337" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H337" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B338" s="29" t="s">
         <v>428</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F338" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G338" s="28" t="s">
         <v>16</v>
@@ -13537,15 +13547,15 @@
       </c>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="30">
       <c r="A339" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B339" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -13562,22 +13572,22 @@
       </c>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="45">
       <c r="A340" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B340" s="29" t="s">
         <v>429</v>
       </c>
       <c r="C340" s="30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F340" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G340" s="28" t="s">
         <v>16</v>
@@ -13587,65 +13597,65 @@
       </c>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B341" s="29" t="s">
         <v>429</v>
       </c>
       <c r="C341" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F341" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G341" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H341" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F342" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G342" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H342" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="135">
       <c r="A343" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B343" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C343" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D343" s="28"/>
       <c r="E343" s="28" t="s">
@@ -13655,22 +13665,22 @@
         <v>7</v>
       </c>
       <c r="G343" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H343" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B344" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C344" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
@@ -13687,15 +13697,15 @@
       </c>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="45">
       <c r="A345" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B345" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C345" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
@@ -13705,22 +13715,22 @@
         <v>7</v>
       </c>
       <c r="G345" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H345" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B346" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C346" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
@@ -13737,15 +13747,15 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B347" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C347" s="19" t="s">
-        <v>937</v>
+      <c r="C347" s="30" t="s">
+        <v>674</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -13762,15 +13772,15 @@
       </c>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B348" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C348" s="30" t="s">
-        <v>675</v>
+      <c r="C348" s="19" t="s">
+        <v>931</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -13787,15 +13797,15 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B349" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C349" s="19" t="s">
-        <v>938</v>
+      <c r="C349" s="30" t="s">
+        <v>675</v>
       </c>
       <c r="D349" s="28"/>
       <c r="E349" s="28" t="s">
@@ -13812,15 +13822,15 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B350" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C350" s="30" t="s">
-        <v>676</v>
+      <c r="C350" s="19" t="s">
+        <v>932</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -13837,15 +13847,15 @@
       </c>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="30">
       <c r="A351" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B351" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C351" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D351" s="28"/>
       <c r="E351" s="28" t="s">
@@ -13862,15 +13872,15 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B352" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C352" s="19" t="s">
-        <v>939</v>
+      <c r="C352" s="30" t="s">
+        <v>677</v>
       </c>
       <c r="D352" s="28"/>
       <c r="E352" s="28" t="s">
@@ -13887,65 +13897,65 @@
       </c>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C353" s="30" t="s">
-        <v>678</v>
+      <c r="C353" s="19" t="s">
+        <v>933</v>
       </c>
       <c r="D353" s="28"/>
       <c r="E353" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F353" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G353" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H353" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="30">
       <c r="A354" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C354" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D354" s="28"/>
       <c r="E354" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F354" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G354" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H354" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B355" s="29" t="s">
         <v>430</v>
       </c>
       <c r="C355" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D355" s="28"/>
       <c r="E355" s="28" t="s">
@@ -13962,40 +13972,40 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B356" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C356" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D356" s="28"/>
       <c r="E356" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F356" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G356" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H356" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="90">
       <c r="A357" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B357" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C357" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -14005,22 +14015,22 @@
         <v>6</v>
       </c>
       <c r="G357" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H357" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45">
       <c r="A358" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B358" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C358" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D358" s="28"/>
       <c r="E358" s="28" t="s">
@@ -14037,15 +14047,15 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="45">
       <c r="A359" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B359" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C359" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D359" s="28"/>
       <c r="E359" s="28" t="s">
@@ -14055,22 +14065,22 @@
         <v>6</v>
       </c>
       <c r="G359" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H359" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B360" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C360" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -14087,15 +14097,15 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C361" s="19" t="s">
-        <v>936</v>
+      <c r="C361" s="30" t="s">
+        <v>685</v>
       </c>
       <c r="D361" s="28"/>
       <c r="E361" s="28" t="s">
@@ -14112,15 +14122,15 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B362" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C362" s="30" t="s">
-        <v>686</v>
+      <c r="C362" s="19" t="s">
+        <v>930</v>
       </c>
       <c r="D362" s="28"/>
       <c r="E362" s="28" t="s">
@@ -14137,15 +14147,15 @@
       </c>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30">
       <c r="A363" s="28" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B363" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C363" s="30" t="s">
-        <v>852</v>
+        <v>686</v>
       </c>
       <c r="D363" s="28"/>
       <c r="E363" s="28" t="s">
@@ -14158,19 +14168,19 @@
         <v>15</v>
       </c>
       <c r="H363" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="45">
       <c r="A364" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B364" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C364" s="30" t="s">
-        <v>666</v>
+        <v>850</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
@@ -14187,22 +14197,22 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="45">
       <c r="A365" s="28" t="s">
-        <v>850</v>
+        <v>320</v>
       </c>
       <c r="B365" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C365" s="30" t="s">
-        <v>849</v>
+        <v>666</v>
       </c>
       <c r="D365" s="28"/>
       <c r="E365" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F365" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G365" s="28" t="s">
         <v>15</v>
@@ -14212,15 +14222,15 @@
       </c>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="28" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B366" s="29" t="s">
         <v>431</v>
       </c>
       <c r="C366" s="30" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D366" s="28"/>
       <c r="E366" s="28" t="s">
@@ -14237,15 +14247,15 @@
       </c>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="60">
       <c r="A367" s="28" t="s">
-        <v>345</v>
+        <v>849</v>
       </c>
       <c r="B367" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C367" s="30" t="s">
-        <v>687</v>
+        <v>851</v>
       </c>
       <c r="D367" s="28"/>
       <c r="E367" s="28" t="s">
@@ -14255,247 +14265,247 @@
         <v>3</v>
       </c>
       <c r="G367" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H367" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="45">
       <c r="A368" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B368" s="29" t="s">
         <v>432</v>
       </c>
       <c r="C368" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D368" s="28"/>
       <c r="E368" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F368" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G368" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H368" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B369" s="29" t="s">
         <v>432</v>
       </c>
       <c r="C369" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D369" s="28"/>
       <c r="E369" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F369" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G369" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H369" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="30">
       <c r="A370" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B370" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F370" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G370" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H370" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="75">
       <c r="A371" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B371" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C371" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D371" s="28"/>
       <c r="E371" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F371" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G371" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H371" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="75">
       <c r="A372" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B372" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C372" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D372" s="28"/>
       <c r="E372" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F372" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G372" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H372" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="60">
       <c r="A373" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B373" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C373" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F373" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G373" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H373" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B374" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C374" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D374" s="28"/>
       <c r="E374" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F374" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G374" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H374" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B375" s="29" t="s">
         <v>435</v>
       </c>
       <c r="C375" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D375" s="28"/>
       <c r="E375" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F375" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G375" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H375" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I375" s="30"/>
     </row>
-    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30">
       <c r="A376" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B376" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C376" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D376" s="28"/>
       <c r="E376" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F376" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G376" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H376" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I376" s="30"/>
     </row>
-    <row r="377" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45">
       <c r="A377" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B377" s="29" t="s">
         <v>436</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>860</v>
+        <v>696</v>
       </c>
       <c r="D377" s="28"/>
       <c r="E377" s="28" t="s">
@@ -14505,47 +14515,47 @@
         <v>6</v>
       </c>
       <c r="G377" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H377" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I377" s="30"/>
     </row>
-    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="150">
       <c r="A378" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B378" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C378" s="30" t="s">
-        <v>697</v>
+        <v>858</v>
       </c>
       <c r="D378" s="28"/>
       <c r="E378" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F378" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G378" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H378" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B379" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>861</v>
+        <v>697</v>
       </c>
       <c r="D379" s="28"/>
       <c r="E379" s="28" t="s">
@@ -14555,22 +14565,22 @@
         <v>7</v>
       </c>
       <c r="G379" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H379" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="285">
       <c r="A380" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B380" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>698</v>
+        <v>859</v>
       </c>
       <c r="D380" s="28"/>
       <c r="E380" s="28" t="s">
@@ -14580,22 +14590,22 @@
         <v>7</v>
       </c>
       <c r="G380" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H380" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45">
       <c r="A381" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B381" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C381" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D381" s="28"/>
       <c r="E381" s="28" t="s">
@@ -14605,122 +14615,122 @@
         <v>7</v>
       </c>
       <c r="G381" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H381" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B382" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D382" s="28"/>
       <c r="E382" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F382" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G382" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H382" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B383" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C383" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F383" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G383" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H383" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B384" s="29" t="s">
         <v>437</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F384" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G384" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H384" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="30">
       <c r="A385" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B385" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F385" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G385" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H385" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="345">
       <c r="A386" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B386" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -14730,72 +14740,72 @@
         <v>7</v>
       </c>
       <c r="G386" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H386" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="45">
       <c r="A387" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B387" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C387" s="30" t="s">
-        <v>704</v>
+        <v>860</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F387" s="28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G387" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H387" s="28" t="s">
         <v>18</v>
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B388" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C388" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F388" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G388" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H388" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B389" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C389" s="30" t="s">
-        <v>863</v>
+        <v>705</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -14808,25 +14818,21 @@
         <v>15</v>
       </c>
       <c r="H389" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I389" s="30" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I389" s="30"/>
+    </row>
+    <row r="390" spans="1:9" ht="90">
       <c r="A390" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B390" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C390" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="D390" s="28" t="s">
-        <v>722</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="D390" s="28"/>
       <c r="E390" s="28" t="s">
         <v>19</v>
       </c>
@@ -14837,69 +14843,73 @@
         <v>15</v>
       </c>
       <c r="H390" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I390" s="30"/>
-    </row>
-    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I390" s="30" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B391" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C391" s="30" t="s">
-        <v>865</v>
-      </c>
-      <c r="D391" s="28"/>
+        <v>706</v>
+      </c>
+      <c r="D391" s="28" t="s">
+        <v>722</v>
+      </c>
       <c r="E391" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F391" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G391" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H391" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B392" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C392" s="30" t="s">
-        <v>707</v>
+        <v>863</v>
       </c>
       <c r="D392" s="28"/>
       <c r="E392" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F392" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G392" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H392" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B393" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C393" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D393" s="28"/>
       <c r="E393" s="28" t="s">
@@ -14912,21 +14922,19 @@
         <v>15</v>
       </c>
       <c r="H393" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I393" s="30" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I393" s="30"/>
+    </row>
+    <row r="394" spans="1:9" ht="45">
       <c r="A394" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B394" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C394" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -14939,19 +14947,21 @@
         <v>15</v>
       </c>
       <c r="H394" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I394" s="30"/>
-    </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I394" s="30" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="28" t="s">
-        <v>873</v>
+        <v>376</v>
       </c>
       <c r="B395" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C395" s="30" t="s">
-        <v>874</v>
+        <v>709</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -14968,19 +14978,17 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B396" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C396" s="30" t="s">
-        <v>875</v>
-      </c>
-      <c r="D396" s="28" t="s">
-        <v>887</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="D396" s="28"/>
       <c r="E396" s="28" t="s">
         <v>19</v>
       </c>
@@ -14995,90 +15003,92 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="45">
       <c r="A397" s="28" t="s">
-        <v>377</v>
+        <v>874</v>
       </c>
       <c r="B397" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C397" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="D397" s="28"/>
+        <v>873</v>
+      </c>
+      <c r="D397" s="28" t="s">
+        <v>885</v>
+      </c>
       <c r="E397" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F397" s="28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G397" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H397" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B398" s="29" t="s">
         <v>438</v>
       </c>
       <c r="C398" s="30" t="s">
-        <v>710</v>
+        <v>862</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F398" s="28" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G398" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H398" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="30">
       <c r="A399" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B399" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="C399" s="19" t="s">
-        <v>947</v>
+        <v>438</v>
+      </c>
+      <c r="C399" s="30" t="s">
+        <v>710</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F399" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G399" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H399" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="45">
       <c r="A400" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B400" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15095,19 +15105,17 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B401" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="D401" s="28" t="s">
-        <v>723</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
         <v>22</v>
       </c>
@@ -15115,27 +15123,25 @@
         <v>3</v>
       </c>
       <c r="G401" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H401" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I401" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I401" s="30"/>
+    </row>
+    <row r="402" spans="1:9" ht="45">
       <c r="A402" s="28" t="s">
-        <v>766</v>
+        <v>381</v>
       </c>
       <c r="B402" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>767</v>
+        <v>711</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>910</v>
+        <v>723</v>
       </c>
       <c r="E402" s="28" t="s">
         <v>22</v>
@@ -15147,51 +15153,53 @@
         <v>15</v>
       </c>
       <c r="H402" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I402" s="30" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="75">
       <c r="A403" s="28" t="s">
-        <v>877</v>
+        <v>766</v>
       </c>
       <c r="B403" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="D403" s="28" t="s">
-        <v>903</v>
+        <v>767</v>
+      </c>
+      <c r="D403" s="21" t="s">
+        <v>907</v>
       </c>
       <c r="E403" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F403" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G403" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H403" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I403" s="30"/>
-    </row>
-    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I403" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="30">
       <c r="A404" s="28" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B404" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="D404" s="28" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E404" s="28" t="s">
         <v>22</v>
@@ -15203,80 +15211,78 @@
         <v>15</v>
       </c>
       <c r="H404" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I404" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I404" s="30"/>
+    </row>
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="28" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B405" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="D405" s="21" t="s">
-        <v>904</v>
+        <v>896</v>
+      </c>
+      <c r="D405" s="28" t="s">
+        <v>900</v>
       </c>
       <c r="E405" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F405" s="21" t="s">
+      <c r="F405" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G405" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H405" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I405" s="19"/>
-    </row>
-    <row r="406" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H405" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I405" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="28" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B406" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>900</v>
-      </c>
-      <c r="D406" s="28" t="s">
-        <v>904</v>
+        <v>867</v>
+      </c>
+      <c r="D406" s="21" t="s">
+        <v>901</v>
       </c>
       <c r="E406" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F406" s="28" t="s">
+      <c r="F406" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G406" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H406" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I406" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H406" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406" s="19"/>
+    </row>
+    <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B407" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>22</v>
@@ -15288,24 +15294,24 @@
         <v>15</v>
       </c>
       <c r="H407" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I407" s="30" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="45">
       <c r="A408" s="28" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>949</v>
-      </c>
-      <c r="D408" s="28" t="s">
-        <v>921</v>
+        <v>945</v>
+      </c>
+      <c r="D408" s="21" t="s">
+        <v>948</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15319,20 +15325,20 @@
       <c r="H408" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I408" s="30"/>
-    </row>
-    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A409" s="28" t="s">
-        <v>881</v>
+      <c r="I408" s="19"/>
+    </row>
+    <row r="409" spans="1:9" ht="45">
+      <c r="A409" s="21" t="s">
+        <v>916</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>870</v>
+        <v>946</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>905</v>
+        <v>948</v>
       </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
@@ -15343,23 +15349,25 @@
       <c r="G409" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H409" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I409" s="19"/>
-    </row>
-    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H409" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I409" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="45">
       <c r="A410" s="28" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B410" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>940</v>
+        <v>868</v>
       </c>
       <c r="D410" s="21" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E410" s="28" t="s">
         <v>22</v>
@@ -15367,28 +15375,26 @@
       <c r="F410" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G410" s="21" t="s">
+      <c r="G410" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H410" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I410" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I410" s="19"/>
+    </row>
+    <row r="411" spans="1:9" ht="45">
       <c r="A411" s="28" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B411" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C411" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D411" s="28" t="s">
-        <v>906</v>
+      <c r="C411" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="D411" s="21" t="s">
+        <v>902</v>
       </c>
       <c r="E411" s="28" t="s">
         <v>22</v>
@@ -15396,26 +15402,28 @@
       <c r="F411" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G411" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H411" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I411" s="30"/>
-    </row>
-    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G411" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H411" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I411" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="60">
       <c r="A412" s="28" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B412" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C412" s="30" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D412" s="28" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E412" s="28" t="s">
         <v>22</v>
@@ -15427,51 +15435,51 @@
         <v>15</v>
       </c>
       <c r="H412" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I412" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I412" s="30"/>
+    </row>
+    <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B413" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C413" s="30" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E413" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F413" s="28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G413" s="28" t="s">
         <v>15</v>
       </c>
       <c r="H413" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I413" s="30"/>
-    </row>
-    <row r="414" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I413" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="45">
       <c r="A414" s="28" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B414" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C414" s="30" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E414" s="28" t="s">
         <v>22</v>
@@ -15483,24 +15491,22 @@
         <v>15</v>
       </c>
       <c r="H414" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I414" s="30" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I414" s="30"/>
+    </row>
+    <row r="415" spans="1:9" ht="45">
       <c r="A415" s="28" t="s">
-        <v>369</v>
+        <v>884</v>
       </c>
       <c r="B415" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C415" s="30" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="E415" s="28" t="s">
         <v>22</v>
@@ -15518,18 +15524,18 @@
         <v>734</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75">
       <c r="A416" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B416" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C416" s="30" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D416" s="28" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E416" s="28" t="s">
         <v>22</v>
@@ -15547,18 +15553,18 @@
         <v>734</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="75">
       <c r="A417" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B417" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C417" s="30" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D417" s="28" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E417" s="28" t="s">
         <v>22</v>
@@ -15576,9 +15582,9 @@
         <v>734</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="75">
       <c r="A418" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B418" s="29" t="s">
         <v>439</v>
@@ -15587,7 +15593,7 @@
         <v>894</v>
       </c>
       <c r="D418" s="28" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E418" s="28" t="s">
         <v>22</v>
@@ -15605,18 +15611,18 @@
         <v>734</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A419" s="21" t="s">
-        <v>893</v>
+    <row r="419" spans="1:9" ht="105">
+      <c r="A419" s="28" t="s">
+        <v>372</v>
       </c>
       <c r="B419" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C419" s="30" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D419" s="28" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E419" s="28" t="s">
         <v>22</v>
@@ -15628,44 +15634,48 @@
         <v>15</v>
       </c>
       <c r="H419" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I419" s="30"/>
-    </row>
-    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I419" s="30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="B420" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C420" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="D420" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="E420" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F420" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G420" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H420" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I420" s="30"/>
+    </row>
+    <row r="421" spans="1:9" ht="45">
+      <c r="A421" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B420" s="23" t="s">
-        <v>941</v>
-      </c>
-      <c r="C420" s="19" t="s">
-        <v>945</v>
-      </c>
-      <c r="D420" s="28"/>
-      <c r="E420" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F420" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G420" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H420" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I420" s="30"/>
-    </row>
-    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A421" s="28" t="s">
-        <v>383</v>
-      </c>
       <c r="B421" s="23" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D421" s="28"/>
       <c r="E421" s="28" t="s">
@@ -15682,15 +15692,15 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C422" s="19" t="s">
-        <v>712</v>
+        <v>936</v>
       </c>
       <c r="D422" s="28"/>
       <c r="E422" s="28" t="s">
@@ -15703,17 +15713,42 @@
         <v>15</v>
       </c>
       <c r="H422" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I422" s="30"/>
+    </row>
+    <row r="423" spans="1:9" ht="360">
+      <c r="A423" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B423" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="C423" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D423" s="28"/>
+      <c r="E423" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G423" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H423" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I422" s="30"/>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423" s="3"/>
-      <c r="B423" s="10"/>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I423" s="30"/>
+    </row>
+    <row r="424" spans="1:9">
       <c r="A424" s="3"/>
       <c r="B424" s="10"/>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" s="3"/>
+      <c r="B425" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15730,7 +15765,7 @@
     <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
+  <conditionalFormatting sqref="A239:I291 A294:I363 A396:H396 A366:I395 A127:I234 A125:H126 A20:I124 A397:I423">
     <cfRule type="expression" dxfId="92" priority="133">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15741,7 +15776,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A238:I290 A293:I362 A395:H395 A365:I394 A126:I233 A125:H125 A20:I124 A396:I422">
+  <conditionalFormatting sqref="A239:I291 A294:I363 A396:H396 A366:I395 A127:I234 A125:H126 A20:I124 A397:I423">
     <cfRule type="expression" dxfId="89" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15752,7 +15787,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F233 F238:F290 F293:F362 F365:F422">
+  <conditionalFormatting sqref="F20:F234 F239:F291 F294:F363 F366:F423">
     <cfRule type="expression" dxfId="86" priority="93">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -15760,7 +15795,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A363:A364 C363:I364">
+  <conditionalFormatting sqref="A364:A365 C364:I365">
     <cfRule type="expression" dxfId="84" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15771,7 +15806,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A363:A364 C363:I364">
+  <conditionalFormatting sqref="A364:A365 C364:I365">
     <cfRule type="expression" dxfId="81" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15782,15 +15817,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F363:F364">
+  <conditionalFormatting sqref="F364:F365">
     <cfRule type="expression" dxfId="78" priority="76">
-      <formula>NOT(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F364,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="77">
-      <formula>(VLOOKUP(F363,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F364,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I363:I364">
+  <conditionalFormatting sqref="I364:I365">
     <cfRule type="expression" dxfId="76" priority="70">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15801,7 +15836,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I363:I364">
+  <conditionalFormatting sqref="I364:I365">
     <cfRule type="expression" dxfId="73" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15812,7 +15847,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A234:I237">
+  <conditionalFormatting sqref="A235:I238">
     <cfRule type="expression" dxfId="70" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15823,7 +15858,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A234:I237">
+  <conditionalFormatting sqref="A235:I238">
     <cfRule type="expression" dxfId="67" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15834,15 +15869,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F234:F237">
+  <conditionalFormatting sqref="F235:F238">
     <cfRule type="expression" dxfId="64" priority="62">
-      <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F235,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="63" priority="63">
-      <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F235,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I234:I237">
+  <conditionalFormatting sqref="I235:I238">
     <cfRule type="expression" dxfId="62" priority="56">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15853,7 +15888,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I234:I237">
+  <conditionalFormatting sqref="I235:I238">
     <cfRule type="expression" dxfId="59" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15864,7 +15899,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A291:A292 C291:I292">
+  <conditionalFormatting sqref="A292:A293 C292:I293">
     <cfRule type="expression" dxfId="56" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15875,7 +15910,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A291:A292 C291:I292">
+  <conditionalFormatting sqref="A292:A293 C292:I293">
     <cfRule type="expression" dxfId="53" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15886,15 +15921,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F291:F292">
+  <conditionalFormatting sqref="F292:F293">
     <cfRule type="expression" dxfId="50" priority="48">
-      <formula>NOT(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F292,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="49" priority="49">
-      <formula>(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F292,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I291:I292">
+  <conditionalFormatting sqref="I292:I293">
     <cfRule type="expression" dxfId="48" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15905,7 +15940,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I291:I292">
+  <conditionalFormatting sqref="I292:I293">
     <cfRule type="expression" dxfId="45" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15916,7 +15951,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B292">
+  <conditionalFormatting sqref="B293">
     <cfRule type="expression" dxfId="42" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15927,7 +15962,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B292">
+  <conditionalFormatting sqref="B293">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15938,7 +15973,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B291">
+  <conditionalFormatting sqref="B292">
     <cfRule type="expression" dxfId="36" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15949,7 +15984,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B291">
+  <conditionalFormatting sqref="B292">
     <cfRule type="expression" dxfId="33" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15960,7 +15995,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B363">
+  <conditionalFormatting sqref="B364">
     <cfRule type="expression" dxfId="30" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15971,7 +16006,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B363">
+  <conditionalFormatting sqref="B364">
     <cfRule type="expression" dxfId="27" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -15982,7 +16017,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B364">
+  <conditionalFormatting sqref="B365">
     <cfRule type="expression" dxfId="24" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -15993,7 +16028,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B364">
+  <conditionalFormatting sqref="B365">
     <cfRule type="expression" dxfId="21" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -16005,20 +16040,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F422" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F423" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E422" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E423" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G422" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G423" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H422" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H423" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16028,7 +16063,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B10:B17 B19:B42 B419 B43:B121 B151:B181 B122:B150 B237:B294 B306:B333 B295:B305 B334:B366 B182:B236 B396:B418 B367:B395 B423:B424" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B10:B17 B127:B420 B424:B425 B19:B124" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F65448-C719-4440-B0E9-7FDDA90EB6B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D05AB-C5E0-4715-84BE-FF504597B01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -3543,22 +3543,22 @@
     <t>[In Appendix C: Product Behavior] Implementation does not return the items of type t:ItemType as a t:MessageType type.(&lt;3&gt; Section 2.2.4.6:  Exchange 2007 does not return the items of type t:ItemType as a t:MessageType type. )</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does return a ItemType item.(Microsoft Exchange Server 2007 Service Pack 1 (SP1) starts to return the items of type t:ItemType as a t:MessageType type.)</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type][The type of Item element is] t:ItemType ([MS-OXWSCORE] section 2.2.4.24).</t>
   </si>
   <si>
     <t>MS-OXWSATT_R444:i,MS-OXWSATT_R1:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSATT_R318015.</t>
-  </si>
-  <si>
     <t>[In t:ItemAttachmentType Complex Type] [The type of RoleMember element is] t:RoleMemberItemType ([MS-OXWSCORE] section 2.2.4.43)</t>
   </si>
   <si>
     <t>[In t:ItemAttachmentType Complex Type] [The type of Network element is] t:NetworkItemType ([MS-OXWSCORE] section 2.2.4.30)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does return the items of type t:ItemType as a t:MessageType type.(Microsoft Exchange Server 2007 Service Pack 1 (SP1) starts to return the items of type t:ItemType as a t:MessageType type.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSATT_R318014.</t>
   </si>
 </sst>
 </file>
@@ -3871,6 +3871,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3894,27 +3915,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5150,8 +5150,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="D123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5217,16 +5217,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5238,13 +5238,13 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -5252,16 +5252,16 @@
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -5269,16 +5269,16 @@
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -5286,16 +5286,16 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -5303,16 +5303,16 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -5320,16 +5320,16 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -5337,16 +5337,16 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="45" t="s">
         <v>737</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -5430,16 +5430,16 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -5447,16 +5447,16 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -5464,16 +5464,16 @@
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="45" t="s">
         <v>739</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -8158,7 +8158,7 @@
         <v>397</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="28" t="s">
@@ -8224,7 +8224,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30">
@@ -8685,7 +8685,7 @@
         <v>397</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -8735,7 +8735,7 @@
         <v>397</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -15296,22 +15296,22 @@
       <c r="H407" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I407" s="30" t="s">
+      <c r="I407" s="19" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="45">
-      <c r="A408" s="28" t="s">
-        <v>886</v>
+      <c r="A408" s="21" t="s">
+        <v>916</v>
       </c>
       <c r="B408" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D408" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E408" s="28" t="s">
         <v>22</v>
@@ -15322,23 +15322,23 @@
       <c r="G408" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H408" s="28" t="s">
+      <c r="H408" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I408" s="19"/>
     </row>
     <row r="409" spans="1:9" ht="45">
       <c r="A409" s="21" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="B409" s="29" t="s">
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E409" s="28" t="s">
         <v>22</v>
@@ -15349,7 +15349,7 @@
       <c r="G409" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H409" s="28" t="s">
+      <c r="H409" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I409" s="30" t="s">
@@ -15752,17 +15752,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A239:I291 A294:I363 A396:H396 A366:I395 A127:I234 A125:H126 A20:I124 A397:I423">

--- a/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSATT/MS-OXWSATT_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D05AB-C5E0-4715-84BE-FF504597B01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF52601-0611-4464-A31C-7C1F5F881D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3871,27 +3871,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3915,6 +3894,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5150,8 +5150,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5217,16 +5217,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5238,13 +5238,13 @@
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -5252,16 +5252,16 @@
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -5269,16 +5269,16 @@
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -5286,16 +5286,16 @@
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -5303,16 +5303,16 @@
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -5320,16 +5320,16 @@
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="56" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -5337,16 +5337,16 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>737</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -5430,16 +5430,16 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -5447,16 +5447,16 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -5464,16 +5464,16 @@
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -15308,7 +15308,7 @@
         <v>439</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D408" s="21" t="s">
         <v>947</v>
@@ -15335,7 +15335,7 @@
         <v>439</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>947</v>
@@ -15752,17 +15752,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A239:I291 A294:I363 A396:H396 A366:I395 A127:I234 A125:H126 A20:I124 A397:I423">
